--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_1_branch_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_1_branch_resonant.xlsx
@@ -994,40 +994,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052540003E-14</v>
+        <v>1.042129368360492E-14</v>
       </c>
       <c r="O2">
-        <v>2.605324771594614E-15</v>
+        <v>2.605321921290577E-15</v>
       </c>
       <c r="P2">
-        <v>6.991986392047532E-22</v>
+        <v>-5.210646479757795E-14</v>
       </c>
       <c r="Q2">
-        <v>5.210646841799822E-15</v>
+        <v>-3.858215750945292E-27</v>
       </c>
       <c r="R2">
-        <v>1.302704400274988E-14</v>
+        <v>7.816400010929863E-15</v>
       </c>
       <c r="S2">
-        <v>-5.210219294100392E-15</v>
+        <v>2.605365883770323E-14</v>
       </c>
       <c r="T2">
-        <v>-1.563194052540042E-14</v>
+        <v>2.605323420899364E-14</v>
       </c>
       <c r="U2">
-        <v>5.763389653450836E-09</v>
+        <v>5.763384442806944E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763397469429034E-09</v>
+        <v>-5.763413101372581E-09</v>
       </c>
       <c r="W2">
-        <v>2.084258736720036E-14</v>
+        <v>-1.563194052539772E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763392258288356E-09</v>
+        <v>-5.763397468938157E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763387048621244E-09</v>
+        <v>5.763397469917961E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1048,40 +1048,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023832347</v>
+        <v>1.100000023832171</v>
       </c>
       <c r="AG2">
-        <v>0.5500000119157946</v>
+        <v>0.5500000119160762</v>
       </c>
       <c r="AH2">
-        <v>0.5500000119165519</v>
+        <v>0.5500000119168402</v>
       </c>
       <c r="AI2">
-        <v>1.100000023832347</v>
+        <v>1.100000023832171</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000118694253</v>
+        <v>0.5500000118697077</v>
       </c>
       <c r="AK2">
-        <v>0.5500000119629207</v>
+        <v>0.5500000119632104</v>
       </c>
       <c r="AL2">
-        <v>7.06490605679029E-13</v>
+        <v>-1.414637378542286E-11</v>
       </c>
       <c r="AM2">
-        <v>179.9999999999793</v>
+        <v>-179.9999999999778</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999999858</v>
+        <v>-179.9999999999567</v>
       </c>
       <c r="AO2">
-        <v>6.979212866785999E-13</v>
+        <v>-1.414152507942897E-11</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999957488</v>
+        <v>-179.9999999957204</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999957423</v>
+        <v>179.9999999957714</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1125,40 +1125,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.563194052540035E-14</v>
+        <v>1.042129368360105E-14</v>
       </c>
       <c r="O3">
-        <v>-7.815780377961056E-15</v>
+        <v>2.605514254309466E-15</v>
       </c>
       <c r="P3">
-        <v>1.042148378270068E-14</v>
+        <v>1.891244271248741E-19</v>
       </c>
       <c r="Q3">
-        <v>5.210646841800075E-15</v>
+        <v>2.572143833963528E-27</v>
       </c>
       <c r="R3">
-        <v>2.344776848683631E-14</v>
+        <v>-2.605466670050932E-15</v>
       </c>
       <c r="S3">
-        <v>-1.563208304277638E-14</v>
+        <v>-1.563208206863941E-14</v>
       </c>
       <c r="T3">
-        <v>1.042129368359996E-14</v>
+        <v>1.042129368359591E-14</v>
       </c>
       <c r="U3">
-        <v>-1.92113683179678E-09</v>
+        <v>-1.921142042444606E-09</v>
       </c>
       <c r="V3">
-        <v>1.921129016261069E-09</v>
+        <v>1.921123805615239E-09</v>
       </c>
       <c r="W3">
-        <v>6.347101617540068E-29</v>
+        <v>1.042129368359848E-14</v>
       </c>
       <c r="X3">
-        <v>1.921123805233666E-09</v>
+        <v>1.921129015881491E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.92112901620708E-09</v>
+        <v>-1.921129016208092E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1179,40 +1179,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023832347</v>
+        <v>1.100000023832171</v>
       </c>
       <c r="AG3">
-        <v>0.5500000118539691</v>
+        <v>0.5500000118542514</v>
       </c>
       <c r="AH3">
-        <v>0.5500000119783773</v>
+        <v>0.5500000119786668</v>
       </c>
       <c r="AI3">
-        <v>1.100000023832347</v>
+        <v>1.100000023832171</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000118694253</v>
+        <v>0.5500000118697077</v>
       </c>
       <c r="AK3">
-        <v>0.5500000119629207</v>
+        <v>0.5500000119632104</v>
       </c>
       <c r="AL3">
-        <v>6.865039458429775E-13</v>
+        <v>-1.413935290675018E-11</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999943296</v>
+        <v>-179.9999999943013</v>
       </c>
       <c r="AN3">
-        <v>179.9999999943232</v>
+        <v>179.9999999943523</v>
       </c>
       <c r="AO3">
-        <v>6.979212866785999E-13</v>
+        <v>-1.414152507942897E-11</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999957488</v>
+        <v>-179.9999999957204</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999957423</v>
+        <v>179.9999999957714</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1256,40 +1256,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.605323420900057E-14</v>
+        <v>5.210646841799237E-15</v>
       </c>
       <c r="O4">
-        <v>-1.823707406399381E-14</v>
+        <v>-7.815779430315976E-15</v>
       </c>
       <c r="P4">
-        <v>1.900990852910209E-19</v>
+        <v>1.891244271248741E-19</v>
       </c>
       <c r="Q4">
-        <v>1.563194052540029E-14</v>
+        <v>1.042129368360105E-14</v>
       </c>
       <c r="R4">
-        <v>2.344776848760823E-14</v>
+        <v>1.823712069616558E-14</v>
       </c>
       <c r="S4">
-        <v>-5.210789358290473E-15</v>
+        <v>-2.60533757531308E-14</v>
       </c>
       <c r="T4">
-        <v>1.563194052539991E-14</v>
+        <v>-1.285430982228046E-27</v>
       </c>
       <c r="U4">
-        <v>-1.921115989209416E-09</v>
+        <v>-1.921131621150926E-09</v>
       </c>
       <c r="V4">
-        <v>1.92112901626107E-09</v>
+        <v>1.92112380561524E-09</v>
       </c>
       <c r="W4">
-        <v>-5.210646841799885E-15</v>
+        <v>1.042129368359591E-14</v>
       </c>
       <c r="X4">
-        <v>1.921113383939983E-09</v>
+        <v>1.921118594587811E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921129016207081E-09</v>
+        <v>-1.921129016208091E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1310,40 +1310,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023832347</v>
+        <v>1.10000002383217</v>
       </c>
       <c r="AG4">
-        <v>0.550000011853969</v>
+        <v>0.5500000118542517</v>
       </c>
       <c r="AH4">
-        <v>0.5500000119783771</v>
+        <v>0.550000011978667</v>
       </c>
       <c r="AI4">
-        <v>1.100000023832347</v>
+        <v>1.100000023832171</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000118694253</v>
+        <v>0.5500000118697077</v>
       </c>
       <c r="AK4">
-        <v>0.5500000119629207</v>
+        <v>0.5500000119632104</v>
       </c>
       <c r="AL4">
-        <v>6.992332288419499E-13</v>
+        <v>-1.413447742153807E-11</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999943297</v>
+        <v>-179.9999999943014</v>
       </c>
       <c r="AN4">
-        <v>179.9999999943232</v>
+        <v>179.9999999943523</v>
       </c>
       <c r="AO4">
-        <v>6.979212866785999E-13</v>
+        <v>-1.414152507942897E-11</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999957488</v>
+        <v>-179.9999999957204</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999957423</v>
+        <v>179.9999999957714</v>
       </c>
     </row>
   </sheetData>
@@ -1531,40 +1531,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.302661710456502E-15</v>
+        <v>3.907985131368964E-15</v>
       </c>
       <c r="O2">
-        <v>-9.554716705865689E-10</v>
+        <v>-9.554904638452723E-10</v>
       </c>
       <c r="P2">
-        <v>-3.074955280290096E-09</v>
+        <v>-3.074979159527696E-09</v>
       </c>
       <c r="Q2">
-        <v>-1.302661710456616E-15</v>
+        <v>-1.302661710455954E-15</v>
       </c>
       <c r="R2">
-        <v>9.554844525561757E-10</v>
+        <v>9.555022874446198E-10</v>
       </c>
       <c r="S2">
-        <v>3.074953504785545E-09</v>
+        <v>3.074964423832757E-09</v>
       </c>
       <c r="T2">
-        <v>-1.302661710456561E-14</v>
+        <v>-5.210646841826431E-15</v>
       </c>
       <c r="U2">
-        <v>4.027686178793703E-09</v>
+        <v>4.027679447745365E-09</v>
       </c>
       <c r="V2">
-        <v>-3.56638564030446E-10</v>
+        <v>-3.566380329075012E-10</v>
       </c>
       <c r="W2">
-        <v>1.30266171045656E-14</v>
+        <v>5.210646841826155E-15</v>
       </c>
       <c r="X2">
-        <v>-4.027684340924886E-09</v>
+        <v>-4.027686956703862E-09</v>
       </c>
       <c r="Y2">
-        <v>3.566413602695215E-10</v>
+        <v>3.566365229749929E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1585,40 +1585,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023837871</v>
+        <v>1.100000023837824</v>
       </c>
       <c r="AG2">
-        <v>0.9350396555956254</v>
+        <v>0.9350396555957214</v>
       </c>
       <c r="AH2">
-        <v>0.6992415818049247</v>
+        <v>0.6992415818048391</v>
       </c>
       <c r="AI2">
-        <v>1.100000023837871</v>
+        <v>1.100000023837824</v>
       </c>
       <c r="AJ2">
-        <v>0.93503965558055</v>
+        <v>0.9350396555806463</v>
       </c>
       <c r="AK2">
-        <v>0.6992415818243319</v>
+        <v>0.6992415818242466</v>
       </c>
       <c r="AL2">
-        <v>2.577672297662352E-13</v>
+        <v>-6.041521756623502E-12</v>
       </c>
       <c r="AM2">
-        <v>-140.8543229646633</v>
+        <v>-140.8543229646606</v>
       </c>
       <c r="AN2">
-        <v>122.4159013159207</v>
+        <v>122.4159013159319</v>
       </c>
       <c r="AO2">
-        <v>2.453908271989175E-13</v>
+        <v>-6.050321983730479E-12</v>
       </c>
       <c r="AP2">
-        <v>-140.8543229633568</v>
+        <v>-140.8543229633542</v>
       </c>
       <c r="AQ2">
-        <v>122.4159013173522</v>
+        <v>122.4159013173634</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1662,40 +1662,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.042129368365248E-14</v>
+        <v>-6.513308552281971E-15</v>
       </c>
       <c r="O3">
-        <v>3.184935660196813E-10</v>
+        <v>3.184962625683323E-10</v>
       </c>
       <c r="P3">
-        <v>1.024986365705242E-09</v>
+        <v>1.024990182428813E-09</v>
       </c>
       <c r="Q3">
-        <v>5.210646841826242E-15</v>
+        <v>6.513308552281971E-15</v>
       </c>
       <c r="R3">
-        <v>-3.184842191838752E-10</v>
+        <v>-3.184801245592363E-10</v>
       </c>
       <c r="S3">
-        <v>-1.024984324554015E-09</v>
+        <v>-1.025001101467976E-09</v>
       </c>
       <c r="T3">
-        <v>-4.363436580581355E-29</v>
+        <v>5.210646841826705E-15</v>
       </c>
       <c r="U3">
-        <v>-1.342563417552478E-09</v>
+        <v>-1.342575500407684E-09</v>
       </c>
       <c r="V3">
-        <v>1.188816371534663E-10</v>
+        <v>1.188879844679724E-10</v>
       </c>
       <c r="W3">
-        <v>2.231656414527475E-29</v>
+        <v>-5.210646841826705E-15</v>
       </c>
       <c r="X3">
-        <v>1.342562459191855E-09</v>
+        <v>1.342548658803967E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.188724936771582E-10</v>
+        <v>-1.188831471632507E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1716,40 +1716,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023837871</v>
+        <v>1.100000023837824</v>
       </c>
       <c r="AG3">
-        <v>0.9350396555755249</v>
+        <v>0.9350396555756212</v>
       </c>
       <c r="AH3">
-        <v>0.6992415818308009</v>
+        <v>0.6992415818307157</v>
       </c>
       <c r="AI3">
-        <v>1.100000023837871</v>
+        <v>1.100000023837824</v>
       </c>
       <c r="AJ3">
-        <v>0.93503965558055</v>
+        <v>0.9350396555806463</v>
       </c>
       <c r="AK3">
-        <v>0.6992415818243319</v>
+        <v>0.6992415818242466</v>
       </c>
       <c r="AL3">
-        <v>2.398996783215825E-13</v>
+        <v>-6.05280312864114E-12</v>
       </c>
       <c r="AM3">
-        <v>-140.8543229629213</v>
+        <v>-140.8543229629186</v>
       </c>
       <c r="AN3">
-        <v>122.4159013178294</v>
+        <v>122.4159013178406</v>
       </c>
       <c r="AO3">
-        <v>2.453908271989175E-13</v>
+        <v>-6.050321983730479E-12</v>
       </c>
       <c r="AP3">
-        <v>-140.8543229633568</v>
+        <v>-140.8543229633542</v>
       </c>
       <c r="AQ3">
-        <v>122.4159013173522</v>
+        <v>122.4159013173634</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1793,40 +1793,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-3.90798513136966E-15</v>
+        <v>-6.513308552283072E-15</v>
       </c>
       <c r="O4">
-        <v>3.184901309538239E-10</v>
+        <v>3.18490670263629E-10</v>
       </c>
       <c r="P4">
-        <v>1.024984324562508E-09</v>
+        <v>1.024982548981376E-09</v>
       </c>
       <c r="Q4">
-        <v>-1.302661710456572E-15</v>
+        <v>9.118631973196079E-15</v>
       </c>
       <c r="R4">
-        <v>-3.184807841180179E-10</v>
+        <v>-3.184822817980819E-10</v>
       </c>
       <c r="S4">
-        <v>-1.024984324554015E-09</v>
+        <v>-1.025002877048961E-09</v>
       </c>
       <c r="T4">
-        <v>-5.21064684182626E-15</v>
+        <v>-5.21064684182533E-15</v>
       </c>
       <c r="U4">
-        <v>-1.342566213704829E-09</v>
+        <v>-1.34256863027597E-09</v>
       </c>
       <c r="V4">
-        <v>1.188724936867941E-10</v>
+        <v>1.188752898393314E-10</v>
       </c>
       <c r="W4">
-        <v>2.605323420913115E-15</v>
+        <v>5.210646841825055E-15</v>
       </c>
       <c r="X4">
-        <v>1.342565255344207E-09</v>
+        <v>1.342558325088034E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.188724936771582E-10</v>
+        <v>-1.188803510108992E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1847,40 +1847,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023837871</v>
+        <v>1.100000023837824</v>
       </c>
       <c r="AG4">
-        <v>0.9350396555755248</v>
+        <v>0.9350396555756211</v>
       </c>
       <c r="AH4">
-        <v>0.6992415818308009</v>
+        <v>0.6992415818307158</v>
       </c>
       <c r="AI4">
-        <v>1.100000023837871</v>
+        <v>1.100000023837824</v>
       </c>
       <c r="AJ4">
-        <v>0.93503965558055</v>
+        <v>0.9350396555806463</v>
       </c>
       <c r="AK4">
-        <v>0.6992415818243319</v>
+        <v>0.6992415818242466</v>
       </c>
       <c r="AL4">
-        <v>2.46662345151108E-13</v>
+        <v>-6.048747198571105E-12</v>
       </c>
       <c r="AM4">
-        <v>-140.8543229629213</v>
+        <v>-140.8543229629187</v>
       </c>
       <c r="AN4">
-        <v>122.4159013178294</v>
+        <v>122.4159013178406</v>
       </c>
       <c r="AO4">
-        <v>2.453908271989175E-13</v>
+        <v>-6.050321983730479E-12</v>
       </c>
       <c r="AP4">
-        <v>-140.8543229633568</v>
+        <v>-140.8543229633542</v>
       </c>
       <c r="AQ4">
-        <v>122.4159013173522</v>
+        <v>122.4159013173634</v>
       </c>
     </row>
   </sheetData>
@@ -2068,40 +2068,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.302661710456502E-15</v>
+        <v>3.907985131368964E-15</v>
       </c>
       <c r="O2">
-        <v>-9.554716705865689E-10</v>
+        <v>-9.554904638452723E-10</v>
       </c>
       <c r="P2">
-        <v>-3.074955280290096E-09</v>
+        <v>-3.074979159527696E-09</v>
       </c>
       <c r="Q2">
-        <v>-1.302661710456616E-15</v>
+        <v>-1.302661710455954E-15</v>
       </c>
       <c r="R2">
-        <v>9.554844525561757E-10</v>
+        <v>9.555022874446198E-10</v>
       </c>
       <c r="S2">
-        <v>3.074953504785545E-09</v>
+        <v>3.074964423832757E-09</v>
       </c>
       <c r="T2">
-        <v>-1.302661710456561E-14</v>
+        <v>-5.210646841826431E-15</v>
       </c>
       <c r="U2">
-        <v>4.027686178793703E-09</v>
+        <v>4.027679447745365E-09</v>
       </c>
       <c r="V2">
-        <v>-3.56638564030446E-10</v>
+        <v>-3.566380329075012E-10</v>
       </c>
       <c r="W2">
-        <v>1.30266171045656E-14</v>
+        <v>5.210646841826155E-15</v>
       </c>
       <c r="X2">
-        <v>-4.027684340924886E-09</v>
+        <v>-4.027686956703862E-09</v>
       </c>
       <c r="Y2">
-        <v>3.566413602695215E-10</v>
+        <v>3.566365229749929E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2122,40 +2122,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023837871</v>
+        <v>1.100000023837824</v>
       </c>
       <c r="AG2">
-        <v>0.9350396555956254</v>
+        <v>0.9350396555957214</v>
       </c>
       <c r="AH2">
-        <v>0.6992415818049247</v>
+        <v>0.6992415818048391</v>
       </c>
       <c r="AI2">
-        <v>1.100000023837871</v>
+        <v>1.100000023837824</v>
       </c>
       <c r="AJ2">
-        <v>0.93503965558055</v>
+        <v>0.9350396555806463</v>
       </c>
       <c r="AK2">
-        <v>0.6992415818243319</v>
+        <v>0.6992415818242466</v>
       </c>
       <c r="AL2">
-        <v>2.577672297662352E-13</v>
+        <v>-6.041521756623502E-12</v>
       </c>
       <c r="AM2">
-        <v>-140.8543229646633</v>
+        <v>-140.8543229646606</v>
       </c>
       <c r="AN2">
-        <v>122.4159013159207</v>
+        <v>122.4159013159319</v>
       </c>
       <c r="AO2">
-        <v>2.453908271989175E-13</v>
+        <v>-6.050321983730479E-12</v>
       </c>
       <c r="AP2">
-        <v>-140.8543229633568</v>
+        <v>-140.8543229633542</v>
       </c>
       <c r="AQ2">
-        <v>122.4159013173522</v>
+        <v>122.4159013173634</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2199,40 +2199,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.042129368365248E-14</v>
+        <v>-6.513308552281971E-15</v>
       </c>
       <c r="O3">
-        <v>3.184935660196813E-10</v>
+        <v>3.184962625683323E-10</v>
       </c>
       <c r="P3">
-        <v>1.024986365705242E-09</v>
+        <v>1.024990182428813E-09</v>
       </c>
       <c r="Q3">
-        <v>5.210646841826242E-15</v>
+        <v>6.513308552281971E-15</v>
       </c>
       <c r="R3">
-        <v>-3.184842191838752E-10</v>
+        <v>-3.184801245592363E-10</v>
       </c>
       <c r="S3">
-        <v>-1.024984324554015E-09</v>
+        <v>-1.025001101467976E-09</v>
       </c>
       <c r="T3">
-        <v>-4.363436580581355E-29</v>
+        <v>5.210646841826705E-15</v>
       </c>
       <c r="U3">
-        <v>-1.342563417552478E-09</v>
+        <v>-1.342575500407684E-09</v>
       </c>
       <c r="V3">
-        <v>1.188816371534663E-10</v>
+        <v>1.188879844679724E-10</v>
       </c>
       <c r="W3">
-        <v>2.231656414527475E-29</v>
+        <v>-5.210646841826705E-15</v>
       </c>
       <c r="X3">
-        <v>1.342562459191855E-09</v>
+        <v>1.342548658803967E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.188724936771582E-10</v>
+        <v>-1.188831471632507E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2253,40 +2253,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023837871</v>
+        <v>1.100000023837824</v>
       </c>
       <c r="AG3">
-        <v>0.9350396555755249</v>
+        <v>0.9350396555756212</v>
       </c>
       <c r="AH3">
-        <v>0.6992415818308009</v>
+        <v>0.6992415818307157</v>
       </c>
       <c r="AI3">
-        <v>1.100000023837871</v>
+        <v>1.100000023837824</v>
       </c>
       <c r="AJ3">
-        <v>0.93503965558055</v>
+        <v>0.9350396555806463</v>
       </c>
       <c r="AK3">
-        <v>0.6992415818243319</v>
+        <v>0.6992415818242466</v>
       </c>
       <c r="AL3">
-        <v>2.398996783215825E-13</v>
+        <v>-6.05280312864114E-12</v>
       </c>
       <c r="AM3">
-        <v>-140.8543229629213</v>
+        <v>-140.8543229629186</v>
       </c>
       <c r="AN3">
-        <v>122.4159013178294</v>
+        <v>122.4159013178406</v>
       </c>
       <c r="AO3">
-        <v>2.453908271989175E-13</v>
+        <v>-6.050321983730479E-12</v>
       </c>
       <c r="AP3">
-        <v>-140.8543229633568</v>
+        <v>-140.8543229633542</v>
       </c>
       <c r="AQ3">
-        <v>122.4159013173522</v>
+        <v>122.4159013173634</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2330,40 +2330,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-3.90798513136966E-15</v>
+        <v>-6.513308552283072E-15</v>
       </c>
       <c r="O4">
-        <v>3.184901309538239E-10</v>
+        <v>3.18490670263629E-10</v>
       </c>
       <c r="P4">
-        <v>1.024984324562508E-09</v>
+        <v>1.024982548981376E-09</v>
       </c>
       <c r="Q4">
-        <v>-1.302661710456572E-15</v>
+        <v>9.118631973196079E-15</v>
       </c>
       <c r="R4">
-        <v>-3.184807841180179E-10</v>
+        <v>-3.184822817980819E-10</v>
       </c>
       <c r="S4">
-        <v>-1.024984324554015E-09</v>
+        <v>-1.025002877048961E-09</v>
       </c>
       <c r="T4">
-        <v>-5.21064684182626E-15</v>
+        <v>-5.21064684182533E-15</v>
       </c>
       <c r="U4">
-        <v>-1.342566213704829E-09</v>
+        <v>-1.34256863027597E-09</v>
       </c>
       <c r="V4">
-        <v>1.188724936867941E-10</v>
+        <v>1.188752898393314E-10</v>
       </c>
       <c r="W4">
-        <v>2.605323420913115E-15</v>
+        <v>5.210646841825055E-15</v>
       </c>
       <c r="X4">
-        <v>1.342565255344207E-09</v>
+        <v>1.342558325088034E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.188724936771582E-10</v>
+        <v>-1.188803510108992E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2384,40 +2384,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023837871</v>
+        <v>1.100000023837824</v>
       </c>
       <c r="AG4">
-        <v>0.9350396555755248</v>
+        <v>0.9350396555756211</v>
       </c>
       <c r="AH4">
-        <v>0.6992415818308009</v>
+        <v>0.6992415818307158</v>
       </c>
       <c r="AI4">
-        <v>1.100000023837871</v>
+        <v>1.100000023837824</v>
       </c>
       <c r="AJ4">
-        <v>0.93503965558055</v>
+        <v>0.9350396555806463</v>
       </c>
       <c r="AK4">
-        <v>0.6992415818243319</v>
+        <v>0.6992415818242466</v>
       </c>
       <c r="AL4">
-        <v>2.46662345151108E-13</v>
+        <v>-6.048747198571105E-12</v>
       </c>
       <c r="AM4">
-        <v>-140.8543229629213</v>
+        <v>-140.8543229629187</v>
       </c>
       <c r="AN4">
-        <v>122.4159013178294</v>
+        <v>122.4159013178406</v>
       </c>
       <c r="AO4">
-        <v>2.453908271989175E-13</v>
+        <v>-6.050321983730479E-12</v>
       </c>
       <c r="AP4">
-        <v>-140.8543229633568</v>
+        <v>-140.8543229633542</v>
       </c>
       <c r="AQ4">
-        <v>122.4159013173522</v>
+        <v>122.4159013173634</v>
       </c>
     </row>
   </sheetData>
@@ -2605,40 +2605,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.60532336445287E-14</v>
+        <v>-1.421085471519815E-14</v>
       </c>
       <c r="O2">
-        <v>-5.921197016064435E-15</v>
+        <v>-1.184238618040675E-14</v>
       </c>
       <c r="P2">
-        <v>-4.736959702735938E-15</v>
+        <v>4.736943346608845E-15</v>
       </c>
       <c r="Q2">
-        <v>2.131628207279622E-14</v>
+        <v>1.184237892933287E-14</v>
       </c>
       <c r="R2">
-        <v>7.106114431667139E-15</v>
+        <v>1.184306570894512E-14</v>
       </c>
       <c r="S2">
-        <v>7.106115020595325E-15</v>
+        <v>-2.367788031655747E-15</v>
       </c>
       <c r="T2">
-        <v>2.368475785866183E-14</v>
+        <v>-1.07185334250342E-27</v>
       </c>
       <c r="U2">
-        <v>4.763092438980543E-09</v>
+        <v>4.763120860689133E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763109018312036E-09</v>
+        <v>-4.763104281359626E-09</v>
       </c>
       <c r="W2">
-        <v>-1.894780628692944E-14</v>
+        <v>-1.421085471519726E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763113754861052E-09</v>
+        <v>-4.763120860287567E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763104281762026E-09</v>
+        <v>4.763104281761187E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2659,40 +2659,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999996692</v>
+        <v>0.999999999999729</v>
       </c>
       <c r="AG2">
-        <v>0.4999999999997825</v>
+        <v>0.4999999999996943</v>
       </c>
       <c r="AH2">
-        <v>0.4999999999998866</v>
+        <v>0.4999999999997986</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999996694</v>
+        <v>0.9999999999997292</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999999576291</v>
+        <v>0.4999999999575407</v>
       </c>
       <c r="AK2">
-        <v>0.50000000004204</v>
+        <v>0.5000000000419519</v>
       </c>
       <c r="AL2">
-        <v>7.588583378331614E-13</v>
+        <v>4.321532660294841E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999999019</v>
+        <v>-179.9999999999055</v>
       </c>
       <c r="AN2">
-        <v>179.9999999998949</v>
+        <v>179.9999999998938</v>
       </c>
       <c r="AO2">
-        <v>7.986655834830963E-13</v>
+        <v>4.336160231205623E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999917278</v>
+        <v>-179.9999999917314</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999917208</v>
+        <v>179.9999999917196</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2736,40 +2736,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-4.7369515717327E-15</v>
+        <v>4.736951571732719E-15</v>
       </c>
       <c r="O3">
-        <v>-1.183933364503819E-15</v>
+        <v>-1.184207450169295E-14</v>
       </c>
       <c r="P3">
-        <v>-4.736646845738458E-15</v>
+        <v>4.737256327848427E-15</v>
       </c>
       <c r="Q3">
-        <v>2.36847578586635E-15</v>
+        <v>-4.736951571732359E-15</v>
       </c>
       <c r="R3">
-        <v>7.105198334387123E-15</v>
+        <v>1.184215000373414E-14</v>
       </c>
       <c r="S3">
-        <v>7.105198135119838E-15</v>
+        <v>-2.368705038447688E-15</v>
       </c>
       <c r="T3">
-        <v>1.894780628692967E-14</v>
+        <v>3.58830507517073E-28</v>
       </c>
       <c r="U3">
-        <v>-1.587710111352566E-09</v>
+        <v>-1.587691163546002E-09</v>
       </c>
       <c r="V3">
-        <v>1.58771248018563E-09</v>
+        <v>1.587707743233776E-09</v>
       </c>
       <c r="W3">
-        <v>-9.473903143464837E-15</v>
+        <v>-4.736951571733077E-15</v>
       </c>
       <c r="X3">
-        <v>1.587688795115114E-09</v>
+        <v>1.58769116359062E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587717217092584E-09</v>
+        <v>-1.587707743189158E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2790,40 +2790,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999996694</v>
+        <v>0.9999999999997293</v>
       </c>
       <c r="AG3">
-        <v>0.4999999999435779</v>
+        <v>0.4999999999434894</v>
       </c>
       <c r="AH3">
-        <v>0.5000000000560912</v>
+        <v>0.5000000000560031</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999996694</v>
+        <v>0.9999999999997292</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999999576291</v>
+        <v>0.4999999999575407</v>
       </c>
       <c r="AK3">
-        <v>0.50000000004204</v>
+        <v>0.5000000000419519</v>
       </c>
       <c r="AL3">
-        <v>8.019054434887934E-13</v>
+        <v>4.340233023269944E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999890032</v>
+        <v>-179.9999999890067</v>
       </c>
       <c r="AN3">
-        <v>179.9999999889961</v>
+        <v>179.9999999889949</v>
       </c>
       <c r="AO3">
-        <v>7.986655834830963E-13</v>
+        <v>4.336160231205623E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999917278</v>
+        <v>-179.9999999917314</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999917208</v>
+        <v>179.9999999917196</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2867,40 +2867,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.105427357598651E-15</v>
+        <v>7.105427357599434E-15</v>
       </c>
       <c r="O4">
-        <v>3.553018209163444E-15</v>
+        <v>-2.368171355011372E-15</v>
       </c>
       <c r="P4">
-        <v>4.737256294506259E-15</v>
+        <v>4.737256325733177E-15</v>
       </c>
       <c r="Q4">
-        <v>-9.47390314346487E-15</v>
+        <v>-7.105427357599078E-15</v>
       </c>
       <c r="R4">
-        <v>-2.368704811011247E-15</v>
+        <v>2.368246858338615E-15</v>
       </c>
       <c r="S4">
-        <v>-2.368705007776958E-15</v>
+        <v>-2.368705038447688E-15</v>
       </c>
       <c r="T4">
-        <v>9.666648146241955E-29</v>
+        <v>-4.736951571732183E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587710111352566E-09</v>
+        <v>-1.587700637449144E-09</v>
       </c>
       <c r="V4">
-        <v>1.587703006282484E-09</v>
+        <v>1.587707743233777E-09</v>
       </c>
       <c r="W4">
-        <v>-1.320599954523765E-28</v>
+        <v>-5.377406816972956E-28</v>
       </c>
       <c r="X4">
-        <v>1.587707742921398E-09</v>
+        <v>1.587710111396904E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587707743189438E-09</v>
+        <v>-1.587707743189158E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2921,40 +2921,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999996692</v>
+        <v>0.9999999999997291</v>
       </c>
       <c r="AG4">
-        <v>0.499999999943578</v>
+        <v>0.4999999999434896</v>
       </c>
       <c r="AH4">
-        <v>0.5000000000560915</v>
+        <v>0.5000000000560033</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999996694</v>
+        <v>0.9999999999997292</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999999576291</v>
+        <v>0.4999999999575407</v>
       </c>
       <c r="AK4">
-        <v>0.50000000004204</v>
+        <v>0.5000000000419519</v>
       </c>
       <c r="AL4">
-        <v>7.794860364384674E-13</v>
+        <v>4.310724438836922E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999890031</v>
+        <v>-179.9999999890066</v>
       </c>
       <c r="AN4">
-        <v>179.9999999889961</v>
+        <v>179.999999988995</v>
       </c>
       <c r="AO4">
-        <v>7.986655834830963E-13</v>
+        <v>4.336160231205623E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999917278</v>
+        <v>-179.9999999917314</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999917208</v>
+        <v>179.9999999917196</v>
       </c>
     </row>
   </sheetData>
@@ -3142,40 +3142,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.60532336445287E-14</v>
+        <v>-1.421085471519815E-14</v>
       </c>
       <c r="O2">
-        <v>-5.921197016064435E-15</v>
+        <v>-1.184238618040675E-14</v>
       </c>
       <c r="P2">
-        <v>-4.736959702735938E-15</v>
+        <v>4.736943346608845E-15</v>
       </c>
       <c r="Q2">
-        <v>2.131628207279622E-14</v>
+        <v>1.184237892933287E-14</v>
       </c>
       <c r="R2">
-        <v>7.106114431667139E-15</v>
+        <v>1.184306570894512E-14</v>
       </c>
       <c r="S2">
-        <v>7.106115020595325E-15</v>
+        <v>-2.367788031655747E-15</v>
       </c>
       <c r="T2">
-        <v>2.368475785866183E-14</v>
+        <v>-1.07185334250342E-27</v>
       </c>
       <c r="U2">
-        <v>4.763092438980543E-09</v>
+        <v>4.763120860689133E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763109018312036E-09</v>
+        <v>-4.763104281359626E-09</v>
       </c>
       <c r="W2">
-        <v>-1.894780628692944E-14</v>
+        <v>-1.421085471519726E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763113754861052E-09</v>
+        <v>-4.763120860287567E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763104281762026E-09</v>
+        <v>4.763104281761187E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3196,40 +3196,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999996692</v>
+        <v>0.999999999999729</v>
       </c>
       <c r="AG2">
-        <v>0.4999999999997825</v>
+        <v>0.4999999999996943</v>
       </c>
       <c r="AH2">
-        <v>0.4999999999998866</v>
+        <v>0.4999999999997986</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999996694</v>
+        <v>0.9999999999997292</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999999576291</v>
+        <v>0.4999999999575407</v>
       </c>
       <c r="AK2">
-        <v>0.50000000004204</v>
+        <v>0.5000000000419519</v>
       </c>
       <c r="AL2">
-        <v>7.588583378331614E-13</v>
+        <v>4.321532660294841E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999999019</v>
+        <v>-179.9999999999055</v>
       </c>
       <c r="AN2">
-        <v>179.9999999998949</v>
+        <v>179.9999999998938</v>
       </c>
       <c r="AO2">
-        <v>7.986655834830963E-13</v>
+        <v>4.336160231205623E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999917278</v>
+        <v>-179.9999999917314</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999917208</v>
+        <v>179.9999999917196</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3273,40 +3273,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-4.7369515717327E-15</v>
+        <v>4.736951571732719E-15</v>
       </c>
       <c r="O3">
-        <v>-1.183933364503819E-15</v>
+        <v>-1.184207450169295E-14</v>
       </c>
       <c r="P3">
-        <v>-4.736646845738458E-15</v>
+        <v>4.737256327848427E-15</v>
       </c>
       <c r="Q3">
-        <v>2.36847578586635E-15</v>
+        <v>-4.736951571732359E-15</v>
       </c>
       <c r="R3">
-        <v>7.105198334387123E-15</v>
+        <v>1.184215000373414E-14</v>
       </c>
       <c r="S3">
-        <v>7.105198135119838E-15</v>
+        <v>-2.368705038447688E-15</v>
       </c>
       <c r="T3">
-        <v>1.894780628692967E-14</v>
+        <v>3.58830507517073E-28</v>
       </c>
       <c r="U3">
-        <v>-1.587710111352566E-09</v>
+        <v>-1.587691163546002E-09</v>
       </c>
       <c r="V3">
-        <v>1.58771248018563E-09</v>
+        <v>1.587707743233776E-09</v>
       </c>
       <c r="W3">
-        <v>-9.473903143464837E-15</v>
+        <v>-4.736951571733077E-15</v>
       </c>
       <c r="X3">
-        <v>1.587688795115114E-09</v>
+        <v>1.58769116359062E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587717217092584E-09</v>
+        <v>-1.587707743189158E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3327,40 +3327,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999996694</v>
+        <v>0.9999999999997293</v>
       </c>
       <c r="AG3">
-        <v>0.4999999999435779</v>
+        <v>0.4999999999434894</v>
       </c>
       <c r="AH3">
-        <v>0.5000000000560912</v>
+        <v>0.5000000000560031</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999996694</v>
+        <v>0.9999999999997292</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999999576291</v>
+        <v>0.4999999999575407</v>
       </c>
       <c r="AK3">
-        <v>0.50000000004204</v>
+        <v>0.5000000000419519</v>
       </c>
       <c r="AL3">
-        <v>8.019054434887934E-13</v>
+        <v>4.340233023269944E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999890032</v>
+        <v>-179.9999999890067</v>
       </c>
       <c r="AN3">
-        <v>179.9999999889961</v>
+        <v>179.9999999889949</v>
       </c>
       <c r="AO3">
-        <v>7.986655834830963E-13</v>
+        <v>4.336160231205623E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999917278</v>
+        <v>-179.9999999917314</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999917208</v>
+        <v>179.9999999917196</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3404,40 +3404,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.105427357598651E-15</v>
+        <v>7.105427357599434E-15</v>
       </c>
       <c r="O4">
-        <v>3.553018209163444E-15</v>
+        <v>-2.368171355011372E-15</v>
       </c>
       <c r="P4">
-        <v>4.737256294506259E-15</v>
+        <v>4.737256325733177E-15</v>
       </c>
       <c r="Q4">
-        <v>-9.47390314346487E-15</v>
+        <v>-7.105427357599078E-15</v>
       </c>
       <c r="R4">
-        <v>-2.368704811011247E-15</v>
+        <v>2.368246858338615E-15</v>
       </c>
       <c r="S4">
-        <v>-2.368705007776958E-15</v>
+        <v>-2.368705038447688E-15</v>
       </c>
       <c r="T4">
-        <v>9.666648146241955E-29</v>
+        <v>-4.736951571732183E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587710111352566E-09</v>
+        <v>-1.587700637449144E-09</v>
       </c>
       <c r="V4">
-        <v>1.587703006282484E-09</v>
+        <v>1.587707743233777E-09</v>
       </c>
       <c r="W4">
-        <v>-1.320599954523765E-28</v>
+        <v>-5.377406816972956E-28</v>
       </c>
       <c r="X4">
-        <v>1.587707742921398E-09</v>
+        <v>1.587710111396904E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587707743189438E-09</v>
+        <v>-1.587707743189158E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3458,40 +3458,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999996692</v>
+        <v>0.9999999999997291</v>
       </c>
       <c r="AG4">
-        <v>0.499999999943578</v>
+        <v>0.4999999999434896</v>
       </c>
       <c r="AH4">
-        <v>0.5000000000560915</v>
+        <v>0.5000000000560033</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999996694</v>
+        <v>0.9999999999997292</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999999576291</v>
+        <v>0.4999999999575407</v>
       </c>
       <c r="AK4">
-        <v>0.50000000004204</v>
+        <v>0.5000000000419519</v>
       </c>
       <c r="AL4">
-        <v>7.794860364384674E-13</v>
+        <v>4.310724438836922E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999890031</v>
+        <v>-179.9999999890066</v>
       </c>
       <c r="AN4">
-        <v>179.9999999889961</v>
+        <v>179.999999988995</v>
       </c>
       <c r="AO4">
-        <v>7.986655834830963E-13</v>
+        <v>4.336160231205623E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999917278</v>
+        <v>-179.9999999917314</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999917208</v>
+        <v>179.9999999917196</v>
       </c>
     </row>
   </sheetData>
@@ -3679,40 +3679,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-5.033011044985335E-15</v>
+        <v>-5.921189464688574E-15</v>
       </c>
       <c r="O2">
-        <v>-8.002327321662952E-10</v>
+        <v>-8.002539680360313E-10</v>
       </c>
       <c r="P2">
-        <v>-2.567391745508483E-09</v>
+        <v>-2.567394278043515E-09</v>
       </c>
       <c r="Q2">
-        <v>5.625129991454215E-15</v>
+        <v>8.289665250564023E-15</v>
       </c>
       <c r="R2">
-        <v>8.002409872397264E-10</v>
+        <v>8.002460325218752E-10</v>
       </c>
       <c r="S2">
-        <v>2.567382987812963E-09</v>
+        <v>2.567389698324081E-09</v>
       </c>
       <c r="T2">
-        <v>-2.643547636526709E-29</v>
+        <v>9.473903143501778E-15</v>
       </c>
       <c r="U2">
-        <v>3.401418447897498E-09</v>
+        <v>3.401419437587174E-09</v>
       </c>
       <c r="V2">
-        <v>-3.406500694820058E-10</v>
+        <v>-3.406406780595046E-10</v>
       </c>
       <c r="W2">
-        <v>-2.368475785875422E-15</v>
+        <v>-7.105427357626343E-15</v>
       </c>
       <c r="X2">
-        <v>-3.401427213502497E-09</v>
+        <v>-3.401407861668179E-09</v>
       </c>
       <c r="Y2">
-        <v>3.406417714676968E-10</v>
+        <v>3.406368404476958E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3733,40 +3733,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000003568</v>
+        <v>1.000000000003563</v>
       </c>
       <c r="AG2">
-        <v>0.8443704185456357</v>
+        <v>0.8443704185456149</v>
       </c>
       <c r="AH2">
-        <v>0.6258291895794253</v>
+        <v>0.6258291895793935</v>
       </c>
       <c r="AI2">
-        <v>1.000000000003569</v>
+        <v>1.000000000003563</v>
       </c>
       <c r="AJ2">
-        <v>0.8443704185349062</v>
+        <v>0.8443704185348861</v>
       </c>
       <c r="AK2">
-        <v>0.6258291896125525</v>
+        <v>0.6258291896125208</v>
       </c>
       <c r="AL2">
-        <v>3.00941367227219E-13</v>
+        <v>-1.674160929362413E-13</v>
       </c>
       <c r="AM2">
-        <v>-141.4823925534191</v>
+        <v>-141.4823925534169</v>
       </c>
       <c r="AN2">
-        <v>122.8363393546083</v>
+        <v>122.8363393546127</v>
       </c>
       <c r="AO2">
-        <v>3.213454182807975E-13</v>
+        <v>-1.545733109651955E-13</v>
       </c>
       <c r="AP2">
-        <v>-141.4823925510877</v>
+        <v>-141.4823925510855</v>
       </c>
       <c r="AQ2">
-        <v>122.836339355897</v>
+        <v>122.8363393559014</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3810,40 +3810,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.325251659180277E-29</v>
+        <v>4.736951571750875E-15</v>
       </c>
       <c r="O3">
-        <v>2.667482517844345E-10</v>
+        <v>2.667491060311336E-10</v>
       </c>
       <c r="P3">
-        <v>8.557964587085049E-10</v>
+        <v>8.558017626691796E-10</v>
       </c>
       <c r="Q3">
-        <v>-1.776356839406603E-15</v>
+        <v>-3.552713678813148E-15</v>
       </c>
       <c r="R3">
-        <v>-2.667457609105572E-10</v>
+        <v>-2.667512775737128E-10</v>
       </c>
       <c r="S3">
-        <v>-8.558006366703429E-10</v>
+        <v>-8.558017626549307E-10</v>
       </c>
       <c r="T3">
         <v>-2.368475785875453E-15</v>
       </c>
       <c r="U3">
-        <v>-1.133806367430916E-09</v>
+        <v>-1.133808243520947E-09</v>
       </c>
       <c r="V3">
-        <v>1.135476023211554E-10</v>
+        <v>1.135448508032077E-10</v>
       </c>
       <c r="W3">
-        <v>2.368475785875443E-15</v>
+        <v>4.73695157175089E-15</v>
       </c>
       <c r="X3">
-        <v>1.133803237974106E-09</v>
+        <v>1.133814183157027E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.135520627152327E-10</v>
+        <v>-1.135448507947873E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3864,40 +3864,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000003569</v>
+        <v>1.000000000003563</v>
       </c>
       <c r="AG3">
-        <v>0.84437041853133</v>
+        <v>0.8443704185313099</v>
       </c>
       <c r="AH3">
-        <v>0.6258291896235949</v>
+        <v>0.6258291896235632</v>
       </c>
       <c r="AI3">
-        <v>1.000000000003569</v>
+        <v>1.000000000003563</v>
       </c>
       <c r="AJ3">
-        <v>0.8443704185349062</v>
+        <v>0.8443704185348861</v>
       </c>
       <c r="AK3">
-        <v>0.6258291896125525</v>
+        <v>0.6258291896125208</v>
       </c>
       <c r="AL3">
-        <v>3.205915269075478E-13</v>
+        <v>-1.514364961144833E-13</v>
       </c>
       <c r="AM3">
-        <v>-141.4823925503106</v>
+        <v>-141.4823925503083</v>
       </c>
       <c r="AN3">
-        <v>122.8363393563266</v>
+        <v>122.8363393563311</v>
       </c>
       <c r="AO3">
-        <v>3.213454182807975E-13</v>
+        <v>-1.545733109651955E-13</v>
       </c>
       <c r="AP3">
-        <v>-141.4823925510877</v>
+        <v>-141.4823925510855</v>
       </c>
       <c r="AQ3">
-        <v>122.836339355897</v>
+        <v>122.8363393559014</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3941,40 +3941,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.072416312641034E-15</v>
+        <v>-2.664535259109857E-15</v>
       </c>
       <c r="O4">
-        <v>2.667490341507423E-10</v>
+        <v>2.667494972142874E-10</v>
       </c>
       <c r="P4">
-        <v>8.557956549653339E-10</v>
+        <v>8.55799351439667E-10</v>
       </c>
       <c r="Q4">
-        <v>1.77635683940659E-15</v>
+        <v>5.033011044985298E-15</v>
       </c>
       <c r="R4">
-        <v>-2.667457609105572E-10</v>
+        <v>-2.667532334894816E-10</v>
       </c>
       <c r="S4">
-        <v>-8.557998329271721E-10</v>
+        <v>-8.557989495538328E-10</v>
       </c>
       <c r="T4">
-        <v>2.368475785875441E-15</v>
+        <v>4.736951571750888E-15</v>
       </c>
       <c r="U4">
-        <v>-1.133805744716009E-09</v>
+        <v>-1.133807932163494E-09</v>
       </c>
       <c r="V4">
-        <v>1.135488477509697E-10</v>
+        <v>1.135485870926508E-10</v>
       </c>
       <c r="W4">
-        <v>9.96276054582263E-30</v>
+        <v>-4.736951571750894E-15</v>
       </c>
       <c r="X4">
-        <v>1.133803237974106E-09</v>
+        <v>1.133812626369759E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.135533081450471E-10</v>
+        <v>-1.135492097991376E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3995,40 +3995,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000003569</v>
+        <v>1.000000000003563</v>
       </c>
       <c r="AG4">
-        <v>0.8443704185313301</v>
+        <v>0.8443704185313099</v>
       </c>
       <c r="AH4">
-        <v>0.6258291896235948</v>
+        <v>0.6258291896235632</v>
       </c>
       <c r="AI4">
-        <v>1.000000000003569</v>
+        <v>1.000000000003563</v>
       </c>
       <c r="AJ4">
-        <v>0.8443704185349062</v>
+        <v>0.8443704185348861</v>
       </c>
       <c r="AK4">
-        <v>0.6258291896125525</v>
+        <v>0.6258291896125208</v>
       </c>
       <c r="AL4">
-        <v>3.132026801089159E-13</v>
+        <v>-1.633751013999346E-13</v>
       </c>
       <c r="AM4">
-        <v>-141.4823925503106</v>
+        <v>-141.4823925503083</v>
       </c>
       <c r="AN4">
-        <v>122.8363393563266</v>
+        <v>122.8363393563311</v>
       </c>
       <c r="AO4">
-        <v>3.213454182807975E-13</v>
+        <v>-1.545733109651955E-13</v>
       </c>
       <c r="AP4">
-        <v>-141.4823925510877</v>
+        <v>-141.4823925510855</v>
       </c>
       <c r="AQ4">
-        <v>122.836339355897</v>
+        <v>122.8363393559014</v>
       </c>
     </row>
   </sheetData>
@@ -4216,40 +4216,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-5.033011044985335E-15</v>
+        <v>-5.921189464688574E-15</v>
       </c>
       <c r="O2">
-        <v>-8.002327321662952E-10</v>
+        <v>-8.002539680360313E-10</v>
       </c>
       <c r="P2">
-        <v>-2.567391745508483E-09</v>
+        <v>-2.567394278043515E-09</v>
       </c>
       <c r="Q2">
-        <v>5.625129991454215E-15</v>
+        <v>8.289665250564023E-15</v>
       </c>
       <c r="R2">
-        <v>8.002409872397264E-10</v>
+        <v>8.002460325218752E-10</v>
       </c>
       <c r="S2">
-        <v>2.567382987812963E-09</v>
+        <v>2.567389698324081E-09</v>
       </c>
       <c r="T2">
-        <v>-2.643547636526709E-29</v>
+        <v>9.473903143501778E-15</v>
       </c>
       <c r="U2">
-        <v>3.401418447897498E-09</v>
+        <v>3.401419437587174E-09</v>
       </c>
       <c r="V2">
-        <v>-3.406500694820058E-10</v>
+        <v>-3.406406780595046E-10</v>
       </c>
       <c r="W2">
-        <v>-2.368475785875422E-15</v>
+        <v>-7.105427357626343E-15</v>
       </c>
       <c r="X2">
-        <v>-3.401427213502497E-09</v>
+        <v>-3.401407861668179E-09</v>
       </c>
       <c r="Y2">
-        <v>3.406417714676968E-10</v>
+        <v>3.406368404476958E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4270,40 +4270,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000003568</v>
+        <v>1.000000000003563</v>
       </c>
       <c r="AG2">
-        <v>0.8443704185456357</v>
+        <v>0.8443704185456149</v>
       </c>
       <c r="AH2">
-        <v>0.6258291895794253</v>
+        <v>0.6258291895793935</v>
       </c>
       <c r="AI2">
-        <v>1.000000000003569</v>
+        <v>1.000000000003563</v>
       </c>
       <c r="AJ2">
-        <v>0.8443704185349062</v>
+        <v>0.8443704185348861</v>
       </c>
       <c r="AK2">
-        <v>0.6258291896125525</v>
+        <v>0.6258291896125208</v>
       </c>
       <c r="AL2">
-        <v>3.00941367227219E-13</v>
+        <v>-1.674160929362413E-13</v>
       </c>
       <c r="AM2">
-        <v>-141.4823925534191</v>
+        <v>-141.4823925534169</v>
       </c>
       <c r="AN2">
-        <v>122.8363393546083</v>
+        <v>122.8363393546127</v>
       </c>
       <c r="AO2">
-        <v>3.213454182807975E-13</v>
+        <v>-1.545733109651955E-13</v>
       </c>
       <c r="AP2">
-        <v>-141.4823925510877</v>
+        <v>-141.4823925510855</v>
       </c>
       <c r="AQ2">
-        <v>122.836339355897</v>
+        <v>122.8363393559014</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4347,40 +4347,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.325251659180277E-29</v>
+        <v>4.736951571750875E-15</v>
       </c>
       <c r="O3">
-        <v>2.667482517844345E-10</v>
+        <v>2.667491060311336E-10</v>
       </c>
       <c r="P3">
-        <v>8.557964587085049E-10</v>
+        <v>8.558017626691796E-10</v>
       </c>
       <c r="Q3">
-        <v>-1.776356839406603E-15</v>
+        <v>-3.552713678813148E-15</v>
       </c>
       <c r="R3">
-        <v>-2.667457609105572E-10</v>
+        <v>-2.667512775737128E-10</v>
       </c>
       <c r="S3">
-        <v>-8.558006366703429E-10</v>
+        <v>-8.558017626549307E-10</v>
       </c>
       <c r="T3">
         <v>-2.368475785875453E-15</v>
       </c>
       <c r="U3">
-        <v>-1.133806367430916E-09</v>
+        <v>-1.133808243520947E-09</v>
       </c>
       <c r="V3">
-        <v>1.135476023211554E-10</v>
+        <v>1.135448508032077E-10</v>
       </c>
       <c r="W3">
-        <v>2.368475785875443E-15</v>
+        <v>4.73695157175089E-15</v>
       </c>
       <c r="X3">
-        <v>1.133803237974106E-09</v>
+        <v>1.133814183157027E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.135520627152327E-10</v>
+        <v>-1.135448507947873E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4401,40 +4401,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000003569</v>
+        <v>1.000000000003563</v>
       </c>
       <c r="AG3">
-        <v>0.84437041853133</v>
+        <v>0.8443704185313099</v>
       </c>
       <c r="AH3">
-        <v>0.6258291896235949</v>
+        <v>0.6258291896235632</v>
       </c>
       <c r="AI3">
-        <v>1.000000000003569</v>
+        <v>1.000000000003563</v>
       </c>
       <c r="AJ3">
-        <v>0.8443704185349062</v>
+        <v>0.8443704185348861</v>
       </c>
       <c r="AK3">
-        <v>0.6258291896125525</v>
+        <v>0.6258291896125208</v>
       </c>
       <c r="AL3">
-        <v>3.205915269075478E-13</v>
+        <v>-1.514364961144833E-13</v>
       </c>
       <c r="AM3">
-        <v>-141.4823925503106</v>
+        <v>-141.4823925503083</v>
       </c>
       <c r="AN3">
-        <v>122.8363393563266</v>
+        <v>122.8363393563311</v>
       </c>
       <c r="AO3">
-        <v>3.213454182807975E-13</v>
+        <v>-1.545733109651955E-13</v>
       </c>
       <c r="AP3">
-        <v>-141.4823925510877</v>
+        <v>-141.4823925510855</v>
       </c>
       <c r="AQ3">
-        <v>122.836339355897</v>
+        <v>122.8363393559014</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4478,40 +4478,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.072416312641034E-15</v>
+        <v>-2.664535259109857E-15</v>
       </c>
       <c r="O4">
-        <v>2.667490341507423E-10</v>
+        <v>2.667494972142874E-10</v>
       </c>
       <c r="P4">
-        <v>8.557956549653339E-10</v>
+        <v>8.55799351439667E-10</v>
       </c>
       <c r="Q4">
-        <v>1.77635683940659E-15</v>
+        <v>5.033011044985298E-15</v>
       </c>
       <c r="R4">
-        <v>-2.667457609105572E-10</v>
+        <v>-2.667532334894816E-10</v>
       </c>
       <c r="S4">
-        <v>-8.557998329271721E-10</v>
+        <v>-8.557989495538328E-10</v>
       </c>
       <c r="T4">
-        <v>2.368475785875441E-15</v>
+        <v>4.736951571750888E-15</v>
       </c>
       <c r="U4">
-        <v>-1.133805744716009E-09</v>
+        <v>-1.133807932163494E-09</v>
       </c>
       <c r="V4">
-        <v>1.135488477509697E-10</v>
+        <v>1.135485870926508E-10</v>
       </c>
       <c r="W4">
-        <v>9.96276054582263E-30</v>
+        <v>-4.736951571750894E-15</v>
       </c>
       <c r="X4">
-        <v>1.133803237974106E-09</v>
+        <v>1.133812626369759E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.135533081450471E-10</v>
+        <v>-1.135492097991376E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4532,40 +4532,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000003569</v>
+        <v>1.000000000003563</v>
       </c>
       <c r="AG4">
-        <v>0.8443704185313301</v>
+        <v>0.8443704185313099</v>
       </c>
       <c r="AH4">
-        <v>0.6258291896235948</v>
+        <v>0.6258291896235632</v>
       </c>
       <c r="AI4">
-        <v>1.000000000003569</v>
+        <v>1.000000000003563</v>
       </c>
       <c r="AJ4">
-        <v>0.8443704185349062</v>
+        <v>0.8443704185348861</v>
       </c>
       <c r="AK4">
-        <v>0.6258291896125525</v>
+        <v>0.6258291896125208</v>
       </c>
       <c r="AL4">
-        <v>3.132026801089159E-13</v>
+        <v>-1.633751013999346E-13</v>
       </c>
       <c r="AM4">
-        <v>-141.4823925503106</v>
+        <v>-141.4823925503083</v>
       </c>
       <c r="AN4">
-        <v>122.8363393563266</v>
+        <v>122.8363393563311</v>
       </c>
       <c r="AO4">
-        <v>3.213454182807975E-13</v>
+        <v>-1.545733109651955E-13</v>
       </c>
       <c r="AP4">
-        <v>-141.4823925510877</v>
+        <v>-141.4823925510855</v>
       </c>
       <c r="AQ4">
-        <v>122.836339355897</v>
+        <v>122.8363393559014</v>
       </c>
     </row>
   </sheetData>
@@ -4720,130 +4720,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002647974408742826</v>
+        <v>0.01642269700768484</v>
       </c>
       <c r="C2">
-        <v>0.002647974402940332</v>
+        <v>0.01642269700739093</v>
       </c>
       <c r="D2">
-        <v>0.002647974402939515</v>
+        <v>0.01642269700738887</v>
       </c>
       <c r="E2">
-        <v>0.001765872098526362</v>
+        <v>0.01095191188415435</v>
       </c>
       <c r="F2">
-        <v>0.001765872091683002</v>
+        <v>0.0109519118838621</v>
       </c>
       <c r="G2">
-        <v>0.001765872091683215</v>
+        <v>0.01095191188386208</v>
       </c>
       <c r="H2">
-        <v>0.03057617475389822</v>
+        <v>0.1896329707641301</v>
       </c>
       <c r="I2">
-        <v>0.03057617468689678</v>
+        <v>0.1896329707607363</v>
       </c>
       <c r="J2">
-        <v>0.03057617468688735</v>
+        <v>0.1896329707607125</v>
       </c>
       <c r="K2">
-        <v>0.02039053462877289</v>
+        <v>0.1264617854891516</v>
       </c>
       <c r="L2">
-        <v>0.02039053454975258</v>
+        <v>0.126461785485777</v>
       </c>
       <c r="M2">
-        <v>0.02039053454975504</v>
+        <v>0.1264617854857767</v>
       </c>
       <c r="N2">
-        <v>-5.807715291193743E-13</v>
+        <v>1.318217841547122E-14</v>
       </c>
       <c r="O2">
-        <v>0.0291566174914944</v>
+        <v>0.1817701986276458</v>
       </c>
       <c r="P2">
-        <v>-0.02909829038249458</v>
+        <v>-0.1795265645616197</v>
       </c>
       <c r="Q2">
-        <v>1.440175924514595E-05</v>
+        <v>0.0005539581891516387</v>
       </c>
       <c r="R2">
-        <v>-0.01943370600585491</v>
+        <v>-0.1208298995167708</v>
       </c>
       <c r="S2">
-        <v>0.01941498374379281</v>
+        <v>0.1201096505772136</v>
       </c>
       <c r="T2">
-        <v>4.510140659949135E-14</v>
+        <v>-7.864869792020713E-14</v>
       </c>
       <c r="U2">
-        <v>-0.008042654259386214</v>
+        <v>-0.3134553678363205</v>
       </c>
       <c r="V2">
-        <v>-0.008291210119538227</v>
+        <v>-0.3148204443677204</v>
       </c>
       <c r="W2">
-        <v>5.730851305531586E-06</v>
+        <v>0.0002204347474357428</v>
       </c>
       <c r="X2">
-        <v>0.005353784069651961</v>
+        <v>0.2091603751553553</v>
       </c>
       <c r="Y2">
-        <v>0.005550314862284809</v>
+        <v>0.210261597400231</v>
       </c>
       <c r="Z2">
-        <v>-90.24449057441882</v>
+        <v>-90.21647784283583</v>
       </c>
       <c r="AA2">
-        <v>-90.24446206956961</v>
+        <v>-90.21647786463598</v>
       </c>
       <c r="AB2">
-        <v>-90.24446206958743</v>
+        <v>-90.21647786462883</v>
       </c>
       <c r="AC2">
-        <v>89.71010735473497</v>
+        <v>89.73812958604121</v>
       </c>
       <c r="AD2">
-        <v>89.71015009834851</v>
+        <v>89.7381295533543</v>
       </c>
       <c r="AE2">
-        <v>89.7101500982953</v>
+        <v>89.73812955338005</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.9891864936508152</v>
+        <v>1.910775674646174</v>
       </c>
       <c r="AI2">
-        <v>0.9895443670861928</v>
+        <v>1.911117842749945</v>
       </c>
       <c r="AJ2">
-        <v>0.0007601618875362963</v>
+        <v>0.004714512195614059</v>
       </c>
       <c r="AK2">
-        <v>0.9885801044763499</v>
+        <v>1.910088134753466</v>
       </c>
       <c r="AL2">
-        <v>0.9903007080861643</v>
+        <v>1.914801898916366</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-105.6656179757978</v>
+        <v>-150.1073836567952</v>
       </c>
       <c r="AO2">
-        <v>105.6598069806291</v>
+        <v>150.089543465442</v>
       </c>
       <c r="AP2">
-        <v>111.409060625963</v>
+        <v>111.4370589892723</v>
       </c>
       <c r="AQ2">
-        <v>-105.6921780995073</v>
+        <v>-150.2472650309357</v>
       </c>
       <c r="AR2">
-        <v>105.664212751325</v>
+        <v>150.0014316032311</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -4860,13 +4860,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0008829360484928684</v>
+        <v>0.005475955941972187</v>
       </c>
       <c r="F3">
-        <v>0.0008829360462093178</v>
+        <v>0.005475955941879988</v>
       </c>
       <c r="G3">
-        <v>0.0008829360462099291</v>
+        <v>0.00547595594187589</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4878,49 +4878,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01019526730549164</v>
+        <v>0.06323089274336346</v>
       </c>
       <c r="L3">
-        <v>0.01019526727912347</v>
+        <v>0.06323089274229884</v>
       </c>
       <c r="M3">
-        <v>0.01019526727913053</v>
+        <v>0.06323089274225152</v>
       </c>
       <c r="N3">
-        <v>-1.345822044799545E-12</v>
+        <v>-8.455746988980818E-12</v>
       </c>
       <c r="O3">
-        <v>2.806936802495062E-10</v>
+        <v>-6.722884477448714E-09</v>
       </c>
       <c r="P3">
-        <v>2.734580796432615E-10</v>
+        <v>-6.762029888466354E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.200880183216884E-06</v>
+        <v>-0.0002769790980914111</v>
       </c>
       <c r="R3">
-        <v>0.009716853143018419</v>
+        <v>0.06041494639720085</v>
       </c>
       <c r="S3">
-        <v>-0.009707491734914017</v>
+        <v>-0.06005482866625327</v>
       </c>
       <c r="T3">
-        <v>3.425521030411386E-12</v>
+        <v>2.124085001287616E-11</v>
       </c>
       <c r="U3">
-        <v>9.848880025686627E-10</v>
+        <v>-3.883656481349206E-09</v>
       </c>
       <c r="V3">
-        <v>-9.890739631298445E-10</v>
+        <v>3.861123800056682E-09</v>
       </c>
       <c r="W3">
-        <v>-2.865424225566871E-06</v>
+        <v>-0.00011021736486764</v>
       </c>
       <c r="X3">
-        <v>-0.002676891542118164</v>
+        <v>-0.1045801895181003</v>
       </c>
       <c r="Y3">
-        <v>-0.002775157925629222</v>
+        <v>-0.1051307967692673</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4932,49 +4932,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-90.2898813092487</v>
+        <v>-90.26186858363347</v>
       </c>
       <c r="AD3">
-        <v>-90.28985281348939</v>
+        <v>-90.26186860547315</v>
       </c>
       <c r="AE3">
-        <v>-90.28985281343596</v>
+        <v>-90.26186860548194</v>
       </c>
       <c r="AG3">
-        <v>0.0009122229799611776</v>
+        <v>0.00565759272275372</v>
       </c>
       <c r="AH3">
-        <v>0.9884587856526788</v>
+        <v>1.909951524294336</v>
       </c>
       <c r="AI3">
-        <v>0.9904520127875015</v>
+        <v>1.915539112236015</v>
       </c>
       <c r="AJ3">
-        <v>0.0007601618875362963</v>
+        <v>0.004714512195614059</v>
       </c>
       <c r="AK3">
-        <v>0.9885801044763499</v>
+        <v>1.910088134753466</v>
       </c>
       <c r="AL3">
-        <v>0.9903007080861643</v>
+        <v>1.914801898916366</v>
       </c>
       <c r="AM3">
-        <v>111.4045205787683</v>
+        <v>111.4325192814443</v>
       </c>
       <c r="AN3">
-        <v>-105.6974916973512</v>
+        <v>-150.2752566917652</v>
       </c>
       <c r="AO3">
-        <v>105.6650891042807</v>
+        <v>149.983836107469</v>
       </c>
       <c r="AP3">
-        <v>111.409060625963</v>
+        <v>111.4370589892723</v>
       </c>
       <c r="AQ3">
-        <v>-105.6921780995073</v>
+        <v>-150.2472650309357</v>
       </c>
       <c r="AR3">
-        <v>105.664212751325</v>
+        <v>150.0014316032311</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -4991,13 +4991,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0008829360484928601</v>
+        <v>0.005475955941973844</v>
       </c>
       <c r="F4">
-        <v>0.0008829360462084974</v>
+        <v>0.005475955941881607</v>
       </c>
       <c r="G4">
-        <v>0.0008829360462099248</v>
+        <v>0.00547595594187589</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -5009,49 +5009,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01019526730549154</v>
+        <v>0.06323089274338259</v>
       </c>
       <c r="L4">
-        <v>0.010195267279114</v>
+        <v>0.06323089274231752</v>
       </c>
       <c r="M4">
-        <v>0.01019526727913048</v>
+        <v>0.06323089274225152</v>
       </c>
       <c r="N4">
-        <v>-1.345805952348094E-12</v>
+        <v>-8.455775438091262E-12</v>
       </c>
       <c r="O4">
-        <v>2.807091771857891E-10</v>
+        <v>-6.722839566370639E-09</v>
       </c>
       <c r="P4">
-        <v>2.734696482153603E-10</v>
+        <v>-6.762066201464056E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.200880183222143E-06</v>
+        <v>-0.000276979098091429</v>
       </c>
       <c r="R4">
-        <v>0.0097168531430094</v>
+        <v>0.06041494639712454</v>
       </c>
       <c r="S4">
-        <v>-0.00970749173491655</v>
+        <v>-0.06005482866625327</v>
       </c>
       <c r="T4">
-        <v>3.425527338438811E-12</v>
+        <v>2.124106917042481E-11</v>
       </c>
       <c r="U4">
-        <v>9.848739199500251E-10</v>
+        <v>-3.883589166006588E-09</v>
       </c>
       <c r="V4">
-        <v>-9.890804643815458E-10</v>
+        <v>3.861060945057175E-09</v>
       </c>
       <c r="W4">
-        <v>-2.865424225553461E-06</v>
+        <v>-0.000110217364867839</v>
       </c>
       <c r="X4">
-        <v>-0.00267689154211563</v>
+        <v>-0.1045801895181856</v>
       </c>
       <c r="Y4">
-        <v>-0.002775157925620188</v>
+        <v>-0.1051307967692673</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5063,49 +5063,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-90.28988130914222</v>
+        <v>-90.26186858366773</v>
       </c>
       <c r="AD4">
-        <v>-90.28985281348966</v>
+        <v>-90.26186860542157</v>
       </c>
       <c r="AE4">
-        <v>-90.28985281338271</v>
+        <v>-90.26186860548194</v>
       </c>
       <c r="AG4">
-        <v>0.0009122229799611639</v>
+        <v>0.005657592722754072</v>
       </c>
       <c r="AH4">
-        <v>0.9884587856526788</v>
+        <v>1.909951524294336</v>
       </c>
       <c r="AI4">
-        <v>0.9904520127875016</v>
+        <v>1.915539112236015</v>
       </c>
       <c r="AJ4">
-        <v>0.0007601618875362963</v>
+        <v>0.004714512195614059</v>
       </c>
       <c r="AK4">
-        <v>0.9885801044763499</v>
+        <v>1.910088134753466</v>
       </c>
       <c r="AL4">
-        <v>0.9903007080861643</v>
+        <v>1.914801898916366</v>
       </c>
       <c r="AM4">
-        <v>111.4045205787836</v>
+        <v>111.4325192814429</v>
       </c>
       <c r="AN4">
-        <v>-105.6974916973512</v>
+        <v>-150.2752566917652</v>
       </c>
       <c r="AO4">
-        <v>105.6650891042807</v>
+        <v>149.983836107469</v>
       </c>
       <c r="AP4">
-        <v>111.409060625963</v>
+        <v>111.4370589892723</v>
       </c>
       <c r="AQ4">
-        <v>-105.6921780995073</v>
+        <v>-150.2472650309357</v>
       </c>
       <c r="AR4">
-        <v>105.664212751325</v>
+        <v>150.0014316032311</v>
       </c>
     </row>
   </sheetData>
@@ -5260,130 +5260,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002647974408742826</v>
+        <v>0.01642269700768484</v>
       </c>
       <c r="C2">
-        <v>0.002647974402940332</v>
+        <v>0.01642269700739093</v>
       </c>
       <c r="D2">
-        <v>0.002647974402939515</v>
+        <v>0.01642269700738887</v>
       </c>
       <c r="E2">
-        <v>0.001765872098526362</v>
+        <v>0.01095191188415435</v>
       </c>
       <c r="F2">
-        <v>0.001765872091683002</v>
+        <v>0.0109519118838621</v>
       </c>
       <c r="G2">
-        <v>0.001765872091683215</v>
+        <v>0.01095191188386208</v>
       </c>
       <c r="H2">
-        <v>0.03057617475389822</v>
+        <v>0.1896329707641301</v>
       </c>
       <c r="I2">
-        <v>0.03057617468689678</v>
+        <v>0.1896329707607363</v>
       </c>
       <c r="J2">
-        <v>0.03057617468688735</v>
+        <v>0.1896329707607125</v>
       </c>
       <c r="K2">
-        <v>0.02039053462877289</v>
+        <v>0.1264617854891516</v>
       </c>
       <c r="L2">
-        <v>0.02039053454975258</v>
+        <v>0.126461785485777</v>
       </c>
       <c r="M2">
-        <v>0.02039053454975504</v>
+        <v>0.1264617854857767</v>
       </c>
       <c r="N2">
-        <v>-5.807715291193743E-13</v>
+        <v>1.318217841547122E-14</v>
       </c>
       <c r="O2">
-        <v>0.0291566174914944</v>
+        <v>0.1817701986276458</v>
       </c>
       <c r="P2">
-        <v>-0.02909829038249458</v>
+        <v>-0.1795265645616197</v>
       </c>
       <c r="Q2">
-        <v>1.440175924514595E-05</v>
+        <v>0.0005539581891516387</v>
       </c>
       <c r="R2">
-        <v>-0.01943370600585491</v>
+        <v>-0.1208298995167708</v>
       </c>
       <c r="S2">
-        <v>0.01941498374379281</v>
+        <v>0.1201096505772136</v>
       </c>
       <c r="T2">
-        <v>4.510140659949135E-14</v>
+        <v>-7.864869792020713E-14</v>
       </c>
       <c r="U2">
-        <v>-0.008042654259386214</v>
+        <v>-0.3134553678363205</v>
       </c>
       <c r="V2">
-        <v>-0.008291210119538227</v>
+        <v>-0.3148204443677204</v>
       </c>
       <c r="W2">
-        <v>5.730851305531586E-06</v>
+        <v>0.0002204347474357428</v>
       </c>
       <c r="X2">
-        <v>0.005353784069651961</v>
+        <v>0.2091603751553553</v>
       </c>
       <c r="Y2">
-        <v>0.005550314862284809</v>
+        <v>0.210261597400231</v>
       </c>
       <c r="Z2">
-        <v>-90.24449057441882</v>
+        <v>-90.21647784283583</v>
       </c>
       <c r="AA2">
-        <v>-90.24446206956961</v>
+        <v>-90.21647786463598</v>
       </c>
       <c r="AB2">
-        <v>-90.24446206958743</v>
+        <v>-90.21647786462883</v>
       </c>
       <c r="AC2">
-        <v>89.71010735473497</v>
+        <v>89.73812958604121</v>
       </c>
       <c r="AD2">
-        <v>89.71015009834851</v>
+        <v>89.7381295533543</v>
       </c>
       <c r="AE2">
-        <v>89.7101500982953</v>
+        <v>89.73812955338005</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.9891864936508152</v>
+        <v>1.910775674646174</v>
       </c>
       <c r="AI2">
-        <v>0.9895443670861928</v>
+        <v>1.911117842749945</v>
       </c>
       <c r="AJ2">
-        <v>0.0007601618875362963</v>
+        <v>0.004714512195614059</v>
       </c>
       <c r="AK2">
-        <v>0.9885801044763499</v>
+        <v>1.910088134753466</v>
       </c>
       <c r="AL2">
-        <v>0.9903007080861643</v>
+        <v>1.914801898916366</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-105.6656179757978</v>
+        <v>-150.1073836567952</v>
       </c>
       <c r="AO2">
-        <v>105.6598069806291</v>
+        <v>150.089543465442</v>
       </c>
       <c r="AP2">
-        <v>111.409060625963</v>
+        <v>111.4370589892723</v>
       </c>
       <c r="AQ2">
-        <v>-105.6921780995073</v>
+        <v>-150.2472650309357</v>
       </c>
       <c r="AR2">
-        <v>105.664212751325</v>
+        <v>150.0014316032311</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5400,13 +5400,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0008829360484928684</v>
+        <v>0.005475955941972187</v>
       </c>
       <c r="F3">
-        <v>0.0008829360462093178</v>
+        <v>0.005475955941879988</v>
       </c>
       <c r="G3">
-        <v>0.0008829360462099291</v>
+        <v>0.00547595594187589</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -5418,49 +5418,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01019526730549164</v>
+        <v>0.06323089274336346</v>
       </c>
       <c r="L3">
-        <v>0.01019526727912347</v>
+        <v>0.06323089274229884</v>
       </c>
       <c r="M3">
-        <v>0.01019526727913053</v>
+        <v>0.06323089274225152</v>
       </c>
       <c r="N3">
-        <v>-1.345822044799545E-12</v>
+        <v>-8.455746988980818E-12</v>
       </c>
       <c r="O3">
-        <v>2.806936802495062E-10</v>
+        <v>-6.722884477448714E-09</v>
       </c>
       <c r="P3">
-        <v>2.734580796432615E-10</v>
+        <v>-6.762029888466354E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.200880183216884E-06</v>
+        <v>-0.0002769790980914111</v>
       </c>
       <c r="R3">
-        <v>0.009716853143018419</v>
+        <v>0.06041494639720085</v>
       </c>
       <c r="S3">
-        <v>-0.009707491734914017</v>
+        <v>-0.06005482866625327</v>
       </c>
       <c r="T3">
-        <v>3.425521030411386E-12</v>
+        <v>2.124085001287616E-11</v>
       </c>
       <c r="U3">
-        <v>9.848880025686627E-10</v>
+        <v>-3.883656481349206E-09</v>
       </c>
       <c r="V3">
-        <v>-9.890739631298445E-10</v>
+        <v>3.861123800056682E-09</v>
       </c>
       <c r="W3">
-        <v>-2.865424225566871E-06</v>
+        <v>-0.00011021736486764</v>
       </c>
       <c r="X3">
-        <v>-0.002676891542118164</v>
+        <v>-0.1045801895181003</v>
       </c>
       <c r="Y3">
-        <v>-0.002775157925629222</v>
+        <v>-0.1051307967692673</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5472,49 +5472,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-90.2898813092487</v>
+        <v>-90.26186858363347</v>
       </c>
       <c r="AD3">
-        <v>-90.28985281348939</v>
+        <v>-90.26186860547315</v>
       </c>
       <c r="AE3">
-        <v>-90.28985281343596</v>
+        <v>-90.26186860548194</v>
       </c>
       <c r="AG3">
-        <v>0.0009122229799611776</v>
+        <v>0.00565759272275372</v>
       </c>
       <c r="AH3">
-        <v>0.9884587856526788</v>
+        <v>1.909951524294336</v>
       </c>
       <c r="AI3">
-        <v>0.9904520127875015</v>
+        <v>1.915539112236015</v>
       </c>
       <c r="AJ3">
-        <v>0.0007601618875362963</v>
+        <v>0.004714512195614059</v>
       </c>
       <c r="AK3">
-        <v>0.9885801044763499</v>
+        <v>1.910088134753466</v>
       </c>
       <c r="AL3">
-        <v>0.9903007080861643</v>
+        <v>1.914801898916366</v>
       </c>
       <c r="AM3">
-        <v>111.4045205787683</v>
+        <v>111.4325192814443</v>
       </c>
       <c r="AN3">
-        <v>-105.6974916973512</v>
+        <v>-150.2752566917652</v>
       </c>
       <c r="AO3">
-        <v>105.6650891042807</v>
+        <v>149.983836107469</v>
       </c>
       <c r="AP3">
-        <v>111.409060625963</v>
+        <v>111.4370589892723</v>
       </c>
       <c r="AQ3">
-        <v>-105.6921780995073</v>
+        <v>-150.2472650309357</v>
       </c>
       <c r="AR3">
-        <v>105.664212751325</v>
+        <v>150.0014316032311</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5531,13 +5531,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0008829360484928601</v>
+        <v>0.005475955941973844</v>
       </c>
       <c r="F4">
-        <v>0.0008829360462084974</v>
+        <v>0.005475955941881607</v>
       </c>
       <c r="G4">
-        <v>0.0008829360462099248</v>
+        <v>0.00547595594187589</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -5549,49 +5549,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01019526730549154</v>
+        <v>0.06323089274338259</v>
       </c>
       <c r="L4">
-        <v>0.010195267279114</v>
+        <v>0.06323089274231752</v>
       </c>
       <c r="M4">
-        <v>0.01019526727913048</v>
+        <v>0.06323089274225152</v>
       </c>
       <c r="N4">
-        <v>-1.345805952348094E-12</v>
+        <v>-8.455775438091262E-12</v>
       </c>
       <c r="O4">
-        <v>2.807091771857891E-10</v>
+        <v>-6.722839566370639E-09</v>
       </c>
       <c r="P4">
-        <v>2.734696482153603E-10</v>
+        <v>-6.762066201464056E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.200880183222143E-06</v>
+        <v>-0.000276979098091429</v>
       </c>
       <c r="R4">
-        <v>0.0097168531430094</v>
+        <v>0.06041494639712454</v>
       </c>
       <c r="S4">
-        <v>-0.00970749173491655</v>
+        <v>-0.06005482866625327</v>
       </c>
       <c r="T4">
-        <v>3.425527338438811E-12</v>
+        <v>2.124106917042481E-11</v>
       </c>
       <c r="U4">
-        <v>9.848739199500251E-10</v>
+        <v>-3.883589166006588E-09</v>
       </c>
       <c r="V4">
-        <v>-9.890804643815458E-10</v>
+        <v>3.861060945057175E-09</v>
       </c>
       <c r="W4">
-        <v>-2.865424225553461E-06</v>
+        <v>-0.000110217364867839</v>
       </c>
       <c r="X4">
-        <v>-0.00267689154211563</v>
+        <v>-0.1045801895181856</v>
       </c>
       <c r="Y4">
-        <v>-0.002775157925620188</v>
+        <v>-0.1051307967692673</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5603,49 +5603,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-90.28988130914222</v>
+        <v>-90.26186858366773</v>
       </c>
       <c r="AD4">
-        <v>-90.28985281348966</v>
+        <v>-90.26186860542157</v>
       </c>
       <c r="AE4">
-        <v>-90.28985281338271</v>
+        <v>-90.26186860548194</v>
       </c>
       <c r="AG4">
-        <v>0.0009122229799611639</v>
+        <v>0.005657592722754072</v>
       </c>
       <c r="AH4">
-        <v>0.9884587856526788</v>
+        <v>1.909951524294336</v>
       </c>
       <c r="AI4">
-        <v>0.9904520127875016</v>
+        <v>1.915539112236015</v>
       </c>
       <c r="AJ4">
-        <v>0.0007601618875362963</v>
+        <v>0.004714512195614059</v>
       </c>
       <c r="AK4">
-        <v>0.9885801044763499</v>
+        <v>1.910088134753466</v>
       </c>
       <c r="AL4">
-        <v>0.9903007080861643</v>
+        <v>1.914801898916366</v>
       </c>
       <c r="AM4">
-        <v>111.4045205787836</v>
+        <v>111.4325192814429</v>
       </c>
       <c r="AN4">
-        <v>-105.6974916973512</v>
+        <v>-150.2752566917652</v>
       </c>
       <c r="AO4">
-        <v>105.6650891042807</v>
+        <v>149.983836107469</v>
       </c>
       <c r="AP4">
-        <v>111.409060625963</v>
+        <v>111.4370589892723</v>
       </c>
       <c r="AQ4">
-        <v>-105.6921780995073</v>
+        <v>-150.2472650309357</v>
       </c>
       <c r="AR4">
-        <v>105.664212751325</v>
+        <v>150.0014316032311</v>
       </c>
     </row>
   </sheetData>
@@ -5800,130 +5800,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0005712655780787116</v>
+        <v>0.01663526625513024</v>
       </c>
       <c r="C2">
-        <v>0.0005712655768275429</v>
+        <v>0.01663526625483065</v>
       </c>
       <c r="D2">
-        <v>0.0005712655768274682</v>
+        <v>0.01663526625483294</v>
       </c>
       <c r="E2">
-        <v>0.0003809636308594726</v>
+        <v>0.01109366933520953</v>
       </c>
       <c r="F2">
-        <v>0.0003809636293837059</v>
+        <v>0.01109366933491411</v>
       </c>
       <c r="G2">
-        <v>0.0003809636293835601</v>
+        <v>0.01109366933491557</v>
       </c>
       <c r="H2">
-        <v>0.006596406705650227</v>
+        <v>0.1920875090088109</v>
       </c>
       <c r="I2">
-        <v>0.006596406691202975</v>
+        <v>0.1920875090053515</v>
       </c>
       <c r="J2">
-        <v>0.006596406691202113</v>
+        <v>0.1920875090053779</v>
       </c>
       <c r="K2">
-        <v>0.004398989096563475</v>
+        <v>0.1280986595396784</v>
       </c>
       <c r="L2">
-        <v>0.004398989079522788</v>
+        <v>0.1280986595362671</v>
       </c>
       <c r="M2">
-        <v>0.004398989079521106</v>
+        <v>0.1280986595362841</v>
       </c>
       <c r="N2">
-        <v>0.004035192138665387</v>
+        <v>-0.002773704960639351</v>
       </c>
       <c r="O2">
-        <v>0.003210228117280159</v>
+        <v>0.1854995295127276</v>
       </c>
       <c r="P2">
-        <v>-0.007242707788581703</v>
+        <v>-0.180423733074117</v>
       </c>
       <c r="Q2">
-        <v>-0.002687942023372755</v>
+        <v>0.002416649531708339</v>
       </c>
       <c r="R2">
-        <v>-0.002143379414115301</v>
+        <v>-0.1233047845644694</v>
       </c>
       <c r="S2">
-        <v>0.004831122565842717</v>
+        <v>0.1207175116130005</v>
       </c>
       <c r="T2">
-        <v>0.004469625008576705</v>
+        <v>-0.002763782477755739</v>
       </c>
       <c r="U2">
-        <v>-0.006103716549165711</v>
+        <v>-0.3178383912309207</v>
       </c>
       <c r="V2">
-        <v>0.0008738767093603243</v>
+        <v>-0.3240432324590966</v>
       </c>
       <c r="W2">
-        <v>-0.002982552914596781</v>
+        <v>0.00207074477379289</v>
       </c>
       <c r="X2">
-        <v>0.004068995124836926</v>
+        <v>0.2120870829072464</v>
       </c>
       <c r="Y2">
-        <v>-0.0005786748336344735</v>
+        <v>0.2164182741615509</v>
       </c>
       <c r="Z2">
-        <v>-56.2759380989668</v>
+        <v>-90.97145269495144</v>
       </c>
       <c r="AA2">
-        <v>-56.27590959412834</v>
+        <v>-90.97145271676943</v>
       </c>
       <c r="AB2">
-        <v>-56.27590959414188</v>
+        <v>-90.97145271673539</v>
       </c>
       <c r="AC2">
-        <v>123.6786598300917</v>
+        <v>88.98315473393434</v>
       </c>
       <c r="AD2">
-        <v>123.6787025737543</v>
+        <v>88.98315470122483</v>
       </c>
       <c r="AE2">
-        <v>123.6787025737318</v>
+        <v>88.98315470127582</v>
       </c>
       <c r="AG2">
-        <v>0.9128688999289114</v>
+        <v>0.0203844655217233</v>
       </c>
       <c r="AH2">
-        <v>1.045484747100844</v>
+        <v>1.915845258421691</v>
       </c>
       <c r="AI2">
-        <v>1.105940993578372</v>
+        <v>1.930820106570293</v>
       </c>
       <c r="AJ2">
-        <v>0.9127218463699837</v>
+        <v>0.02484397572894944</v>
       </c>
       <c r="AK2">
-        <v>1.045467365959527</v>
+        <v>1.915135689028799</v>
       </c>
       <c r="AL2">
-        <v>1.106085072291753</v>
+        <v>1.934521243259841</v>
       </c>
       <c r="AM2">
-        <v>-8.351765333507208</v>
+        <v>133.9258805650458</v>
       </c>
       <c r="AN2">
-        <v>-118.5339422527549</v>
+        <v>-150.7024009235176</v>
       </c>
       <c r="AO2">
-        <v>116.8442630436326</v>
+        <v>149.9199645579784</v>
       </c>
       <c r="AP2">
-        <v>-8.347208772545324</v>
+        <v>129.5753031220821</v>
       </c>
       <c r="AQ2">
-        <v>-118.542879131253</v>
+        <v>-150.8436602267654</v>
       </c>
       <c r="AR2">
-        <v>116.848320862745</v>
+        <v>149.8304980727193</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5940,13 +5940,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001904818152637421</v>
+        <v>0.005546834667502916</v>
       </c>
       <c r="F3">
-        <v>0.0001904818147713859</v>
+        <v>0.005546834667405838</v>
       </c>
       <c r="G3">
-        <v>0.0001904818147710054</v>
+        <v>0.005546834667405046</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -5958,49 +5958,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.002199494546365001</v>
+        <v>0.06404932976866314</v>
       </c>
       <c r="L3">
-        <v>0.002199494540679762</v>
+        <v>0.06404932976754218</v>
       </c>
       <c r="M3">
-        <v>0.002199494540675368</v>
+        <v>0.06404932976753303</v>
       </c>
       <c r="N3">
-        <v>5.878514569464172E-10</v>
+        <v>-6.762961934269068E-11</v>
       </c>
       <c r="O3">
-        <v>2.076960173976794E-10</v>
+        <v>-6.816966460913421E-09</v>
       </c>
       <c r="P3">
-        <v>-3.154402012792446E-11</v>
+        <v>-6.959987494975539E-09</v>
       </c>
       <c r="Q3">
-        <v>0.001343971305565451</v>
+        <v>-0.001208324798906798</v>
       </c>
       <c r="R3">
-        <v>0.001071689810898628</v>
+        <v>0.06165238887397157</v>
       </c>
       <c r="S3">
-        <v>-0.00241556129863009</v>
+        <v>-0.06035875928308265</v>
       </c>
       <c r="T3">
-        <v>-5.343472407186745E-10</v>
+        <v>8.084101134995293E-11</v>
       </c>
       <c r="U3">
-        <v>1.070944122951867E-10</v>
+        <v>-3.963203971534171E-09</v>
       </c>
       <c r="V3">
-        <v>-2.452158216336058E-10</v>
+        <v>3.880679499163895E-09</v>
       </c>
       <c r="W3">
-        <v>0.001491276190093008</v>
+        <v>-0.00103537234827768</v>
       </c>
       <c r="X3">
-        <v>-0.002034497508804483</v>
+        <v>-0.1060435434338346</v>
       </c>
       <c r="Y3">
-        <v>0.0002893372941793807</v>
+        <v>-0.1082091351401984</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6012,49 +6012,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-56.32132883388311</v>
+        <v>-91.01684343575327</v>
       </c>
       <c r="AD3">
-        <v>-56.32130033801962</v>
+        <v>-91.01684345757631</v>
       </c>
       <c r="AE3">
-        <v>-56.3213003380175</v>
+        <v>-91.01684345759341</v>
       </c>
       <c r="AG3">
-        <v>0.9126924376998375</v>
+        <v>0.02574951192443235</v>
       </c>
       <c r="AH3">
-        <v>1.045463876623155</v>
+        <v>1.914994697046225</v>
       </c>
       <c r="AI3">
-        <v>1.106113901588621</v>
+        <v>1.935261888676937</v>
       </c>
       <c r="AJ3">
-        <v>0.9127218463699837</v>
+        <v>0.02484397572894944</v>
       </c>
       <c r="AK3">
-        <v>1.045467365959527</v>
+        <v>1.915135689028799</v>
       </c>
       <c r="AL3">
-        <v>1.106085072291753</v>
+        <v>1.934521243259841</v>
       </c>
       <c r="AM3">
-        <v>-8.346296234174009</v>
+        <v>128.8860399942301</v>
       </c>
       <c r="AN3">
-        <v>-118.5446667896631</v>
+        <v>-150.8719279440236</v>
       </c>
       <c r="AO3">
-        <v>116.849131743342</v>
+        <v>149.812632054152</v>
       </c>
       <c r="AP3">
-        <v>-8.347208772545324</v>
+        <v>129.5753031220821</v>
       </c>
       <c r="AQ3">
-        <v>-118.542879131253</v>
+        <v>-150.8436602267654</v>
       </c>
       <c r="AR3">
-        <v>116.848320862745</v>
+        <v>149.8304980727193</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6071,13 +6071,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001904818152634007</v>
+        <v>0.005546834667504586</v>
       </c>
       <c r="F4">
-        <v>0.0001904818147711868</v>
+        <v>0.005546834667404167</v>
       </c>
       <c r="G4">
-        <v>0.0001904818147712045</v>
+        <v>0.005546834667405046</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -6089,49 +6089,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.002199494546361059</v>
+        <v>0.06404932976868243</v>
       </c>
       <c r="L4">
-        <v>0.002199494540677463</v>
+        <v>0.06404932976752289</v>
       </c>
       <c r="M4">
-        <v>0.002199494540677667</v>
+        <v>0.06404932976753303</v>
       </c>
       <c r="N4">
-        <v>5.878476500286846E-10</v>
+        <v>-6.762954585435996E-11</v>
       </c>
       <c r="O4">
-        <v>2.076960173976794E-10</v>
+        <v>-6.816885406466755E-09</v>
       </c>
       <c r="P4">
-        <v>-3.154048500376031E-11</v>
+        <v>-6.960024371444313E-09</v>
       </c>
       <c r="Q4">
-        <v>0.001343971305564823</v>
+        <v>-0.001208324798906861</v>
       </c>
       <c r="R4">
-        <v>0.001071689810898724</v>
+        <v>0.06165238887392221</v>
       </c>
       <c r="S4">
-        <v>-0.002415561298632442</v>
+        <v>-0.06035875928308265</v>
       </c>
       <c r="T4">
-        <v>-5.343434049627426E-10</v>
+        <v>8.084169741552704E-11</v>
       </c>
       <c r="U4">
-        <v>1.070944122951867E-10</v>
+        <v>-3.963200343292769E-09</v>
       </c>
       <c r="V4">
-        <v>-2.452199047980914E-10</v>
+        <v>3.880616106903122E-09</v>
       </c>
       <c r="W4">
-        <v>0.00149127619008873</v>
+        <v>-0.001035372348278342</v>
       </c>
       <c r="X4">
-        <v>-0.002034497508801716</v>
+        <v>-0.1060435434338207</v>
       </c>
       <c r="Y4">
-        <v>0.0002893372941811265</v>
+        <v>-0.1082091351401984</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6143,49 +6143,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-56.32132883381468</v>
+        <v>-91.01684343576991</v>
       </c>
       <c r="AD4">
-        <v>-56.32130033805386</v>
+        <v>-91.01684345755967</v>
       </c>
       <c r="AE4">
-        <v>-56.32130033798327</v>
+        <v>-91.01684345759341</v>
       </c>
       <c r="AG4">
-        <v>0.9126924376998375</v>
+        <v>0.02574951192443265</v>
       </c>
       <c r="AH4">
-        <v>1.045463876623155</v>
+        <v>1.914994697046225</v>
       </c>
       <c r="AI4">
-        <v>1.106113901588621</v>
+        <v>1.935261888676937</v>
       </c>
       <c r="AJ4">
-        <v>0.9127218463699837</v>
+        <v>0.02484397572894944</v>
       </c>
       <c r="AK4">
-        <v>1.045467365959527</v>
+        <v>1.915135689028799</v>
       </c>
       <c r="AL4">
-        <v>1.106085072291753</v>
+        <v>1.934521243259841</v>
       </c>
       <c r="AM4">
-        <v>-8.346296234174012</v>
+        <v>128.8860399942296</v>
       </c>
       <c r="AN4">
-        <v>-118.5446667896631</v>
+        <v>-150.8719279440236</v>
       </c>
       <c r="AO4">
-        <v>116.849131743342</v>
+        <v>149.812632054152</v>
       </c>
       <c r="AP4">
-        <v>-8.347208772545324</v>
+        <v>129.5753031220821</v>
       </c>
       <c r="AQ4">
-        <v>-118.542879131253</v>
+        <v>-150.8436602267654</v>
       </c>
       <c r="AR4">
-        <v>116.848320862745</v>
+        <v>149.8304980727193</v>
       </c>
     </row>
   </sheetData>
@@ -6565,130 +6565,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0005712655780787116</v>
+        <v>0.01663526625513024</v>
       </c>
       <c r="C2">
-        <v>0.0005712655768275429</v>
+        <v>0.01663526625483065</v>
       </c>
       <c r="D2">
-        <v>0.0005712655768274682</v>
+        <v>0.01663526625483294</v>
       </c>
       <c r="E2">
-        <v>0.0003809636308594726</v>
+        <v>0.01109366933520953</v>
       </c>
       <c r="F2">
-        <v>0.0003809636293837059</v>
+        <v>0.01109366933491411</v>
       </c>
       <c r="G2">
-        <v>0.0003809636293835601</v>
+        <v>0.01109366933491557</v>
       </c>
       <c r="H2">
-        <v>0.006596406705650227</v>
+        <v>0.1920875090088109</v>
       </c>
       <c r="I2">
-        <v>0.006596406691202975</v>
+        <v>0.1920875090053515</v>
       </c>
       <c r="J2">
-        <v>0.006596406691202113</v>
+        <v>0.1920875090053779</v>
       </c>
       <c r="K2">
-        <v>0.004398989096563475</v>
+        <v>0.1280986595396784</v>
       </c>
       <c r="L2">
-        <v>0.004398989079522788</v>
+        <v>0.1280986595362671</v>
       </c>
       <c r="M2">
-        <v>0.004398989079521106</v>
+        <v>0.1280986595362841</v>
       </c>
       <c r="N2">
-        <v>0.004035192138665387</v>
+        <v>-0.002773704960639351</v>
       </c>
       <c r="O2">
-        <v>0.003210228117280159</v>
+        <v>0.1854995295127276</v>
       </c>
       <c r="P2">
-        <v>-0.007242707788581703</v>
+        <v>-0.180423733074117</v>
       </c>
       <c r="Q2">
-        <v>-0.002687942023372755</v>
+        <v>0.002416649531708339</v>
       </c>
       <c r="R2">
-        <v>-0.002143379414115301</v>
+        <v>-0.1233047845644694</v>
       </c>
       <c r="S2">
-        <v>0.004831122565842717</v>
+        <v>0.1207175116130005</v>
       </c>
       <c r="T2">
-        <v>0.004469625008576705</v>
+        <v>-0.002763782477755739</v>
       </c>
       <c r="U2">
-        <v>-0.006103716549165711</v>
+        <v>-0.3178383912309207</v>
       </c>
       <c r="V2">
-        <v>0.0008738767093603243</v>
+        <v>-0.3240432324590966</v>
       </c>
       <c r="W2">
-        <v>-0.002982552914596781</v>
+        <v>0.00207074477379289</v>
       </c>
       <c r="X2">
-        <v>0.004068995124836926</v>
+        <v>0.2120870829072464</v>
       </c>
       <c r="Y2">
-        <v>-0.0005786748336344735</v>
+        <v>0.2164182741615509</v>
       </c>
       <c r="Z2">
-        <v>-56.2759380989668</v>
+        <v>-90.97145269495144</v>
       </c>
       <c r="AA2">
-        <v>-56.27590959412834</v>
+        <v>-90.97145271676943</v>
       </c>
       <c r="AB2">
-        <v>-56.27590959414188</v>
+        <v>-90.97145271673539</v>
       </c>
       <c r="AC2">
-        <v>123.6786598300917</v>
+        <v>88.98315473393434</v>
       </c>
       <c r="AD2">
-        <v>123.6787025737543</v>
+        <v>88.98315470122483</v>
       </c>
       <c r="AE2">
-        <v>123.6787025737318</v>
+        <v>88.98315470127582</v>
       </c>
       <c r="AG2">
-        <v>0.9128688999289114</v>
+        <v>0.0203844655217233</v>
       </c>
       <c r="AH2">
-        <v>1.045484747100844</v>
+        <v>1.915845258421691</v>
       </c>
       <c r="AI2">
-        <v>1.105940993578372</v>
+        <v>1.930820106570293</v>
       </c>
       <c r="AJ2">
-        <v>0.9127218463699837</v>
+        <v>0.02484397572894944</v>
       </c>
       <c r="AK2">
-        <v>1.045467365959527</v>
+        <v>1.915135689028799</v>
       </c>
       <c r="AL2">
-        <v>1.106085072291753</v>
+        <v>1.934521243259841</v>
       </c>
       <c r="AM2">
-        <v>-8.351765333507208</v>
+        <v>133.9258805650458</v>
       </c>
       <c r="AN2">
-        <v>-118.5339422527549</v>
+        <v>-150.7024009235176</v>
       </c>
       <c r="AO2">
-        <v>116.8442630436326</v>
+        <v>149.9199645579784</v>
       </c>
       <c r="AP2">
-        <v>-8.347208772545324</v>
+        <v>129.5753031220821</v>
       </c>
       <c r="AQ2">
-        <v>-118.542879131253</v>
+        <v>-150.8436602267654</v>
       </c>
       <c r="AR2">
-        <v>116.848320862745</v>
+        <v>149.8304980727193</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -6705,13 +6705,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001904818152637421</v>
+        <v>0.005546834667502916</v>
       </c>
       <c r="F3">
-        <v>0.0001904818147713859</v>
+        <v>0.005546834667405838</v>
       </c>
       <c r="G3">
-        <v>0.0001904818147710054</v>
+        <v>0.005546834667405046</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -6723,49 +6723,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.002199494546365001</v>
+        <v>0.06404932976866314</v>
       </c>
       <c r="L3">
-        <v>0.002199494540679762</v>
+        <v>0.06404932976754218</v>
       </c>
       <c r="M3">
-        <v>0.002199494540675368</v>
+        <v>0.06404932976753303</v>
       </c>
       <c r="N3">
-        <v>5.878514569464172E-10</v>
+        <v>-6.762961934269068E-11</v>
       </c>
       <c r="O3">
-        <v>2.076960173976794E-10</v>
+        <v>-6.816966460913421E-09</v>
       </c>
       <c r="P3">
-        <v>-3.154402012792446E-11</v>
+        <v>-6.959987494975539E-09</v>
       </c>
       <c r="Q3">
-        <v>0.001343971305565451</v>
+        <v>-0.001208324798906798</v>
       </c>
       <c r="R3">
-        <v>0.001071689810898628</v>
+        <v>0.06165238887397157</v>
       </c>
       <c r="S3">
-        <v>-0.00241556129863009</v>
+        <v>-0.06035875928308265</v>
       </c>
       <c r="T3">
-        <v>-5.343472407186745E-10</v>
+        <v>8.084101134995293E-11</v>
       </c>
       <c r="U3">
-        <v>1.070944122951867E-10</v>
+        <v>-3.963203971534171E-09</v>
       </c>
       <c r="V3">
-        <v>-2.452158216336058E-10</v>
+        <v>3.880679499163895E-09</v>
       </c>
       <c r="W3">
-        <v>0.001491276190093008</v>
+        <v>-0.00103537234827768</v>
       </c>
       <c r="X3">
-        <v>-0.002034497508804483</v>
+        <v>-0.1060435434338346</v>
       </c>
       <c r="Y3">
-        <v>0.0002893372941793807</v>
+        <v>-0.1082091351401984</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6777,49 +6777,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-56.32132883388311</v>
+        <v>-91.01684343575327</v>
       </c>
       <c r="AD3">
-        <v>-56.32130033801962</v>
+        <v>-91.01684345757631</v>
       </c>
       <c r="AE3">
-        <v>-56.3213003380175</v>
+        <v>-91.01684345759341</v>
       </c>
       <c r="AG3">
-        <v>0.9126924376998375</v>
+        <v>0.02574951192443235</v>
       </c>
       <c r="AH3">
-        <v>1.045463876623155</v>
+        <v>1.914994697046225</v>
       </c>
       <c r="AI3">
-        <v>1.106113901588621</v>
+        <v>1.935261888676937</v>
       </c>
       <c r="AJ3">
-        <v>0.9127218463699837</v>
+        <v>0.02484397572894944</v>
       </c>
       <c r="AK3">
-        <v>1.045467365959527</v>
+        <v>1.915135689028799</v>
       </c>
       <c r="AL3">
-        <v>1.106085072291753</v>
+        <v>1.934521243259841</v>
       </c>
       <c r="AM3">
-        <v>-8.346296234174009</v>
+        <v>128.8860399942301</v>
       </c>
       <c r="AN3">
-        <v>-118.5446667896631</v>
+        <v>-150.8719279440236</v>
       </c>
       <c r="AO3">
-        <v>116.849131743342</v>
+        <v>149.812632054152</v>
       </c>
       <c r="AP3">
-        <v>-8.347208772545324</v>
+        <v>129.5753031220821</v>
       </c>
       <c r="AQ3">
-        <v>-118.542879131253</v>
+        <v>-150.8436602267654</v>
       </c>
       <c r="AR3">
-        <v>116.848320862745</v>
+        <v>149.8304980727193</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6836,13 +6836,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001904818152634007</v>
+        <v>0.005546834667504586</v>
       </c>
       <c r="F4">
-        <v>0.0001904818147711868</v>
+        <v>0.005546834667404167</v>
       </c>
       <c r="G4">
-        <v>0.0001904818147712045</v>
+        <v>0.005546834667405046</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -6854,49 +6854,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.002199494546361059</v>
+        <v>0.06404932976868243</v>
       </c>
       <c r="L4">
-        <v>0.002199494540677463</v>
+        <v>0.06404932976752289</v>
       </c>
       <c r="M4">
-        <v>0.002199494540677667</v>
+        <v>0.06404932976753303</v>
       </c>
       <c r="N4">
-        <v>5.878476500286846E-10</v>
+        <v>-6.762954585435996E-11</v>
       </c>
       <c r="O4">
-        <v>2.076960173976794E-10</v>
+        <v>-6.816885406466755E-09</v>
       </c>
       <c r="P4">
-        <v>-3.154048500376031E-11</v>
+        <v>-6.960024371444313E-09</v>
       </c>
       <c r="Q4">
-        <v>0.001343971305564823</v>
+        <v>-0.001208324798906861</v>
       </c>
       <c r="R4">
-        <v>0.001071689810898724</v>
+        <v>0.06165238887392221</v>
       </c>
       <c r="S4">
-        <v>-0.002415561298632442</v>
+        <v>-0.06035875928308265</v>
       </c>
       <c r="T4">
-        <v>-5.343434049627426E-10</v>
+        <v>8.084169741552704E-11</v>
       </c>
       <c r="U4">
-        <v>1.070944122951867E-10</v>
+        <v>-3.963200343292769E-09</v>
       </c>
       <c r="V4">
-        <v>-2.452199047980914E-10</v>
+        <v>3.880616106903122E-09</v>
       </c>
       <c r="W4">
-        <v>0.00149127619008873</v>
+        <v>-0.001035372348278342</v>
       </c>
       <c r="X4">
-        <v>-0.002034497508801716</v>
+        <v>-0.1060435434338207</v>
       </c>
       <c r="Y4">
-        <v>0.0002893372941811265</v>
+        <v>-0.1082091351401984</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6908,49 +6908,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-56.32132883381468</v>
+        <v>-91.01684343576991</v>
       </c>
       <c r="AD4">
-        <v>-56.32130033805386</v>
+        <v>-91.01684345755967</v>
       </c>
       <c r="AE4">
-        <v>-56.32130033798327</v>
+        <v>-91.01684345759341</v>
       </c>
       <c r="AG4">
-        <v>0.9126924376998375</v>
+        <v>0.02574951192443265</v>
       </c>
       <c r="AH4">
-        <v>1.045463876623155</v>
+        <v>1.914994697046225</v>
       </c>
       <c r="AI4">
-        <v>1.106113901588621</v>
+        <v>1.935261888676937</v>
       </c>
       <c r="AJ4">
-        <v>0.9127218463699837</v>
+        <v>0.02484397572894944</v>
       </c>
       <c r="AK4">
-        <v>1.045467365959527</v>
+        <v>1.915135689028799</v>
       </c>
       <c r="AL4">
-        <v>1.106085072291753</v>
+        <v>1.934521243259841</v>
       </c>
       <c r="AM4">
-        <v>-8.346296234174012</v>
+        <v>128.8860399942296</v>
       </c>
       <c r="AN4">
-        <v>-118.5446667896631</v>
+        <v>-150.8719279440236</v>
       </c>
       <c r="AO4">
-        <v>116.849131743342</v>
+        <v>149.812632054152</v>
       </c>
       <c r="AP4">
-        <v>-8.347208772545324</v>
+        <v>129.5753031220821</v>
       </c>
       <c r="AQ4">
-        <v>-118.542879131253</v>
+        <v>-150.8436602267654</v>
       </c>
       <c r="AR4">
-        <v>116.848320862745</v>
+        <v>149.8304980727193</v>
       </c>
     </row>
   </sheetData>
@@ -7105,130 +7105,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002466894490124932</v>
+        <v>0.01493212307708799</v>
       </c>
       <c r="C2">
-        <v>0.002466894479328649</v>
+        <v>0.0149321230767847</v>
       </c>
       <c r="D2">
-        <v>0.002466894479326831</v>
+        <v>0.01493212307678694</v>
       </c>
       <c r="E2">
-        <v>0.001645112757890134</v>
+        <v>0.00995787465622327</v>
       </c>
       <c r="F2">
-        <v>0.001645112745280279</v>
+        <v>0.009957874655930291</v>
       </c>
       <c r="G2">
-        <v>0.001645112745278009</v>
+        <v>0.009957874655931906</v>
       </c>
       <c r="H2">
-        <v>0.02848524395872068</v>
+        <v>0.1724213055625875</v>
       </c>
       <c r="I2">
-        <v>0.02848524383405595</v>
+        <v>0.1724213055590854</v>
       </c>
       <c r="J2">
-        <v>0.02848524383403495</v>
+        <v>0.1724213055591113</v>
       </c>
       <c r="K2">
-        <v>0.01899612587230313</v>
+        <v>0.1149836322665412</v>
       </c>
       <c r="L2">
-        <v>0.01899612572669707</v>
+        <v>0.1149836322631581</v>
       </c>
       <c r="M2">
-        <v>0.01899612572667085</v>
+        <v>0.1149836322631768</v>
       </c>
       <c r="N2">
-        <v>9.622009326066488E-14</v>
+        <v>-6.294864718044505E-14</v>
       </c>
       <c r="O2">
-        <v>0.02471661008521936</v>
+        <v>0.1510980962607053</v>
       </c>
       <c r="P2">
-        <v>-0.02461941354507637</v>
+        <v>-0.1475368419284964</v>
       </c>
       <c r="Q2">
-        <v>2.399880848250641E-05</v>
+        <v>0.0008792890860811037</v>
       </c>
       <c r="R2">
-        <v>-0.01646586852209983</v>
+        <v>-0.1001466520861903</v>
       </c>
       <c r="S2">
-        <v>0.01643466872442002</v>
+        <v>0.09900344323081058</v>
       </c>
       <c r="T2">
-        <v>1.901859499951568E-13</v>
+        <v>-5.737838427741998E-14</v>
       </c>
       <c r="U2">
-        <v>-0.006873648110934599</v>
+        <v>-0.2586434957567552</v>
       </c>
       <c r="V2">
-        <v>-0.007302741617026183</v>
+        <v>-0.2607632893464861</v>
       </c>
       <c r="W2">
-        <v>4.976507676023149E-06</v>
+        <v>0.0001823332035875299</v>
       </c>
       <c r="X2">
-        <v>0.004563771557556467</v>
+        <v>0.1725120055381492</v>
       </c>
       <c r="Y2">
-        <v>0.004899966108099055</v>
+        <v>0.174228572035765</v>
       </c>
       <c r="Z2">
-        <v>-90.49833754140428</v>
+        <v>-90.40669447530308</v>
       </c>
       <c r="AA2">
-        <v>-90.49830986006812</v>
+        <v>-90.40669449818823</v>
       </c>
       <c r="AB2">
-        <v>-90.49830986014233</v>
+        <v>-90.40669449817874</v>
       </c>
       <c r="AC2">
-        <v>89.41450123043617</v>
+        <v>89.50615352208261</v>
       </c>
       <c r="AD2">
-        <v>89.41454273874288</v>
+        <v>89.50615348775604</v>
       </c>
       <c r="AE2">
-        <v>89.41454273861706</v>
+        <v>89.50615348777265</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.9006272688571465</v>
+        <v>1.737284194754348</v>
       </c>
       <c r="AI2">
-        <v>0.9015078907278526</v>
+        <v>1.737647387444417</v>
       </c>
       <c r="AJ2">
-        <v>0.001290229083598253</v>
+        <v>0.007809762144290909</v>
       </c>
       <c r="AK2">
-        <v>0.8994795927505459</v>
+        <v>1.734800540354985</v>
       </c>
       <c r="AL2">
-        <v>0.9027934230354712</v>
+        <v>1.742794196229545</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-106.0394703642315</v>
+        <v>-150.1134588479862</v>
       </c>
       <c r="AO2">
-        <v>106.023380610698</v>
+        <v>150.0926278661425</v>
       </c>
       <c r="AP2">
-        <v>101.1295943550867</v>
+        <v>101.2212225576906</v>
       </c>
       <c r="AQ2">
-        <v>-106.0769979763864</v>
+        <v>-150.3578286295623</v>
       </c>
       <c r="AR2">
-        <v>106.0163951544266</v>
+        <v>149.8992326270603</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -7245,13 +7245,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0008225563775243771</v>
+        <v>0.004978937327958757</v>
       </c>
       <c r="F3">
-        <v>0.0008225563733196099</v>
+        <v>0.004978937327860776</v>
       </c>
       <c r="G3">
-        <v>0.0008225563733194613</v>
+        <v>0.004978937327859967</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -7263,49 +7263,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.009498062919746851</v>
+        <v>0.05749181613150529</v>
       </c>
       <c r="L3">
-        <v>0.009498062871194382</v>
+        <v>0.0574918161303739</v>
       </c>
       <c r="M3">
-        <v>0.009498062871192666</v>
+        <v>0.05749181613036456</v>
       </c>
       <c r="N3">
-        <v>-1.103798043039739E-12</v>
+        <v>-7.004112806117876E-12</v>
       </c>
       <c r="O3">
-        <v>2.354263884099541E-10</v>
+        <v>-5.5442146801415E-09</v>
       </c>
       <c r="P3">
-        <v>2.228656452484582E-10</v>
+        <v>-5.604894265485642E-09</v>
       </c>
       <c r="Q3">
-        <v>-1.199940470090711E-05</v>
+        <v>-0.0004396445459386335</v>
       </c>
       <c r="R3">
-        <v>0.008232934378353336</v>
+        <v>0.05007332326997335</v>
       </c>
       <c r="S3">
-        <v>-0.008217334250368687</v>
+        <v>-0.04950172441396002</v>
       </c>
       <c r="T3">
-        <v>5.5705322843194E-12</v>
+        <v>3.370821205349158E-11</v>
       </c>
       <c r="U3">
-        <v>7.929589632605813E-10</v>
+        <v>-3.218545872563012E-09</v>
       </c>
       <c r="V3">
-        <v>-8.002045612157824E-10</v>
+        <v>3.183533890083964E-09</v>
       </c>
       <c r="W3">
-        <v>-2.488251517124412E-06</v>
+        <v>-9.116658775006951E-05</v>
       </c>
       <c r="X3">
-        <v>-0.00228188538197496</v>
+        <v>-0.08625600437650952</v>
       </c>
       <c r="Y3">
-        <v>-0.002449983453996132</v>
+        <v>-0.08711428442518174</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7317,49 +7317,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-90.58548770810728</v>
+        <v>-90.49384464805891</v>
       </c>
       <c r="AD3">
-        <v>-90.58546003585623</v>
+        <v>-90.49384467088038</v>
       </c>
       <c r="AE3">
-        <v>-90.58546003589205</v>
+        <v>-90.49384467089462</v>
       </c>
       <c r="AG3">
-        <v>0.001548323498913697</v>
+        <v>0.009372008713358212</v>
       </c>
       <c r="AH3">
-        <v>0.899249952998503</v>
+        <v>1.734306157173729</v>
       </c>
       <c r="AI3">
-        <v>0.90305055944455</v>
+        <v>1.743825056508643</v>
       </c>
       <c r="AJ3">
-        <v>0.001290229083598253</v>
+        <v>0.007809762144290909</v>
       </c>
       <c r="AK3">
-        <v>0.8994795927505459</v>
+        <v>1.734800540354985</v>
       </c>
       <c r="AL3">
-        <v>0.9027934230354712</v>
+        <v>1.742794196229545</v>
       </c>
       <c r="AM3">
-        <v>101.120878244954</v>
+        <v>101.2125067751397</v>
       </c>
       <c r="AN3">
-        <v>-106.0845030627584</v>
+        <v>-150.4067806995445</v>
       </c>
       <c r="AO3">
-        <v>106.0149852982796</v>
+        <v>149.8606524890491</v>
       </c>
       <c r="AP3">
-        <v>101.1295943550867</v>
+        <v>101.2212225576906</v>
       </c>
       <c r="AQ3">
-        <v>-106.0769979763864</v>
+        <v>-150.3578286295623</v>
       </c>
       <c r="AR3">
-        <v>106.0163951544266</v>
+        <v>149.8992326270603</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -7376,13 +7376,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0008225563775235568</v>
+        <v>0.004978937327956296</v>
       </c>
       <c r="F4">
-        <v>0.0008225563733196015</v>
+        <v>0.00497893732785997</v>
       </c>
       <c r="G4">
-        <v>0.0008225563733194655</v>
+        <v>0.004978937327860779</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -7394,49 +7394,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.00949806291973738</v>
+        <v>0.05749181613147687</v>
       </c>
       <c r="L4">
-        <v>0.009498062871194285</v>
+        <v>0.0574918161303646</v>
       </c>
       <c r="M4">
-        <v>0.009498062871192717</v>
+        <v>0.05749181613037394</v>
       </c>
       <c r="N4">
-        <v>-1.103812436264087E-12</v>
+        <v>-7.00425246565989E-12</v>
       </c>
       <c r="O4">
-        <v>2.354328417060219E-10</v>
+        <v>-5.544210623094285E-09</v>
       </c>
       <c r="P4">
-        <v>2.22862104734844E-10</v>
+        <v>-5.604865690833698E-09</v>
       </c>
       <c r="Q4">
-        <v>-1.199940470089512E-05</v>
+        <v>-0.0004396445459384158</v>
       </c>
       <c r="R4">
-        <v>0.008232934378350975</v>
+        <v>0.05007332326999379</v>
       </c>
       <c r="S4">
-        <v>-0.008217334250367508</v>
+        <v>-0.04950172441398258</v>
       </c>
       <c r="T4">
-        <v>5.570529455032757E-12</v>
+        <v>3.370800333401485E-11</v>
       </c>
       <c r="U4">
-        <v>7.929659689966938E-10</v>
+        <v>-3.218553016226E-09</v>
       </c>
       <c r="V4">
-        <v>-8.001922261543717E-10</v>
+        <v>3.183517299709644E-09</v>
       </c>
       <c r="W4">
-        <v>-2.488251517122053E-06</v>
+        <v>-9.116658775002629E-05</v>
       </c>
       <c r="X4">
-        <v>-0.002281885381983149</v>
+        <v>-0.08625600437647896</v>
       </c>
       <c r="Y4">
-        <v>-0.002449983454000242</v>
+        <v>-0.08711428442518773</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7448,49 +7448,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-90.58548770810786</v>
+        <v>-90.49384464805915</v>
       </c>
       <c r="AD4">
-        <v>-90.58546003579909</v>
+        <v>-90.49384467089934</v>
       </c>
       <c r="AE4">
-        <v>-90.58546003592063</v>
+        <v>-90.4938446708851</v>
       </c>
       <c r="AG4">
-        <v>0.001548323498913371</v>
+        <v>0.00937200871335765</v>
       </c>
       <c r="AH4">
-        <v>0.8992499529985033</v>
+        <v>1.734306157173729</v>
       </c>
       <c r="AI4">
-        <v>0.9030505594445499</v>
+        <v>1.743825056508643</v>
       </c>
       <c r="AJ4">
-        <v>0.001290229083598253</v>
+        <v>0.007809762144290909</v>
       </c>
       <c r="AK4">
-        <v>0.8994795927505459</v>
+        <v>1.734800540354985</v>
       </c>
       <c r="AL4">
-        <v>0.9027934230354712</v>
+        <v>1.742794196229545</v>
       </c>
       <c r="AM4">
-        <v>101.120878244948</v>
+        <v>101.2125067751417</v>
       </c>
       <c r="AN4">
-        <v>-106.0845030627584</v>
+        <v>-150.4067806995445</v>
       </c>
       <c r="AO4">
-        <v>106.0149852982796</v>
+        <v>149.8606524890491</v>
       </c>
       <c r="AP4">
-        <v>101.1295943550867</v>
+        <v>101.2212225576906</v>
       </c>
       <c r="AQ4">
-        <v>-106.0769979763864</v>
+        <v>-150.3578286295623</v>
       </c>
       <c r="AR4">
-        <v>106.0163951544266</v>
+        <v>149.8992326270603</v>
       </c>
     </row>
   </sheetData>
@@ -7645,130 +7645,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002466894490124932</v>
+        <v>0.01493212307708799</v>
       </c>
       <c r="C2">
-        <v>0.002466894479328649</v>
+        <v>0.0149321230767847</v>
       </c>
       <c r="D2">
-        <v>0.002466894479326831</v>
+        <v>0.01493212307678694</v>
       </c>
       <c r="E2">
-        <v>0.001645112757890134</v>
+        <v>0.00995787465622327</v>
       </c>
       <c r="F2">
-        <v>0.001645112745280279</v>
+        <v>0.009957874655930291</v>
       </c>
       <c r="G2">
-        <v>0.001645112745278009</v>
+        <v>0.009957874655931906</v>
       </c>
       <c r="H2">
-        <v>0.02848524395872068</v>
+        <v>0.1724213055625875</v>
       </c>
       <c r="I2">
-        <v>0.02848524383405595</v>
+        <v>0.1724213055590854</v>
       </c>
       <c r="J2">
-        <v>0.02848524383403495</v>
+        <v>0.1724213055591113</v>
       </c>
       <c r="K2">
-        <v>0.01899612587230313</v>
+        <v>0.1149836322665412</v>
       </c>
       <c r="L2">
-        <v>0.01899612572669707</v>
+        <v>0.1149836322631581</v>
       </c>
       <c r="M2">
-        <v>0.01899612572667085</v>
+        <v>0.1149836322631768</v>
       </c>
       <c r="N2">
-        <v>9.622009326066488E-14</v>
+        <v>-6.294864718044505E-14</v>
       </c>
       <c r="O2">
-        <v>0.02471661008521936</v>
+        <v>0.1510980962607053</v>
       </c>
       <c r="P2">
-        <v>-0.02461941354507637</v>
+        <v>-0.1475368419284964</v>
       </c>
       <c r="Q2">
-        <v>2.399880848250641E-05</v>
+        <v>0.0008792890860811037</v>
       </c>
       <c r="R2">
-        <v>-0.01646586852209983</v>
+        <v>-0.1001466520861903</v>
       </c>
       <c r="S2">
-        <v>0.01643466872442002</v>
+        <v>0.09900344323081058</v>
       </c>
       <c r="T2">
-        <v>1.901859499951568E-13</v>
+        <v>-5.737838427741998E-14</v>
       </c>
       <c r="U2">
-        <v>-0.006873648110934599</v>
+        <v>-0.2586434957567552</v>
       </c>
       <c r="V2">
-        <v>-0.007302741617026183</v>
+        <v>-0.2607632893464861</v>
       </c>
       <c r="W2">
-        <v>4.976507676023149E-06</v>
+        <v>0.0001823332035875299</v>
       </c>
       <c r="X2">
-        <v>0.004563771557556467</v>
+        <v>0.1725120055381492</v>
       </c>
       <c r="Y2">
-        <v>0.004899966108099055</v>
+        <v>0.174228572035765</v>
       </c>
       <c r="Z2">
-        <v>-90.49833754140428</v>
+        <v>-90.40669447530308</v>
       </c>
       <c r="AA2">
-        <v>-90.49830986006812</v>
+        <v>-90.40669449818823</v>
       </c>
       <c r="AB2">
-        <v>-90.49830986014233</v>
+        <v>-90.40669449817874</v>
       </c>
       <c r="AC2">
-        <v>89.41450123043617</v>
+        <v>89.50615352208261</v>
       </c>
       <c r="AD2">
-        <v>89.41454273874288</v>
+        <v>89.50615348775604</v>
       </c>
       <c r="AE2">
-        <v>89.41454273861706</v>
+        <v>89.50615348777265</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.9006272688571465</v>
+        <v>1.737284194754348</v>
       </c>
       <c r="AI2">
-        <v>0.9015078907278526</v>
+        <v>1.737647387444417</v>
       </c>
       <c r="AJ2">
-        <v>0.001290229083598253</v>
+        <v>0.007809762144290909</v>
       </c>
       <c r="AK2">
-        <v>0.8994795927505459</v>
+        <v>1.734800540354985</v>
       </c>
       <c r="AL2">
-        <v>0.9027934230354712</v>
+        <v>1.742794196229545</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-106.0394703642315</v>
+        <v>-150.1134588479862</v>
       </c>
       <c r="AO2">
-        <v>106.023380610698</v>
+        <v>150.0926278661425</v>
       </c>
       <c r="AP2">
-        <v>101.1295943550867</v>
+        <v>101.2212225576906</v>
       </c>
       <c r="AQ2">
-        <v>-106.0769979763864</v>
+        <v>-150.3578286295623</v>
       </c>
       <c r="AR2">
-        <v>106.0163951544266</v>
+        <v>149.8992326270603</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -7785,13 +7785,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0008225563775243771</v>
+        <v>0.004978937327958757</v>
       </c>
       <c r="F3">
-        <v>0.0008225563733196099</v>
+        <v>0.004978937327860776</v>
       </c>
       <c r="G3">
-        <v>0.0008225563733194613</v>
+        <v>0.004978937327859967</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -7803,49 +7803,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.009498062919746851</v>
+        <v>0.05749181613150529</v>
       </c>
       <c r="L3">
-        <v>0.009498062871194382</v>
+        <v>0.0574918161303739</v>
       </c>
       <c r="M3">
-        <v>0.009498062871192666</v>
+        <v>0.05749181613036456</v>
       </c>
       <c r="N3">
-        <v>-1.103798043039739E-12</v>
+        <v>-7.004112806117876E-12</v>
       </c>
       <c r="O3">
-        <v>2.354263884099541E-10</v>
+        <v>-5.5442146801415E-09</v>
       </c>
       <c r="P3">
-        <v>2.228656452484582E-10</v>
+        <v>-5.604894265485642E-09</v>
       </c>
       <c r="Q3">
-        <v>-1.199940470090711E-05</v>
+        <v>-0.0004396445459386335</v>
       </c>
       <c r="R3">
-        <v>0.008232934378353336</v>
+        <v>0.05007332326997335</v>
       </c>
       <c r="S3">
-        <v>-0.008217334250368687</v>
+        <v>-0.04950172441396002</v>
       </c>
       <c r="T3">
-        <v>5.5705322843194E-12</v>
+        <v>3.370821205349158E-11</v>
       </c>
       <c r="U3">
-        <v>7.929589632605813E-10</v>
+        <v>-3.218545872563012E-09</v>
       </c>
       <c r="V3">
-        <v>-8.002045612157824E-10</v>
+        <v>3.183533890083964E-09</v>
       </c>
       <c r="W3">
-        <v>-2.488251517124412E-06</v>
+        <v>-9.116658775006951E-05</v>
       </c>
       <c r="X3">
-        <v>-0.00228188538197496</v>
+        <v>-0.08625600437650952</v>
       </c>
       <c r="Y3">
-        <v>-0.002449983453996132</v>
+        <v>-0.08711428442518174</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7857,49 +7857,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-90.58548770810728</v>
+        <v>-90.49384464805891</v>
       </c>
       <c r="AD3">
-        <v>-90.58546003585623</v>
+        <v>-90.49384467088038</v>
       </c>
       <c r="AE3">
-        <v>-90.58546003589205</v>
+        <v>-90.49384467089462</v>
       </c>
       <c r="AG3">
-        <v>0.001548323498913697</v>
+        <v>0.009372008713358212</v>
       </c>
       <c r="AH3">
-        <v>0.899249952998503</v>
+        <v>1.734306157173729</v>
       </c>
       <c r="AI3">
-        <v>0.90305055944455</v>
+        <v>1.743825056508643</v>
       </c>
       <c r="AJ3">
-        <v>0.001290229083598253</v>
+        <v>0.007809762144290909</v>
       </c>
       <c r="AK3">
-        <v>0.8994795927505459</v>
+        <v>1.734800540354985</v>
       </c>
       <c r="AL3">
-        <v>0.9027934230354712</v>
+        <v>1.742794196229545</v>
       </c>
       <c r="AM3">
-        <v>101.120878244954</v>
+        <v>101.2125067751397</v>
       </c>
       <c r="AN3">
-        <v>-106.0845030627584</v>
+        <v>-150.4067806995445</v>
       </c>
       <c r="AO3">
-        <v>106.0149852982796</v>
+        <v>149.8606524890491</v>
       </c>
       <c r="AP3">
-        <v>101.1295943550867</v>
+        <v>101.2212225576906</v>
       </c>
       <c r="AQ3">
-        <v>-106.0769979763864</v>
+        <v>-150.3578286295623</v>
       </c>
       <c r="AR3">
-        <v>106.0163951544266</v>
+        <v>149.8992326270603</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -7916,13 +7916,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0008225563775235568</v>
+        <v>0.004978937327956296</v>
       </c>
       <c r="F4">
-        <v>0.0008225563733196015</v>
+        <v>0.00497893732785997</v>
       </c>
       <c r="G4">
-        <v>0.0008225563733194655</v>
+        <v>0.004978937327860779</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -7934,49 +7934,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.00949806291973738</v>
+        <v>0.05749181613147687</v>
       </c>
       <c r="L4">
-        <v>0.009498062871194285</v>
+        <v>0.0574918161303646</v>
       </c>
       <c r="M4">
-        <v>0.009498062871192717</v>
+        <v>0.05749181613037394</v>
       </c>
       <c r="N4">
-        <v>-1.103812436264087E-12</v>
+        <v>-7.00425246565989E-12</v>
       </c>
       <c r="O4">
-        <v>2.354328417060219E-10</v>
+        <v>-5.544210623094285E-09</v>
       </c>
       <c r="P4">
-        <v>2.22862104734844E-10</v>
+        <v>-5.604865690833698E-09</v>
       </c>
       <c r="Q4">
-        <v>-1.199940470089512E-05</v>
+        <v>-0.0004396445459384158</v>
       </c>
       <c r="R4">
-        <v>0.008232934378350975</v>
+        <v>0.05007332326999379</v>
       </c>
       <c r="S4">
-        <v>-0.008217334250367508</v>
+        <v>-0.04950172441398258</v>
       </c>
       <c r="T4">
-        <v>5.570529455032757E-12</v>
+        <v>3.370800333401485E-11</v>
       </c>
       <c r="U4">
-        <v>7.929659689966938E-10</v>
+        <v>-3.218553016226E-09</v>
       </c>
       <c r="V4">
-        <v>-8.001922261543717E-10</v>
+        <v>3.183517299709644E-09</v>
       </c>
       <c r="W4">
-        <v>-2.488251517122053E-06</v>
+        <v>-9.116658775002629E-05</v>
       </c>
       <c r="X4">
-        <v>-0.002281885381983149</v>
+        <v>-0.08625600437647896</v>
       </c>
       <c r="Y4">
-        <v>-0.002449983454000242</v>
+        <v>-0.08711428442518773</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7988,49 +7988,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-90.58548770810786</v>
+        <v>-90.49384464805915</v>
       </c>
       <c r="AD4">
-        <v>-90.58546003579909</v>
+        <v>-90.49384467089934</v>
       </c>
       <c r="AE4">
-        <v>-90.58546003592063</v>
+        <v>-90.4938446708851</v>
       </c>
       <c r="AG4">
-        <v>0.001548323498913371</v>
+        <v>0.00937200871335765</v>
       </c>
       <c r="AH4">
-        <v>0.8992499529985033</v>
+        <v>1.734306157173729</v>
       </c>
       <c r="AI4">
-        <v>0.9030505594445499</v>
+        <v>1.743825056508643</v>
       </c>
       <c r="AJ4">
-        <v>0.001290229083598253</v>
+        <v>0.007809762144290909</v>
       </c>
       <c r="AK4">
-        <v>0.8994795927505459</v>
+        <v>1.734800540354985</v>
       </c>
       <c r="AL4">
-        <v>0.9027934230354712</v>
+        <v>1.742794196229545</v>
       </c>
       <c r="AM4">
-        <v>101.120878244948</v>
+        <v>101.2125067751417</v>
       </c>
       <c r="AN4">
-        <v>-106.0845030627584</v>
+        <v>-150.4067806995445</v>
       </c>
       <c r="AO4">
-        <v>106.0149852982796</v>
+        <v>149.8606524890491</v>
       </c>
       <c r="AP4">
-        <v>101.1295943550867</v>
+        <v>101.2212225576906</v>
       </c>
       <c r="AQ4">
-        <v>-106.0769979763864</v>
+        <v>-150.3578286295623</v>
       </c>
       <c r="AR4">
-        <v>106.0163951544266</v>
+        <v>149.8992326270603</v>
       </c>
     </row>
   </sheetData>
@@ -8185,130 +8185,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0005545524518084998</v>
+        <v>0.01512442908929325</v>
       </c>
       <c r="C2">
-        <v>0.0005545524493797355</v>
+        <v>0.0151244290889859</v>
       </c>
       <c r="D2">
-        <v>0.0005545524493788841</v>
+        <v>0.0151244290889881</v>
       </c>
       <c r="E2">
-        <v>0.0003698177271231886</v>
+        <v>0.01008611892231273</v>
       </c>
       <c r="F2">
-        <v>0.0003698177242868474</v>
+        <v>0.0100861189220152</v>
       </c>
       <c r="G2">
-        <v>0.000369817724285991</v>
+        <v>0.01008611892201679</v>
       </c>
       <c r="H2">
-        <v>0.006403420146628087</v>
+        <v>0.1746418641208573</v>
       </c>
       <c r="I2">
-        <v>0.006403420118583133</v>
+        <v>0.1746418641173084</v>
       </c>
       <c r="J2">
-        <v>0.006403420118573301</v>
+        <v>0.1746418641173338</v>
       </c>
       <c r="K2">
-        <v>0.004270287286113371</v>
+        <v>0.1164644694975167</v>
       </c>
       <c r="L2">
-        <v>0.004270287253362124</v>
+        <v>0.1164644694940811</v>
       </c>
       <c r="M2">
-        <v>0.004270287253352235</v>
+        <v>0.1164644694940994</v>
       </c>
       <c r="N2">
-        <v>0.003505218881474598</v>
+        <v>-0.002296542752050997</v>
       </c>
       <c r="O2">
-        <v>0.002897814781716598</v>
+        <v>0.1541880611790398</v>
       </c>
       <c r="P2">
-        <v>-0.006398123810498969</v>
+        <v>-0.1482379449258122</v>
       </c>
       <c r="Q2">
-        <v>-0.002332346439345865</v>
+        <v>0.002431276962099944</v>
       </c>
       <c r="R2">
-        <v>-0.001936691511378649</v>
+        <v>-0.1021881061776552</v>
       </c>
       <c r="S2">
-        <v>0.004268675937749967</v>
+        <v>0.09948606779767644</v>
       </c>
       <c r="T2">
-        <v>0.00392759405124396</v>
+        <v>-0.002280828293506379</v>
       </c>
       <c r="U2">
-        <v>-0.005346759677863733</v>
+        <v>-0.262219088797597</v>
       </c>
       <c r="V2">
-        <v>0.0007027769436432479</v>
+        <v>-0.2683715629837663</v>
       </c>
       <c r="W2">
-        <v>-0.002622519733167601</v>
+        <v>0.001710417340329398</v>
       </c>
       <c r="X2">
-        <v>0.003562933790193375</v>
+        <v>0.1748980722710921</v>
       </c>
       <c r="Y2">
-        <v>-0.0004619232880024099</v>
+        <v>0.179307779177723</v>
       </c>
       <c r="Z2">
-        <v>-56.94507598990169</v>
+        <v>-91.16544930510123</v>
       </c>
       <c r="AA2">
-        <v>-56.94504830862186</v>
+        <v>-91.16544932798239</v>
       </c>
       <c r="AB2">
-        <v>-56.94504830864048</v>
+        <v>-91.16544932797133</v>
       </c>
       <c r="AC2">
-        <v>122.9677627818625</v>
+        <v>88.74739869227655</v>
       </c>
       <c r="AD2">
-        <v>122.9678042901549</v>
+        <v>88.74739865796072</v>
       </c>
       <c r="AE2">
-        <v>122.9678042901036</v>
+        <v>88.7473986579749</v>
       </c>
       <c r="AG2">
-        <v>0.8221030918888517</v>
+        <v>0.01853340947991</v>
       </c>
       <c r="AH2">
-        <v>0.9497336175040891</v>
+        <v>1.741804924648481</v>
       </c>
       <c r="AI2">
-        <v>1.005182365884334</v>
+        <v>1.755538869128953</v>
       </c>
       <c r="AJ2">
-        <v>0.8218703341958317</v>
+        <v>0.02552407482513902</v>
       </c>
       <c r="AK2">
-        <v>0.9496496879675362</v>
+        <v>1.739268130829978</v>
       </c>
       <c r="AL2">
-        <v>1.005458376787096</v>
+        <v>1.760690942765915</v>
       </c>
       <c r="AM2">
-        <v>-8.692698158235439</v>
+        <v>133.6378507538666</v>
       </c>
       <c r="AN2">
-        <v>-118.4884237755319</v>
+        <v>-150.7093955817433</v>
       </c>
       <c r="AO2">
-        <v>116.7866489320772</v>
+        <v>149.9200087989674</v>
       </c>
       <c r="AP2">
-        <v>-8.680635648008888</v>
+        <v>123.874005766859</v>
       </c>
       <c r="AQ2">
-        <v>-118.5051735594702</v>
+        <v>-150.9560387600217</v>
       </c>
       <c r="AR2">
-        <v>116.7917278486018</v>
+        <v>149.7243920576786</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8325,13 +8325,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001849088632417819</v>
+        <v>0.005043059461002614</v>
       </c>
       <c r="F3">
-        <v>0.000184908862296074</v>
+        <v>0.005043059460903813</v>
       </c>
       <c r="G3">
-        <v>0.0001849088622962231</v>
+        <v>0.005043059460901013</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -8343,49 +8343,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.00213514363936381</v>
+        <v>0.05823223474698297</v>
       </c>
       <c r="L3">
-        <v>0.002135143628443715</v>
+        <v>0.05823223474584212</v>
       </c>
       <c r="M3">
-        <v>0.002135143628445437</v>
+        <v>0.05823223474580979</v>
       </c>
       <c r="N3">
-        <v>5.024034418647833E-10</v>
+        <v>-5.588040917957223E-11</v>
       </c>
       <c r="O3">
-        <v>1.741968237007958E-10</v>
+        <v>-5.620884556644735E-09</v>
       </c>
       <c r="P3">
-        <v>-2.610241174912727E-11</v>
+        <v>-5.768268375931014E-09</v>
       </c>
       <c r="Q3">
-        <v>0.001166173470807053</v>
+        <v>-0.001215638508326342</v>
       </c>
       <c r="R3">
-        <v>0.0009683458427575541</v>
+        <v>0.05109405027736443</v>
       </c>
       <c r="S3">
-        <v>-0.002134337981827535</v>
+        <v>-0.04974303677896792</v>
       </c>
       <c r="T3">
-        <v>-4.546722962284416E-10</v>
+        <v>8.340894966994067E-11</v>
       </c>
       <c r="U3">
-        <v>9.062915216647208E-11</v>
+        <v>-3.284080137113305E-09</v>
       </c>
       <c r="V3">
-        <v>-2.062733143154588E-10</v>
+        <v>3.199060993946703E-09</v>
       </c>
       <c r="W3">
-        <v>0.001311259639175094</v>
+        <v>-0.0008552086313138802</v>
       </c>
       <c r="X3">
-        <v>-0.001781466849674522</v>
+        <v>-0.08744903777579206</v>
       </c>
       <c r="Y3">
-        <v>0.0002309615408411179</v>
+        <v>-0.08965388798837064</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8397,49 +8397,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-57.03222615663805</v>
+        <v>-91.25259947781846</v>
       </c>
       <c r="AD3">
-        <v>-57.03219848442725</v>
+        <v>-91.25259950067695</v>
       </c>
       <c r="AE3">
-        <v>-57.03219848433412</v>
+        <v>-91.25259950071494</v>
       </c>
       <c r="AG3">
-        <v>0.8218238098654673</v>
+        <v>0.0269829551577268</v>
       </c>
       <c r="AH3">
-        <v>0.9496328579593399</v>
+        <v>1.738763182618938</v>
       </c>
       <c r="AI3">
-        <v>1.005513606571278</v>
+        <v>1.761722912673336</v>
       </c>
       <c r="AJ3">
-        <v>0.8218703341958317</v>
+        <v>0.02552407482513902</v>
       </c>
       <c r="AK3">
-        <v>0.9496496879675362</v>
+        <v>1.739268130829978</v>
       </c>
       <c r="AL3">
-        <v>1.005458376787096</v>
+        <v>1.760690942765915</v>
       </c>
       <c r="AM3">
-        <v>-8.678218909625468</v>
+        <v>122.5360299611295</v>
       </c>
       <c r="AN3">
-        <v>-118.5085235783815</v>
+        <v>-151.0054476828048</v>
       </c>
       <c r="AO3">
-        <v>116.7927406174071</v>
+        <v>149.6853681265627</v>
       </c>
       <c r="AP3">
-        <v>-8.680635648008888</v>
+        <v>123.874005766859</v>
       </c>
       <c r="AQ3">
-        <v>-118.5051735594702</v>
+        <v>-150.9560387600217</v>
       </c>
       <c r="AR3">
-        <v>116.7917278486018</v>
+        <v>149.7243920576786</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -8456,13 +8456,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001849088632416099</v>
+        <v>0.005043059461000565</v>
       </c>
       <c r="F4">
-        <v>0.0001849088622962522</v>
+        <v>0.00504305946090137</v>
       </c>
       <c r="G4">
-        <v>0.0001849088622959568</v>
+        <v>0.005043059460900978</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -8474,49 +8474,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.002135143639361823</v>
+        <v>0.05823223474695931</v>
       </c>
       <c r="L4">
-        <v>0.002135143628445773</v>
+        <v>0.0582322347458139</v>
       </c>
       <c r="M4">
-        <v>0.002135143628442363</v>
+        <v>0.05823223474580938</v>
       </c>
       <c r="N4">
-        <v>5.024076206401427E-10</v>
+        <v>-5.588073244912158E-11</v>
       </c>
       <c r="O4">
-        <v>1.741972795680813E-10</v>
+        <v>-5.62089098006634E-09</v>
       </c>
       <c r="P4">
-        <v>-2.610375099277442E-11</v>
+        <v>-5.768259951487302E-09</v>
       </c>
       <c r="Q4">
-        <v>0.00116617347080676</v>
+        <v>-0.00121563850832584</v>
       </c>
       <c r="R4">
-        <v>0.0009683458427560672</v>
+        <v>0.05109405027735484</v>
       </c>
       <c r="S4">
-        <v>-0.002134337981824856</v>
+        <v>-0.04974303677899673</v>
       </c>
       <c r="T4">
-        <v>-4.546707189063156E-10</v>
+        <v>8.340874343861777E-11</v>
       </c>
       <c r="U4">
-        <v>9.063146409903302E-11</v>
+        <v>-3.284102530210666E-09</v>
       </c>
       <c r="V4">
-        <v>-2.062713226442836E-10</v>
+        <v>3.199075402206182E-09</v>
       </c>
       <c r="W4">
-        <v>0.00131125963917317</v>
+        <v>-0.0008552086313135432</v>
       </c>
       <c r="X4">
-        <v>-0.001781466849677554</v>
+        <v>-0.08744903777574083</v>
       </c>
       <c r="Y4">
-        <v>0.0002309615408371346</v>
+        <v>-0.08965388798835382</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8528,49 +8528,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-57.03222615660346</v>
+        <v>-91.25259947781898</v>
       </c>
       <c r="AD4">
-        <v>-57.03219848434943</v>
+        <v>-91.25259950068687</v>
       </c>
       <c r="AE4">
-        <v>-57.03219848443212</v>
+        <v>-91.25259950069629</v>
       </c>
       <c r="AG4">
-        <v>0.8218238098654674</v>
+        <v>0.02698295515772638</v>
       </c>
       <c r="AH4">
-        <v>0.9496328579593399</v>
+        <v>1.738763182618938</v>
       </c>
       <c r="AI4">
-        <v>1.005513606571278</v>
+        <v>1.761722912673336</v>
       </c>
       <c r="AJ4">
-        <v>0.8218703341958317</v>
+        <v>0.02552407482513902</v>
       </c>
       <c r="AK4">
-        <v>0.9496496879675362</v>
+        <v>1.739268130829978</v>
       </c>
       <c r="AL4">
-        <v>1.005458376787096</v>
+        <v>1.760690942765915</v>
       </c>
       <c r="AM4">
-        <v>-8.678218909625469</v>
+        <v>122.5360299611306</v>
       </c>
       <c r="AN4">
-        <v>-118.5085235783815</v>
+        <v>-151.0054476828048</v>
       </c>
       <c r="AO4">
-        <v>116.7927406174071</v>
+        <v>149.6853681265628</v>
       </c>
       <c r="AP4">
-        <v>-8.680635648008888</v>
+        <v>123.874005766859</v>
       </c>
       <c r="AQ4">
-        <v>-118.5051735594702</v>
+        <v>-150.9560387600217</v>
       </c>
       <c r="AR4">
-        <v>116.7917278486018</v>
+        <v>149.7243920576786</v>
       </c>
     </row>
   </sheetData>
@@ -8725,130 +8725,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0005545524518084998</v>
+        <v>0.01512442908929325</v>
       </c>
       <c r="C2">
-        <v>0.0005545524493797355</v>
+        <v>0.0151244290889859</v>
       </c>
       <c r="D2">
-        <v>0.0005545524493788841</v>
+        <v>0.0151244290889881</v>
       </c>
       <c r="E2">
-        <v>0.0003698177271231886</v>
+        <v>0.01008611892231273</v>
       </c>
       <c r="F2">
-        <v>0.0003698177242868474</v>
+        <v>0.0100861189220152</v>
       </c>
       <c r="G2">
-        <v>0.000369817724285991</v>
+        <v>0.01008611892201679</v>
       </c>
       <c r="H2">
-        <v>0.006403420146628087</v>
+        <v>0.1746418641208573</v>
       </c>
       <c r="I2">
-        <v>0.006403420118583133</v>
+        <v>0.1746418641173084</v>
       </c>
       <c r="J2">
-        <v>0.006403420118573301</v>
+        <v>0.1746418641173338</v>
       </c>
       <c r="K2">
-        <v>0.004270287286113371</v>
+        <v>0.1164644694975167</v>
       </c>
       <c r="L2">
-        <v>0.004270287253362124</v>
+        <v>0.1164644694940811</v>
       </c>
       <c r="M2">
-        <v>0.004270287253352235</v>
+        <v>0.1164644694940994</v>
       </c>
       <c r="N2">
-        <v>0.003505218881474598</v>
+        <v>-0.002296542752050997</v>
       </c>
       <c r="O2">
-        <v>0.002897814781716598</v>
+        <v>0.1541880611790398</v>
       </c>
       <c r="P2">
-        <v>-0.006398123810498969</v>
+        <v>-0.1482379449258122</v>
       </c>
       <c r="Q2">
-        <v>-0.002332346439345865</v>
+        <v>0.002431276962099944</v>
       </c>
       <c r="R2">
-        <v>-0.001936691511378649</v>
+        <v>-0.1021881061776552</v>
       </c>
       <c r="S2">
-        <v>0.004268675937749967</v>
+        <v>0.09948606779767644</v>
       </c>
       <c r="T2">
-        <v>0.00392759405124396</v>
+        <v>-0.002280828293506379</v>
       </c>
       <c r="U2">
-        <v>-0.005346759677863733</v>
+        <v>-0.262219088797597</v>
       </c>
       <c r="V2">
-        <v>0.0007027769436432479</v>
+        <v>-0.2683715629837663</v>
       </c>
       <c r="W2">
-        <v>-0.002622519733167601</v>
+        <v>0.001710417340329398</v>
       </c>
       <c r="X2">
-        <v>0.003562933790193375</v>
+        <v>0.1748980722710921</v>
       </c>
       <c r="Y2">
-        <v>-0.0004619232880024099</v>
+        <v>0.179307779177723</v>
       </c>
       <c r="Z2">
-        <v>-56.94507598990169</v>
+        <v>-91.16544930510123</v>
       </c>
       <c r="AA2">
-        <v>-56.94504830862186</v>
+        <v>-91.16544932798239</v>
       </c>
       <c r="AB2">
-        <v>-56.94504830864048</v>
+        <v>-91.16544932797133</v>
       </c>
       <c r="AC2">
-        <v>122.9677627818625</v>
+        <v>88.74739869227655</v>
       </c>
       <c r="AD2">
-        <v>122.9678042901549</v>
+        <v>88.74739865796072</v>
       </c>
       <c r="AE2">
-        <v>122.9678042901036</v>
+        <v>88.7473986579749</v>
       </c>
       <c r="AG2">
-        <v>0.8221030918888517</v>
+        <v>0.01853340947991</v>
       </c>
       <c r="AH2">
-        <v>0.9497336175040891</v>
+        <v>1.741804924648481</v>
       </c>
       <c r="AI2">
-        <v>1.005182365884334</v>
+        <v>1.755538869128953</v>
       </c>
       <c r="AJ2">
-        <v>0.8218703341958317</v>
+        <v>0.02552407482513902</v>
       </c>
       <c r="AK2">
-        <v>0.9496496879675362</v>
+        <v>1.739268130829978</v>
       </c>
       <c r="AL2">
-        <v>1.005458376787096</v>
+        <v>1.760690942765915</v>
       </c>
       <c r="AM2">
-        <v>-8.692698158235439</v>
+        <v>133.6378507538666</v>
       </c>
       <c r="AN2">
-        <v>-118.4884237755319</v>
+        <v>-150.7093955817433</v>
       </c>
       <c r="AO2">
-        <v>116.7866489320772</v>
+        <v>149.9200087989674</v>
       </c>
       <c r="AP2">
-        <v>-8.680635648008888</v>
+        <v>123.874005766859</v>
       </c>
       <c r="AQ2">
-        <v>-118.5051735594702</v>
+        <v>-150.9560387600217</v>
       </c>
       <c r="AR2">
-        <v>116.7917278486018</v>
+        <v>149.7243920576786</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8865,13 +8865,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001849088632417819</v>
+        <v>0.005043059461002614</v>
       </c>
       <c r="F3">
-        <v>0.000184908862296074</v>
+        <v>0.005043059460903813</v>
       </c>
       <c r="G3">
-        <v>0.0001849088622962231</v>
+        <v>0.005043059460901013</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -8883,49 +8883,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.00213514363936381</v>
+        <v>0.05823223474698297</v>
       </c>
       <c r="L3">
-        <v>0.002135143628443715</v>
+        <v>0.05823223474584212</v>
       </c>
       <c r="M3">
-        <v>0.002135143628445437</v>
+        <v>0.05823223474580979</v>
       </c>
       <c r="N3">
-        <v>5.024034418647833E-10</v>
+        <v>-5.588040917957223E-11</v>
       </c>
       <c r="O3">
-        <v>1.741968237007958E-10</v>
+        <v>-5.620884556644735E-09</v>
       </c>
       <c r="P3">
-        <v>-2.610241174912727E-11</v>
+        <v>-5.768268375931014E-09</v>
       </c>
       <c r="Q3">
-        <v>0.001166173470807053</v>
+        <v>-0.001215638508326342</v>
       </c>
       <c r="R3">
-        <v>0.0009683458427575541</v>
+        <v>0.05109405027736443</v>
       </c>
       <c r="S3">
-        <v>-0.002134337981827535</v>
+        <v>-0.04974303677896792</v>
       </c>
       <c r="T3">
-        <v>-4.546722962284416E-10</v>
+        <v>8.340894966994067E-11</v>
       </c>
       <c r="U3">
-        <v>9.062915216647208E-11</v>
+        <v>-3.284080137113305E-09</v>
       </c>
       <c r="V3">
-        <v>-2.062733143154588E-10</v>
+        <v>3.199060993946703E-09</v>
       </c>
       <c r="W3">
-        <v>0.001311259639175094</v>
+        <v>-0.0008552086313138802</v>
       </c>
       <c r="X3">
-        <v>-0.001781466849674522</v>
+        <v>-0.08744903777579206</v>
       </c>
       <c r="Y3">
-        <v>0.0002309615408411179</v>
+        <v>-0.08965388798837064</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8937,49 +8937,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-57.03222615663805</v>
+        <v>-91.25259947781846</v>
       </c>
       <c r="AD3">
-        <v>-57.03219848442725</v>
+        <v>-91.25259950067695</v>
       </c>
       <c r="AE3">
-        <v>-57.03219848433412</v>
+        <v>-91.25259950071494</v>
       </c>
       <c r="AG3">
-        <v>0.8218238098654673</v>
+        <v>0.0269829551577268</v>
       </c>
       <c r="AH3">
-        <v>0.9496328579593399</v>
+        <v>1.738763182618938</v>
       </c>
       <c r="AI3">
-        <v>1.005513606571278</v>
+        <v>1.761722912673336</v>
       </c>
       <c r="AJ3">
-        <v>0.8218703341958317</v>
+        <v>0.02552407482513902</v>
       </c>
       <c r="AK3">
-        <v>0.9496496879675362</v>
+        <v>1.739268130829978</v>
       </c>
       <c r="AL3">
-        <v>1.005458376787096</v>
+        <v>1.760690942765915</v>
       </c>
       <c r="AM3">
-        <v>-8.678218909625468</v>
+        <v>122.5360299611295</v>
       </c>
       <c r="AN3">
-        <v>-118.5085235783815</v>
+        <v>-151.0054476828048</v>
       </c>
       <c r="AO3">
-        <v>116.7927406174071</v>
+        <v>149.6853681265627</v>
       </c>
       <c r="AP3">
-        <v>-8.680635648008888</v>
+        <v>123.874005766859</v>
       </c>
       <c r="AQ3">
-        <v>-118.5051735594702</v>
+        <v>-150.9560387600217</v>
       </c>
       <c r="AR3">
-        <v>116.7917278486018</v>
+        <v>149.7243920576786</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -8996,13 +8996,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001849088632416099</v>
+        <v>0.005043059461000565</v>
       </c>
       <c r="F4">
-        <v>0.0001849088622962522</v>
+        <v>0.00504305946090137</v>
       </c>
       <c r="G4">
-        <v>0.0001849088622959568</v>
+        <v>0.005043059460900978</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -9014,49 +9014,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.002135143639361823</v>
+        <v>0.05823223474695931</v>
       </c>
       <c r="L4">
-        <v>0.002135143628445773</v>
+        <v>0.0582322347458139</v>
       </c>
       <c r="M4">
-        <v>0.002135143628442363</v>
+        <v>0.05823223474580938</v>
       </c>
       <c r="N4">
-        <v>5.024076206401427E-10</v>
+        <v>-5.588073244912158E-11</v>
       </c>
       <c r="O4">
-        <v>1.741972795680813E-10</v>
+        <v>-5.62089098006634E-09</v>
       </c>
       <c r="P4">
-        <v>-2.610375099277442E-11</v>
+        <v>-5.768259951487302E-09</v>
       </c>
       <c r="Q4">
-        <v>0.00116617347080676</v>
+        <v>-0.00121563850832584</v>
       </c>
       <c r="R4">
-        <v>0.0009683458427560672</v>
+        <v>0.05109405027735484</v>
       </c>
       <c r="S4">
-        <v>-0.002134337981824856</v>
+        <v>-0.04974303677899673</v>
       </c>
       <c r="T4">
-        <v>-4.546707189063156E-10</v>
+        <v>8.340874343861777E-11</v>
       </c>
       <c r="U4">
-        <v>9.063146409903302E-11</v>
+        <v>-3.284102530210666E-09</v>
       </c>
       <c r="V4">
-        <v>-2.062713226442836E-10</v>
+        <v>3.199075402206182E-09</v>
       </c>
       <c r="W4">
-        <v>0.00131125963917317</v>
+        <v>-0.0008552086313135432</v>
       </c>
       <c r="X4">
-        <v>-0.001781466849677554</v>
+        <v>-0.08744903777574083</v>
       </c>
       <c r="Y4">
-        <v>0.0002309615408371346</v>
+        <v>-0.08965388798835382</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9068,49 +9068,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-57.03222615660346</v>
+        <v>-91.25259947781898</v>
       </c>
       <c r="AD4">
-        <v>-57.03219848434943</v>
+        <v>-91.25259950068687</v>
       </c>
       <c r="AE4">
-        <v>-57.03219848443212</v>
+        <v>-91.25259950069629</v>
       </c>
       <c r="AG4">
-        <v>0.8218238098654674</v>
+        <v>0.02698295515772638</v>
       </c>
       <c r="AH4">
-        <v>0.9496328579593399</v>
+        <v>1.738763182618938</v>
       </c>
       <c r="AI4">
-        <v>1.005513606571278</v>
+        <v>1.761722912673336</v>
       </c>
       <c r="AJ4">
-        <v>0.8218703341958317</v>
+        <v>0.02552407482513902</v>
       </c>
       <c r="AK4">
-        <v>0.9496496879675362</v>
+        <v>1.739268130829978</v>
       </c>
       <c r="AL4">
-        <v>1.005458376787096</v>
+        <v>1.760690942765915</v>
       </c>
       <c r="AM4">
-        <v>-8.678218909625469</v>
+        <v>122.5360299611306</v>
       </c>
       <c r="AN4">
-        <v>-118.5085235783815</v>
+        <v>-151.0054476828048</v>
       </c>
       <c r="AO4">
-        <v>116.7927406174071</v>
+        <v>149.6853681265628</v>
       </c>
       <c r="AP4">
-        <v>-8.680635648008888</v>
+        <v>123.874005766859</v>
       </c>
       <c r="AQ4">
-        <v>-118.5051735594702</v>
+        <v>-150.9560387600217</v>
       </c>
       <c r="AR4">
-        <v>116.7917278486018</v>
+        <v>149.7243920576786</v>
       </c>
     </row>
   </sheetData>
@@ -9265,97 +9265,97 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.003564755549245564</v>
+        <v>0.008186907069605839</v>
       </c>
       <c r="C2">
-        <v>0.003564756460647145</v>
+        <v>0.008186907977179273</v>
       </c>
       <c r="D2">
-        <v>0.003564754645662494</v>
+        <v>0.008186906162193379</v>
       </c>
       <c r="E2">
-        <v>0.002377251959496745</v>
+        <v>0.0054596565221492</v>
       </c>
       <c r="F2">
-        <v>0.002377252871595166</v>
+        <v>0.005459657429717684</v>
       </c>
       <c r="G2">
-        <v>0.002377251056619348</v>
+        <v>0.00545965561474003</v>
       </c>
       <c r="H2">
-        <v>0.04116225151904277</v>
+        <v>0.09453426000934764</v>
       </c>
       <c r="I2">
-        <v>0.04116226204300174</v>
+        <v>0.09453427048910297</v>
       </c>
       <c r="J2">
-        <v>0.0411622410853642</v>
+        <v>0.09453424953145106</v>
       </c>
       <c r="K2">
-        <v>0.02745014117494022</v>
+        <v>0.06304268325491473</v>
       </c>
       <c r="L2">
-        <v>0.0274501517069456</v>
+        <v>0.06304269373461291</v>
       </c>
       <c r="M2">
-        <v>0.02745013074941006</v>
+        <v>0.06304267277705616</v>
       </c>
       <c r="N2">
-        <v>0.0001057066698174136</v>
+        <v>0.0005575743492103871</v>
       </c>
       <c r="O2">
-        <v>-6.201235707403698E-13</v>
+        <v>-1.850031309876553E-14</v>
       </c>
       <c r="P2">
-        <v>7.38146054617396E-14</v>
+        <v>-3.346153256167758E-14</v>
       </c>
       <c r="Q2">
-        <v>-6.003092388738593E-05</v>
+        <v>-0.0003166582382473052</v>
       </c>
       <c r="R2">
-        <v>2.610043295584181E-05</v>
+        <v>0.0001376663595086515</v>
       </c>
       <c r="S2">
-        <v>2.610041029687977E-05</v>
+        <v>0.0001376663085462554</v>
       </c>
       <c r="T2">
-        <v>-0.02960198863675272</v>
+        <v>-0.1561352995832533</v>
       </c>
       <c r="U2">
-        <v>-2.755513431683588E-13</v>
+        <v>-5.883122122242857E-14</v>
       </c>
       <c r="V2">
-        <v>6.741302359187261E-13</v>
+        <v>2.371401030793932E-14</v>
       </c>
       <c r="W2">
-        <v>0.01975119670885574</v>
+        <v>0.1041774272063505</v>
       </c>
       <c r="X2">
-        <v>1.038606287392943E-05</v>
+        <v>5.478112032915309E-05</v>
       </c>
       <c r="Y2">
-        <v>1.038605185051345E-05</v>
+        <v>5.478109639594845E-05</v>
       </c>
       <c r="Z2">
-        <v>89.7685689623209</v>
+        <v>89.79243341569079</v>
       </c>
       <c r="AA2">
-        <v>89.76855476876958</v>
+        <v>89.79243344965109</v>
       </c>
       <c r="AB2">
-        <v>89.76855465092926</v>
+        <v>89.79243340360598</v>
       </c>
       <c r="AC2">
-        <v>-90.27681886979263</v>
+        <v>-90.25295916631778</v>
       </c>
       <c r="AD2">
-        <v>-90.27684013594889</v>
+        <v>-90.2529591078477</v>
       </c>
       <c r="AE2">
-        <v>-90.27684034728188</v>
+        <v>-90.25295919197502</v>
       </c>
       <c r="AG2">
-        <v>0.7191583618327556</v>
+        <v>1.651637143409925</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -9364,16 +9364,16 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.7195332005927663</v>
+        <v>1.652498007452976</v>
       </c>
       <c r="AK2">
-        <v>0.001023344998731552</v>
+        <v>0.002350239678448605</v>
       </c>
       <c r="AL2">
-        <v>0.001023344864589089</v>
+        <v>0.002350239568289853</v>
       </c>
       <c r="AM2">
-        <v>-0.02683261092832936</v>
+        <v>-0.002958649659200412</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -9382,13 +9382,13 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.1026771183514304</v>
+        <v>-0.0788031594943634</v>
       </c>
       <c r="AQ2">
-        <v>-68.57790308504904</v>
+        <v>-68.55402903749629</v>
       </c>
       <c r="AR2">
-        <v>-68.57790709952496</v>
+        <v>-68.5540304344709</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9405,13 +9405,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.001188625980244517</v>
+        <v>0.002729828261047901</v>
       </c>
       <c r="F3">
-        <v>0.001188626284280058</v>
+        <v>0.00272982856357238</v>
       </c>
       <c r="G3">
-        <v>0.001188625679285931</v>
+        <v>0.002729827958575441</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -9423,49 +9423,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01372507059319909</v>
+        <v>0.03152134162714908</v>
       </c>
       <c r="L3">
-        <v>0.01372507410389912</v>
+        <v>0.03152134512040086</v>
       </c>
       <c r="M3">
-        <v>0.01372506711802868</v>
+        <v>0.03152133813449795</v>
       </c>
       <c r="N3">
-        <v>1.003685862841194E-09</v>
+        <v>-3.349082361706222E-09</v>
       </c>
       <c r="O3">
-        <v>3.083460347381426E-12</v>
+        <v>7.061387714510561E-12</v>
       </c>
       <c r="P3">
-        <v>-4.903185830156534E-12</v>
+        <v>-1.12779901326572E-11</v>
       </c>
       <c r="Q3">
-        <v>3.001596382925918E-05</v>
+        <v>0.0001583274452496828</v>
       </c>
       <c r="R3">
-        <v>-1.305021519295318E-05</v>
+        <v>-6.883317681046435E-05</v>
       </c>
       <c r="S3">
-        <v>-1.30502071910088E-05</v>
+        <v>-6.883315897009286E-05</v>
       </c>
       <c r="T3">
-        <v>-5.977571382118662E-12</v>
+        <v>-1.094743579380946E-11</v>
       </c>
       <c r="U3">
-        <v>3.871960286308184E-12</v>
+        <v>8.895414658993903E-12</v>
       </c>
       <c r="V3">
-        <v>7.391792740642055E-13</v>
+        <v>1.692844999153732E-12</v>
       </c>
       <c r="W3">
-        <v>-0.009875598357024657</v>
+        <v>-0.05208871360775371</v>
       </c>
       <c r="X3">
-        <v>-5.193029823614177E-06</v>
+        <v>-2.73905564581118E-05</v>
       </c>
       <c r="Y3">
-        <v>-5.193025617436779E-06</v>
+        <v>-2.739054749289536E-05</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9477,49 +9477,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>89.72317821845682</v>
+        <v>89.74704267487658</v>
       </c>
       <c r="AD3">
-        <v>89.72316404099253</v>
+        <v>89.74704271381066</v>
       </c>
       <c r="AE3">
-        <v>89.7231639001055</v>
+        <v>89.74704265778317</v>
       </c>
       <c r="AG3">
-        <v>0.7196082432368868</v>
+        <v>1.652670352252591</v>
       </c>
       <c r="AH3">
-        <v>0.001228052660019692</v>
+        <v>0.002820376400364994</v>
       </c>
       <c r="AI3">
-        <v>0.001228052489231205</v>
+        <v>0.002820376253551069</v>
       </c>
       <c r="AJ3">
-        <v>0.7195332005927663</v>
+        <v>1.652498007452976</v>
       </c>
       <c r="AK3">
-        <v>0.001023344998731552</v>
+        <v>0.002350239678448605</v>
       </c>
       <c r="AL3">
-        <v>0.001023344864589089</v>
+        <v>0.002350239568289853</v>
       </c>
       <c r="AM3">
-        <v>-0.1178422374464287</v>
+        <v>-0.09396827939371961</v>
       </c>
       <c r="AN3">
-        <v>-68.58244273393147</v>
+        <v>-68.55856867028827</v>
       </c>
       <c r="AO3">
-        <v>-68.58244695820885</v>
+        <v>-68.55857021677394</v>
       </c>
       <c r="AP3">
-        <v>-0.1026771183514304</v>
+        <v>-0.0788031594943634</v>
       </c>
       <c r="AQ3">
-        <v>-68.57790308504904</v>
+        <v>-68.55402903749629</v>
       </c>
       <c r="AR3">
-        <v>-68.57790709952496</v>
+        <v>-68.5540304344709</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9536,13 +9536,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.001188625980244517</v>
+        <v>0.002729828261047903</v>
       </c>
       <c r="F4">
-        <v>0.001188626284277573</v>
+        <v>0.002729828563569091</v>
       </c>
       <c r="G4">
-        <v>0.001188625679289228</v>
+        <v>0.002729827958578737</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -9554,49 +9554,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01372507059319909</v>
+        <v>0.0315213416271491</v>
       </c>
       <c r="L4">
-        <v>0.01372507410387043</v>
+        <v>0.03152134512036288</v>
       </c>
       <c r="M4">
-        <v>0.01372506711806676</v>
+        <v>0.03152133813453601</v>
       </c>
       <c r="N4">
-        <v>1.003685876862973E-09</v>
+        <v>-3.349090190315116E-09</v>
       </c>
       <c r="O4">
-        <v>3.083455679177019E-12</v>
+        <v>7.061297095039913E-12</v>
       </c>
       <c r="P4">
-        <v>-4.903207492199139E-12</v>
+        <v>-1.127787997822078E-11</v>
       </c>
       <c r="Q4">
-        <v>3.001596382925918E-05</v>
+        <v>0.0001583274452575106</v>
       </c>
       <c r="R4">
-        <v>-1.305021519294734E-05</v>
+        <v>-6.883317681039773E-05</v>
       </c>
       <c r="S4">
-        <v>-1.305020719103073E-05</v>
+        <v>-6.88331589701432E-05</v>
       </c>
       <c r="T4">
-        <v>-5.970753897740362E-12</v>
+        <v>-1.094742295444184E-11</v>
       </c>
       <c r="U4">
-        <v>3.871908465295125E-12</v>
+        <v>8.895206829707066E-12</v>
       </c>
       <c r="V4">
-        <v>7.391707771459688E-13</v>
+        <v>1.693003086969732E-12</v>
       </c>
       <c r="W4">
-        <v>-0.009875598357024657</v>
+        <v>-0.05208871360775372</v>
       </c>
       <c r="X4">
-        <v>-5.193029823549402E-06</v>
+        <v>-2.739055645803778E-05</v>
       </c>
       <c r="Y4">
-        <v>-5.193025617487043E-06</v>
+        <v>-2.739054749301081E-05</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9608,49 +9608,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>89.72317821845682</v>
+        <v>89.74704267486797</v>
       </c>
       <c r="AD4">
-        <v>89.72316404122925</v>
+        <v>89.74704271384478</v>
       </c>
       <c r="AE4">
-        <v>89.72316389994808</v>
+        <v>89.7470426577146</v>
       </c>
       <c r="AG4">
-        <v>0.7196082432368868</v>
+        <v>1.652670352252591</v>
       </c>
       <c r="AH4">
-        <v>0.001228052660019381</v>
+        <v>0.002820376400364643</v>
       </c>
       <c r="AI4">
-        <v>0.001228052489231061</v>
+        <v>0.002820376253551379</v>
       </c>
       <c r="AJ4">
-        <v>0.7195332005927663</v>
+        <v>1.652498007452976</v>
       </c>
       <c r="AK4">
-        <v>0.001023344998731552</v>
+        <v>0.002350239678448605</v>
       </c>
       <c r="AL4">
-        <v>0.001023344864589089</v>
+        <v>0.002350239568289853</v>
       </c>
       <c r="AM4">
-        <v>-0.1178422374464184</v>
+        <v>-0.09396827939372233</v>
       </c>
       <c r="AN4">
-        <v>-68.58244273392579</v>
+        <v>-68.55856867028788</v>
       </c>
       <c r="AO4">
-        <v>-68.58244695821178</v>
+        <v>-68.55857021677642</v>
       </c>
       <c r="AP4">
-        <v>-0.1026771183514304</v>
+        <v>-0.0788031594943634</v>
       </c>
       <c r="AQ4">
-        <v>-68.57790308504904</v>
+        <v>-68.55402903749629</v>
       </c>
       <c r="AR4">
-        <v>-68.57790709952496</v>
+        <v>-68.5540304344709</v>
       </c>
     </row>
   </sheetData>
@@ -9805,97 +9805,97 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.003564755549245564</v>
+        <v>0.008186907069605839</v>
       </c>
       <c r="C2">
-        <v>0.003564756460647145</v>
+        <v>0.008186907977179273</v>
       </c>
       <c r="D2">
-        <v>0.003564754645662494</v>
+        <v>0.008186906162193379</v>
       </c>
       <c r="E2">
-        <v>0.002377251959496745</v>
+        <v>0.0054596565221492</v>
       </c>
       <c r="F2">
-        <v>0.002377252871595166</v>
+        <v>0.005459657429717684</v>
       </c>
       <c r="G2">
-        <v>0.002377251056619348</v>
+        <v>0.00545965561474003</v>
       </c>
       <c r="H2">
-        <v>0.04116225151904277</v>
+        <v>0.09453426000934764</v>
       </c>
       <c r="I2">
-        <v>0.04116226204300174</v>
+        <v>0.09453427048910297</v>
       </c>
       <c r="J2">
-        <v>0.0411622410853642</v>
+        <v>0.09453424953145106</v>
       </c>
       <c r="K2">
-        <v>0.02745014117494022</v>
+        <v>0.06304268325491473</v>
       </c>
       <c r="L2">
-        <v>0.0274501517069456</v>
+        <v>0.06304269373461291</v>
       </c>
       <c r="M2">
-        <v>0.02745013074941006</v>
+        <v>0.06304267277705616</v>
       </c>
       <c r="N2">
-        <v>0.0001057066698174136</v>
+        <v>0.0005575743492103871</v>
       </c>
       <c r="O2">
-        <v>-6.201235707403698E-13</v>
+        <v>-1.850031309876553E-14</v>
       </c>
       <c r="P2">
-        <v>7.38146054617396E-14</v>
+        <v>-3.346153256167758E-14</v>
       </c>
       <c r="Q2">
-        <v>-6.003092388738593E-05</v>
+        <v>-0.0003166582382473052</v>
       </c>
       <c r="R2">
-        <v>2.610043295584181E-05</v>
+        <v>0.0001376663595086515</v>
       </c>
       <c r="S2">
-        <v>2.610041029687977E-05</v>
+        <v>0.0001376663085462554</v>
       </c>
       <c r="T2">
-        <v>-0.02960198863675272</v>
+        <v>-0.1561352995832533</v>
       </c>
       <c r="U2">
-        <v>-2.755513431683588E-13</v>
+        <v>-5.883122122242857E-14</v>
       </c>
       <c r="V2">
-        <v>6.741302359187261E-13</v>
+        <v>2.371401030793932E-14</v>
       </c>
       <c r="W2">
-        <v>0.01975119670885574</v>
+        <v>0.1041774272063505</v>
       </c>
       <c r="X2">
-        <v>1.038606287392943E-05</v>
+        <v>5.478112032915309E-05</v>
       </c>
       <c r="Y2">
-        <v>1.038605185051345E-05</v>
+        <v>5.478109639594845E-05</v>
       </c>
       <c r="Z2">
-        <v>89.7685689623209</v>
+        <v>89.79243341569079</v>
       </c>
       <c r="AA2">
-        <v>89.76855476876958</v>
+        <v>89.79243344965109</v>
       </c>
       <c r="AB2">
-        <v>89.76855465092926</v>
+        <v>89.79243340360598</v>
       </c>
       <c r="AC2">
-        <v>-90.27681886979263</v>
+        <v>-90.25295916631778</v>
       </c>
       <c r="AD2">
-        <v>-90.27684013594889</v>
+        <v>-90.2529591078477</v>
       </c>
       <c r="AE2">
-        <v>-90.27684034728188</v>
+        <v>-90.25295919197502</v>
       </c>
       <c r="AG2">
-        <v>0.7191583618327556</v>
+        <v>1.651637143409925</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -9904,16 +9904,16 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.7195332005927663</v>
+        <v>1.652498007452976</v>
       </c>
       <c r="AK2">
-        <v>0.001023344998731552</v>
+        <v>0.002350239678448605</v>
       </c>
       <c r="AL2">
-        <v>0.001023344864589089</v>
+        <v>0.002350239568289853</v>
       </c>
       <c r="AM2">
-        <v>-0.02683261092832936</v>
+        <v>-0.002958649659200412</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -9922,13 +9922,13 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.1026771183514304</v>
+        <v>-0.0788031594943634</v>
       </c>
       <c r="AQ2">
-        <v>-68.57790308504904</v>
+        <v>-68.55402903749629</v>
       </c>
       <c r="AR2">
-        <v>-68.57790709952496</v>
+        <v>-68.5540304344709</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9945,13 +9945,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.001188625980244517</v>
+        <v>0.002729828261047901</v>
       </c>
       <c r="F3">
-        <v>0.001188626284280058</v>
+        <v>0.00272982856357238</v>
       </c>
       <c r="G3">
-        <v>0.001188625679285931</v>
+        <v>0.002729827958575441</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -9963,49 +9963,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01372507059319909</v>
+        <v>0.03152134162714908</v>
       </c>
       <c r="L3">
-        <v>0.01372507410389912</v>
+        <v>0.03152134512040086</v>
       </c>
       <c r="M3">
-        <v>0.01372506711802868</v>
+        <v>0.03152133813449795</v>
       </c>
       <c r="N3">
-        <v>1.003685862841194E-09</v>
+        <v>-3.349082361706222E-09</v>
       </c>
       <c r="O3">
-        <v>3.083460347381426E-12</v>
+        <v>7.061387714510561E-12</v>
       </c>
       <c r="P3">
-        <v>-4.903185830156534E-12</v>
+        <v>-1.12779901326572E-11</v>
       </c>
       <c r="Q3">
-        <v>3.001596382925918E-05</v>
+        <v>0.0001583274452496828</v>
       </c>
       <c r="R3">
-        <v>-1.305021519295318E-05</v>
+        <v>-6.883317681046435E-05</v>
       </c>
       <c r="S3">
-        <v>-1.30502071910088E-05</v>
+        <v>-6.883315897009286E-05</v>
       </c>
       <c r="T3">
-        <v>-5.977571382118662E-12</v>
+        <v>-1.094743579380946E-11</v>
       </c>
       <c r="U3">
-        <v>3.871960286308184E-12</v>
+        <v>8.895414658993903E-12</v>
       </c>
       <c r="V3">
-        <v>7.391792740642055E-13</v>
+        <v>1.692844999153732E-12</v>
       </c>
       <c r="W3">
-        <v>-0.009875598357024657</v>
+        <v>-0.05208871360775371</v>
       </c>
       <c r="X3">
-        <v>-5.193029823614177E-06</v>
+        <v>-2.73905564581118E-05</v>
       </c>
       <c r="Y3">
-        <v>-5.193025617436779E-06</v>
+        <v>-2.739054749289536E-05</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10017,49 +10017,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>89.72317821845682</v>
+        <v>89.74704267487658</v>
       </c>
       <c r="AD3">
-        <v>89.72316404099253</v>
+        <v>89.74704271381066</v>
       </c>
       <c r="AE3">
-        <v>89.7231639001055</v>
+        <v>89.74704265778317</v>
       </c>
       <c r="AG3">
-        <v>0.7196082432368868</v>
+        <v>1.652670352252591</v>
       </c>
       <c r="AH3">
-        <v>0.001228052660019692</v>
+        <v>0.002820376400364994</v>
       </c>
       <c r="AI3">
-        <v>0.001228052489231205</v>
+        <v>0.002820376253551069</v>
       </c>
       <c r="AJ3">
-        <v>0.7195332005927663</v>
+        <v>1.652498007452976</v>
       </c>
       <c r="AK3">
-        <v>0.001023344998731552</v>
+        <v>0.002350239678448605</v>
       </c>
       <c r="AL3">
-        <v>0.001023344864589089</v>
+        <v>0.002350239568289853</v>
       </c>
       <c r="AM3">
-        <v>-0.1178422374464287</v>
+        <v>-0.09396827939371961</v>
       </c>
       <c r="AN3">
-        <v>-68.58244273393147</v>
+        <v>-68.55856867028827</v>
       </c>
       <c r="AO3">
-        <v>-68.58244695820885</v>
+        <v>-68.55857021677394</v>
       </c>
       <c r="AP3">
-        <v>-0.1026771183514304</v>
+        <v>-0.0788031594943634</v>
       </c>
       <c r="AQ3">
-        <v>-68.57790308504904</v>
+        <v>-68.55402903749629</v>
       </c>
       <c r="AR3">
-        <v>-68.57790709952496</v>
+        <v>-68.5540304344709</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10076,13 +10076,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.001188625980244517</v>
+        <v>0.002729828261047903</v>
       </c>
       <c r="F4">
-        <v>0.001188626284277573</v>
+        <v>0.002729828563569091</v>
       </c>
       <c r="G4">
-        <v>0.001188625679289228</v>
+        <v>0.002729827958578737</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -10094,49 +10094,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01372507059319909</v>
+        <v>0.0315213416271491</v>
       </c>
       <c r="L4">
-        <v>0.01372507410387043</v>
+        <v>0.03152134512036288</v>
       </c>
       <c r="M4">
-        <v>0.01372506711806676</v>
+        <v>0.03152133813453601</v>
       </c>
       <c r="N4">
-        <v>1.003685876862973E-09</v>
+        <v>-3.349090190315116E-09</v>
       </c>
       <c r="O4">
-        <v>3.083455679177019E-12</v>
+        <v>7.061297095039913E-12</v>
       </c>
       <c r="P4">
-        <v>-4.903207492199139E-12</v>
+        <v>-1.127787997822078E-11</v>
       </c>
       <c r="Q4">
-        <v>3.001596382925918E-05</v>
+        <v>0.0001583274452575106</v>
       </c>
       <c r="R4">
-        <v>-1.305021519294734E-05</v>
+        <v>-6.883317681039773E-05</v>
       </c>
       <c r="S4">
-        <v>-1.305020719103073E-05</v>
+        <v>-6.88331589701432E-05</v>
       </c>
       <c r="T4">
-        <v>-5.970753897740362E-12</v>
+        <v>-1.094742295444184E-11</v>
       </c>
       <c r="U4">
-        <v>3.871908465295125E-12</v>
+        <v>8.895206829707066E-12</v>
       </c>
       <c r="V4">
-        <v>7.391707771459688E-13</v>
+        <v>1.693003086969732E-12</v>
       </c>
       <c r="W4">
-        <v>-0.009875598357024657</v>
+        <v>-0.05208871360775372</v>
       </c>
       <c r="X4">
-        <v>-5.193029823549402E-06</v>
+        <v>-2.739055645803778E-05</v>
       </c>
       <c r="Y4">
-        <v>-5.193025617487043E-06</v>
+        <v>-2.739054749301081E-05</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10148,49 +10148,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>89.72317821845682</v>
+        <v>89.74704267486797</v>
       </c>
       <c r="AD4">
-        <v>89.72316404122925</v>
+        <v>89.74704271384478</v>
       </c>
       <c r="AE4">
-        <v>89.72316389994808</v>
+        <v>89.7470426577146</v>
       </c>
       <c r="AG4">
-        <v>0.7196082432368868</v>
+        <v>1.652670352252591</v>
       </c>
       <c r="AH4">
-        <v>0.001228052660019381</v>
+        <v>0.002820376400364643</v>
       </c>
       <c r="AI4">
-        <v>0.001228052489231061</v>
+        <v>0.002820376253551379</v>
       </c>
       <c r="AJ4">
-        <v>0.7195332005927663</v>
+        <v>1.652498007452976</v>
       </c>
       <c r="AK4">
-        <v>0.001023344998731552</v>
+        <v>0.002350239678448605</v>
       </c>
       <c r="AL4">
-        <v>0.001023344864589089</v>
+        <v>0.002350239568289853</v>
       </c>
       <c r="AM4">
-        <v>-0.1178422374464184</v>
+        <v>-0.09396827939372233</v>
       </c>
       <c r="AN4">
-        <v>-68.58244273392579</v>
+        <v>-68.55856867028788</v>
       </c>
       <c r="AO4">
-        <v>-68.58244695821178</v>
+        <v>-68.55857021677642</v>
       </c>
       <c r="AP4">
-        <v>-0.1026771183514304</v>
+        <v>-0.0788031594943634</v>
       </c>
       <c r="AQ4">
-        <v>-68.57790308504904</v>
+        <v>-68.55402903749629</v>
       </c>
       <c r="AR4">
-        <v>-68.57790709952496</v>
+        <v>-68.5540304344709</v>
       </c>
     </row>
   </sheetData>
@@ -10345,130 +10345,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0005984907094291725</v>
+        <v>0.008239580030493538</v>
       </c>
       <c r="C2">
-        <v>0.0005984909448966604</v>
+        <v>0.008239580228146224</v>
       </c>
       <c r="D2">
-        <v>0.0005984904752738032</v>
+        <v>0.008239579832997593</v>
       </c>
       <c r="E2">
-        <v>0.0003991194324761631</v>
+        <v>0.005494782885744582</v>
       </c>
       <c r="F2">
-        <v>0.0003991196680718987</v>
+        <v>0.00549478308329487</v>
       </c>
       <c r="G2">
-        <v>0.0003991191984274258</v>
+        <v>0.005494782688349379</v>
       </c>
       <c r="H2">
-        <v>0.006910775443928458</v>
+        <v>0.09514247497229818</v>
       </c>
       <c r="I2">
-        <v>0.006910778162872807</v>
+        <v>0.09514247725459481</v>
       </c>
       <c r="J2">
-        <v>0.006910772740135147</v>
+        <v>0.09514247269181145</v>
       </c>
       <c r="K2">
-        <v>0.004608634235578469</v>
+        <v>0.06344828756446366</v>
       </c>
       <c r="L2">
-        <v>0.004608636956003697</v>
+        <v>0.0634482898455779</v>
       </c>
       <c r="M2">
-        <v>0.004608631533016439</v>
+        <v>0.06344828528514018</v>
       </c>
       <c r="N2">
-        <v>-0.004425994830959835</v>
+        <v>0.0012452450867127</v>
       </c>
       <c r="O2">
-        <v>-0.001435907761962171</v>
+        <v>-0.07123830986069465</v>
       </c>
       <c r="P2">
-        <v>0.005864877941904825</v>
+        <v>0.07055783381832323</v>
       </c>
       <c r="Q2">
-        <v>0.002949294616737715</v>
+        <v>-0.0007741791150899099</v>
       </c>
       <c r="R2">
-        <v>0.0009615770675685687</v>
+        <v>0.04765265767257976</v>
       </c>
       <c r="S2">
-        <v>-0.003911088144825757</v>
+        <v>-0.04692033456571555</v>
       </c>
       <c r="T2">
-        <v>-0.005740201063502056</v>
+        <v>-0.1574728119343549</v>
       </c>
       <c r="U2">
-        <v>0.006185520399128661</v>
+        <v>0.01148654558402763</v>
       </c>
       <c r="V2">
-        <v>-0.001279719136550724</v>
+        <v>-0.01216458154692325</v>
       </c>
       <c r="W2">
-        <v>0.003830635314776243</v>
+        <v>0.1050697264285941</v>
       </c>
       <c r="X2">
-        <v>-0.004123926711121574</v>
+        <v>-0.00756698038264207</v>
       </c>
       <c r="Y2">
-        <v>0.0008506083052767427</v>
+        <v>0.008130481690849936</v>
       </c>
       <c r="Z2">
-        <v>125.5870783600537</v>
+        <v>89.41855403738134</v>
       </c>
       <c r="AA2">
-        <v>125.5870628075487</v>
+        <v>89.41855493572672</v>
       </c>
       <c r="AB2">
-        <v>125.587065407682</v>
+        <v>89.41855316094642</v>
       </c>
       <c r="AC2">
-        <v>-54.45830947209221</v>
+        <v>-90.62683854462067</v>
       </c>
       <c r="AD2">
-        <v>-54.45833276664237</v>
+        <v>-90.6268371959072</v>
       </c>
       <c r="AE2">
-        <v>-54.45832892103279</v>
+        <v>-90.62683986049458</v>
       </c>
       <c r="AG2">
-        <v>1.048855159236944</v>
+        <v>1.655178041195342</v>
       </c>
       <c r="AH2">
-        <v>0.9188544842536349</v>
+        <v>0.7584248560336432</v>
       </c>
       <c r="AI2">
-        <v>0.8686253187741871</v>
+        <v>0.7525427456209545</v>
       </c>
       <c r="AJ2">
-        <v>1.049002875609167</v>
+        <v>1.656034900113864</v>
       </c>
       <c r="AK2">
-        <v>0.9188288545513594</v>
+        <v>0.7604572934475627</v>
       </c>
       <c r="AL2">
-        <v>0.8684828240027836</v>
+        <v>0.7505255680234639</v>
       </c>
       <c r="AM2">
-        <v>-2.0470217046344</v>
+        <v>-0.1283785412765808</v>
       </c>
       <c r="AN2">
-        <v>-131.3437653417182</v>
+        <v>-99.74104502735858</v>
       </c>
       <c r="AO2">
-        <v>113.278029361874</v>
+        <v>79.63658949106463</v>
       </c>
       <c r="AP2">
-        <v>-2.051814465745658</v>
+        <v>-0.204677045934177</v>
       </c>
       <c r="AQ2">
-        <v>-131.3331717081928</v>
+        <v>-99.64975598424857</v>
       </c>
       <c r="AR2">
-        <v>113.2716972026113</v>
+        <v>79.54241332959965</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -10485,13 +10485,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001995597163215298</v>
+        <v>0.002747391442843794</v>
       </c>
       <c r="F3">
-        <v>0.0001995597948537349</v>
+        <v>0.002747391508698261</v>
       </c>
       <c r="G3">
-        <v>0.0001995596383051765</v>
+        <v>0.002747391377047608</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -10503,49 +10503,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.002304317118752812</v>
+        <v>0.03172414378190278</v>
       </c>
       <c r="L3">
-        <v>0.002304318025564606</v>
+        <v>0.03172414454232466</v>
       </c>
       <c r="M3">
-        <v>0.002304316217897561</v>
+        <v>0.03172414302215387</v>
       </c>
       <c r="N3">
-        <v>1.933284295256014E-10</v>
+        <v>-3.377759171179344E-09</v>
       </c>
       <c r="O3">
-        <v>5.381452453057972E-10</v>
+        <v>7.542663497158637E-10</v>
       </c>
       <c r="P3">
-        <v>7.131807186032513E-10</v>
+        <v>2.382213218363286E-10</v>
       </c>
       <c r="Q3">
-        <v>-0.001474647211653196</v>
+        <v>0.0003870878693390788</v>
       </c>
       <c r="R3">
-        <v>-0.000480788264730579</v>
+        <v>-0.02382632845864755</v>
       </c>
       <c r="S3">
-        <v>0.001955544428972748</v>
+        <v>0.02346016740180843</v>
       </c>
       <c r="T3">
-        <v>-1.51559379950799E-10</v>
+        <v>-2.569649062798954E-11</v>
       </c>
       <c r="U3">
-        <v>-7.281246247792785E-10</v>
+        <v>1.068114389540933E-09</v>
       </c>
       <c r="V3">
-        <v>-4.104645607361188E-10</v>
+        <v>-1.963959436358074E-09</v>
       </c>
       <c r="W3">
-        <v>-0.001915317733127419</v>
+        <v>-0.05253486322619116</v>
       </c>
       <c r="X3">
-        <v>0.00206196299143247</v>
+        <v>0.003783490724654332</v>
       </c>
       <c r="Y3">
-        <v>-0.0004253043578389475</v>
+        <v>-0.004065241827531998</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10557,49 +10557,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>125.5416876162529</v>
+        <v>89.37316329656541</v>
       </c>
       <c r="AD3">
-        <v>125.5416720864664</v>
+        <v>89.37316419572008</v>
       </c>
       <c r="AE3">
-        <v>125.5416746501832</v>
+        <v>89.3731624192625</v>
       </c>
       <c r="AG3">
-        <v>1.049032417001942</v>
+        <v>1.656206446969119</v>
       </c>
       <c r="AH3">
-        <v>0.9188237475660189</v>
+        <v>0.7608642034990368</v>
       </c>
       <c r="AI3">
-        <v>0.8684543118125684</v>
+        <v>0.7501221828012141</v>
       </c>
       <c r="AJ3">
-        <v>1.049002875609167</v>
+        <v>1.656034900113864</v>
       </c>
       <c r="AK3">
-        <v>0.9188288545513594</v>
+        <v>0.7604572934475627</v>
       </c>
       <c r="AL3">
-        <v>0.8684828240027836</v>
+        <v>0.7505255680234639</v>
       </c>
       <c r="AM3">
-        <v>-2.052773804081472</v>
+        <v>-0.2199329705516802</v>
       </c>
       <c r="AN3">
-        <v>-131.3310523584836</v>
+        <v>-99.63156784003763</v>
       </c>
       <c r="AO3">
-        <v>113.2704311761425</v>
+        <v>79.52352840033861</v>
       </c>
       <c r="AP3">
-        <v>-2.051814465745658</v>
+        <v>-0.204677045934177</v>
       </c>
       <c r="AQ3">
-        <v>-131.3331717081928</v>
+        <v>-99.64975598424857</v>
       </c>
       <c r="AR3">
-        <v>113.2716972026113</v>
+        <v>79.54241332959965</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10616,13 +10616,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001995597163215775</v>
+        <v>0.002747391442845448</v>
       </c>
       <c r="F4">
-        <v>0.0001995597948535442</v>
+        <v>0.002747391508696629</v>
       </c>
       <c r="G4">
-        <v>0.0001995596383048784</v>
+        <v>0.002747391377047594</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -10634,49 +10634,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.002304317118753363</v>
+        <v>0.03172414378192188</v>
       </c>
       <c r="L4">
-        <v>0.002304318025562405</v>
+        <v>0.03172414454230581</v>
       </c>
       <c r="M4">
-        <v>0.002304316217894118</v>
+        <v>0.03172414302215371</v>
       </c>
       <c r="N4">
-        <v>1.933261245094955E-10</v>
+        <v>-3.377766956261668E-09</v>
       </c>
       <c r="O4">
-        <v>5.381391026648498E-10</v>
+        <v>7.542533422700347E-10</v>
       </c>
       <c r="P4">
-        <v>7.131903085080831E-10</v>
+        <v>2.382112222129625E-10</v>
       </c>
       <c r="Q4">
-        <v>-0.001474647211650802</v>
+        <v>0.0003870878693625002</v>
       </c>
       <c r="R4">
-        <v>-0.0004807882647182937</v>
+        <v>-0.02382632845863455</v>
       </c>
       <c r="S4">
-        <v>0.001955544428970716</v>
+        <v>0.0234601674018065</v>
       </c>
       <c r="T4">
-        <v>-1.515543249253495E-10</v>
+        <v>-2.568076988931745E-11</v>
       </c>
       <c r="U4">
-        <v>-7.28125018663143E-10</v>
+        <v>1.068123908373494E-09</v>
       </c>
       <c r="V4">
-        <v>-4.104660341854238E-10</v>
+        <v>-1.963935887605556E-09</v>
       </c>
       <c r="W4">
-        <v>-0.001915317733129991</v>
+        <v>-0.05253486322622262</v>
       </c>
       <c r="X4">
-        <v>0.002061962991433257</v>
+        <v>0.003783490724644815</v>
       </c>
       <c r="Y4">
-        <v>-0.0004253043578342235</v>
+        <v>-0.004065241827542487</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10688,49 +10688,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>125.5416876161707</v>
+        <v>89.37316329654011</v>
       </c>
       <c r="AD4">
-        <v>125.5416720867951</v>
+        <v>89.3731641957026</v>
       </c>
       <c r="AE4">
-        <v>125.5416746500634</v>
+        <v>89.37316241928818</v>
       </c>
       <c r="AG4">
-        <v>1.049032417001942</v>
+        <v>1.65620644696912</v>
       </c>
       <c r="AH4">
-        <v>0.9188237475660188</v>
+        <v>0.7608642034990368</v>
       </c>
       <c r="AI4">
-        <v>0.8684543118125685</v>
+        <v>0.750122182801214</v>
       </c>
       <c r="AJ4">
-        <v>1.049002875609167</v>
+        <v>1.656034900113864</v>
       </c>
       <c r="AK4">
-        <v>0.9188288545513594</v>
+        <v>0.7604572934475627</v>
       </c>
       <c r="AL4">
-        <v>0.8684828240027836</v>
+        <v>0.7505255680234639</v>
       </c>
       <c r="AM4">
-        <v>-2.052773804081469</v>
+        <v>-0.2199329705516848</v>
       </c>
       <c r="AN4">
-        <v>-131.3310523584836</v>
+        <v>-99.63156784003763</v>
       </c>
       <c r="AO4">
-        <v>113.2704311761425</v>
+        <v>79.52352840033859</v>
       </c>
       <c r="AP4">
-        <v>-2.051814465745658</v>
+        <v>-0.204677045934177</v>
       </c>
       <c r="AQ4">
-        <v>-131.3331717081928</v>
+        <v>-99.64975598424857</v>
       </c>
       <c r="AR4">
-        <v>113.2716972026113</v>
+        <v>79.54241332959965</v>
       </c>
     </row>
   </sheetData>
@@ -10885,130 +10885,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0005984907094291725</v>
+        <v>0.008239580030493538</v>
       </c>
       <c r="C2">
-        <v>0.0005984909448966604</v>
+        <v>0.008239580228146224</v>
       </c>
       <c r="D2">
-        <v>0.0005984904752738032</v>
+        <v>0.008239579832997593</v>
       </c>
       <c r="E2">
-        <v>0.0003991194324761631</v>
+        <v>0.005494782885744582</v>
       </c>
       <c r="F2">
-        <v>0.0003991196680718987</v>
+        <v>0.00549478308329487</v>
       </c>
       <c r="G2">
-        <v>0.0003991191984274258</v>
+        <v>0.005494782688349379</v>
       </c>
       <c r="H2">
-        <v>0.006910775443928458</v>
+        <v>0.09514247497229818</v>
       </c>
       <c r="I2">
-        <v>0.006910778162872807</v>
+        <v>0.09514247725459481</v>
       </c>
       <c r="J2">
-        <v>0.006910772740135147</v>
+        <v>0.09514247269181145</v>
       </c>
       <c r="K2">
-        <v>0.004608634235578469</v>
+        <v>0.06344828756446366</v>
       </c>
       <c r="L2">
-        <v>0.004608636956003697</v>
+        <v>0.0634482898455779</v>
       </c>
       <c r="M2">
-        <v>0.004608631533016439</v>
+        <v>0.06344828528514018</v>
       </c>
       <c r="N2">
-        <v>-0.004425994830959835</v>
+        <v>0.0012452450867127</v>
       </c>
       <c r="O2">
-        <v>-0.001435907761962171</v>
+        <v>-0.07123830986069465</v>
       </c>
       <c r="P2">
-        <v>0.005864877941904825</v>
+        <v>0.07055783381832323</v>
       </c>
       <c r="Q2">
-        <v>0.002949294616737715</v>
+        <v>-0.0007741791150899099</v>
       </c>
       <c r="R2">
-        <v>0.0009615770675685687</v>
+        <v>0.04765265767257976</v>
       </c>
       <c r="S2">
-        <v>-0.003911088144825757</v>
+        <v>-0.04692033456571555</v>
       </c>
       <c r="T2">
-        <v>-0.005740201063502056</v>
+        <v>-0.1574728119343549</v>
       </c>
       <c r="U2">
-        <v>0.006185520399128661</v>
+        <v>0.01148654558402763</v>
       </c>
       <c r="V2">
-        <v>-0.001279719136550724</v>
+        <v>-0.01216458154692325</v>
       </c>
       <c r="W2">
-        <v>0.003830635314776243</v>
+        <v>0.1050697264285941</v>
       </c>
       <c r="X2">
-        <v>-0.004123926711121574</v>
+        <v>-0.00756698038264207</v>
       </c>
       <c r="Y2">
-        <v>0.0008506083052767427</v>
+        <v>0.008130481690849936</v>
       </c>
       <c r="Z2">
-        <v>125.5870783600537</v>
+        <v>89.41855403738134</v>
       </c>
       <c r="AA2">
-        <v>125.5870628075487</v>
+        <v>89.41855493572672</v>
       </c>
       <c r="AB2">
-        <v>125.587065407682</v>
+        <v>89.41855316094642</v>
       </c>
       <c r="AC2">
-        <v>-54.45830947209221</v>
+        <v>-90.62683854462067</v>
       </c>
       <c r="AD2">
-        <v>-54.45833276664237</v>
+        <v>-90.6268371959072</v>
       </c>
       <c r="AE2">
-        <v>-54.45832892103279</v>
+        <v>-90.62683986049458</v>
       </c>
       <c r="AG2">
-        <v>1.048855159236944</v>
+        <v>1.655178041195342</v>
       </c>
       <c r="AH2">
-        <v>0.9188544842536349</v>
+        <v>0.7584248560336432</v>
       </c>
       <c r="AI2">
-        <v>0.8686253187741871</v>
+        <v>0.7525427456209545</v>
       </c>
       <c r="AJ2">
-        <v>1.049002875609167</v>
+        <v>1.656034900113864</v>
       </c>
       <c r="AK2">
-        <v>0.9188288545513594</v>
+        <v>0.7604572934475627</v>
       </c>
       <c r="AL2">
-        <v>0.8684828240027836</v>
+        <v>0.7505255680234639</v>
       </c>
       <c r="AM2">
-        <v>-2.0470217046344</v>
+        <v>-0.1283785412765808</v>
       </c>
       <c r="AN2">
-        <v>-131.3437653417182</v>
+        <v>-99.74104502735858</v>
       </c>
       <c r="AO2">
-        <v>113.278029361874</v>
+        <v>79.63658949106463</v>
       </c>
       <c r="AP2">
-        <v>-2.051814465745658</v>
+        <v>-0.204677045934177</v>
       </c>
       <c r="AQ2">
-        <v>-131.3331717081928</v>
+        <v>-99.64975598424857</v>
       </c>
       <c r="AR2">
-        <v>113.2716972026113</v>
+        <v>79.54241332959965</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11025,13 +11025,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001995597163215298</v>
+        <v>0.002747391442843794</v>
       </c>
       <c r="F3">
-        <v>0.0001995597948537349</v>
+        <v>0.002747391508698261</v>
       </c>
       <c r="G3">
-        <v>0.0001995596383051765</v>
+        <v>0.002747391377047608</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -11043,49 +11043,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.002304317118752812</v>
+        <v>0.03172414378190278</v>
       </c>
       <c r="L3">
-        <v>0.002304318025564606</v>
+        <v>0.03172414454232466</v>
       </c>
       <c r="M3">
-        <v>0.002304316217897561</v>
+        <v>0.03172414302215387</v>
       </c>
       <c r="N3">
-        <v>1.933284295256014E-10</v>
+        <v>-3.377759171179344E-09</v>
       </c>
       <c r="O3">
-        <v>5.381452453057972E-10</v>
+        <v>7.542663497158637E-10</v>
       </c>
       <c r="P3">
-        <v>7.131807186032513E-10</v>
+        <v>2.382213218363286E-10</v>
       </c>
       <c r="Q3">
-        <v>-0.001474647211653196</v>
+        <v>0.0003870878693390788</v>
       </c>
       <c r="R3">
-        <v>-0.000480788264730579</v>
+        <v>-0.02382632845864755</v>
       </c>
       <c r="S3">
-        <v>0.001955544428972748</v>
+        <v>0.02346016740180843</v>
       </c>
       <c r="T3">
-        <v>-1.51559379950799E-10</v>
+        <v>-2.569649062798954E-11</v>
       </c>
       <c r="U3">
-        <v>-7.281246247792785E-10</v>
+        <v>1.068114389540933E-09</v>
       </c>
       <c r="V3">
-        <v>-4.104645607361188E-10</v>
+        <v>-1.963959436358074E-09</v>
       </c>
       <c r="W3">
-        <v>-0.001915317733127419</v>
+        <v>-0.05253486322619116</v>
       </c>
       <c r="X3">
-        <v>0.00206196299143247</v>
+        <v>0.003783490724654332</v>
       </c>
       <c r="Y3">
-        <v>-0.0004253043578389475</v>
+        <v>-0.004065241827531998</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11097,49 +11097,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>125.5416876162529</v>
+        <v>89.37316329656541</v>
       </c>
       <c r="AD3">
-        <v>125.5416720864664</v>
+        <v>89.37316419572008</v>
       </c>
       <c r="AE3">
-        <v>125.5416746501832</v>
+        <v>89.3731624192625</v>
       </c>
       <c r="AG3">
-        <v>1.049032417001942</v>
+        <v>1.656206446969119</v>
       </c>
       <c r="AH3">
-        <v>0.9188237475660189</v>
+        <v>0.7608642034990368</v>
       </c>
       <c r="AI3">
-        <v>0.8684543118125684</v>
+        <v>0.7501221828012141</v>
       </c>
       <c r="AJ3">
-        <v>1.049002875609167</v>
+        <v>1.656034900113864</v>
       </c>
       <c r="AK3">
-        <v>0.9188288545513594</v>
+        <v>0.7604572934475627</v>
       </c>
       <c r="AL3">
-        <v>0.8684828240027836</v>
+        <v>0.7505255680234639</v>
       </c>
       <c r="AM3">
-        <v>-2.052773804081472</v>
+        <v>-0.2199329705516802</v>
       </c>
       <c r="AN3">
-        <v>-131.3310523584836</v>
+        <v>-99.63156784003763</v>
       </c>
       <c r="AO3">
-        <v>113.2704311761425</v>
+        <v>79.52352840033861</v>
       </c>
       <c r="AP3">
-        <v>-2.051814465745658</v>
+        <v>-0.204677045934177</v>
       </c>
       <c r="AQ3">
-        <v>-131.3331717081928</v>
+        <v>-99.64975598424857</v>
       </c>
       <c r="AR3">
-        <v>113.2716972026113</v>
+        <v>79.54241332959965</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001995597163215775</v>
+        <v>0.002747391442845448</v>
       </c>
       <c r="F4">
-        <v>0.0001995597948535442</v>
+        <v>0.002747391508696629</v>
       </c>
       <c r="G4">
-        <v>0.0001995596383048784</v>
+        <v>0.002747391377047594</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -11174,49 +11174,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.002304317118753363</v>
+        <v>0.03172414378192188</v>
       </c>
       <c r="L4">
-        <v>0.002304318025562405</v>
+        <v>0.03172414454230581</v>
       </c>
       <c r="M4">
-        <v>0.002304316217894118</v>
+        <v>0.03172414302215371</v>
       </c>
       <c r="N4">
-        <v>1.933261245094955E-10</v>
+        <v>-3.377766956261668E-09</v>
       </c>
       <c r="O4">
-        <v>5.381391026648498E-10</v>
+        <v>7.542533422700347E-10</v>
       </c>
       <c r="P4">
-        <v>7.131903085080831E-10</v>
+        <v>2.382112222129625E-10</v>
       </c>
       <c r="Q4">
-        <v>-0.001474647211650802</v>
+        <v>0.0003870878693625002</v>
       </c>
       <c r="R4">
-        <v>-0.0004807882647182937</v>
+        <v>-0.02382632845863455</v>
       </c>
       <c r="S4">
-        <v>0.001955544428970716</v>
+        <v>0.0234601674018065</v>
       </c>
       <c r="T4">
-        <v>-1.515543249253495E-10</v>
+        <v>-2.568076988931745E-11</v>
       </c>
       <c r="U4">
-        <v>-7.28125018663143E-10</v>
+        <v>1.068123908373494E-09</v>
       </c>
       <c r="V4">
-        <v>-4.104660341854238E-10</v>
+        <v>-1.963935887605556E-09</v>
       </c>
       <c r="W4">
-        <v>-0.001915317733129991</v>
+        <v>-0.05253486322622262</v>
       </c>
       <c r="X4">
-        <v>0.002061962991433257</v>
+        <v>0.003783490724644815</v>
       </c>
       <c r="Y4">
-        <v>-0.0004253043578342235</v>
+        <v>-0.004065241827542487</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11228,49 +11228,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>125.5416876161707</v>
+        <v>89.37316329654011</v>
       </c>
       <c r="AD4">
-        <v>125.5416720867951</v>
+        <v>89.3731641957026</v>
       </c>
       <c r="AE4">
-        <v>125.5416746500634</v>
+        <v>89.37316241928818</v>
       </c>
       <c r="AG4">
-        <v>1.049032417001942</v>
+        <v>1.65620644696912</v>
       </c>
       <c r="AH4">
-        <v>0.9188237475660188</v>
+        <v>0.7608642034990368</v>
       </c>
       <c r="AI4">
-        <v>0.8684543118125685</v>
+        <v>0.750122182801214</v>
       </c>
       <c r="AJ4">
-        <v>1.049002875609167</v>
+        <v>1.656034900113864</v>
       </c>
       <c r="AK4">
-        <v>0.9188288545513594</v>
+        <v>0.7604572934475627</v>
       </c>
       <c r="AL4">
-        <v>0.8684828240027836</v>
+        <v>0.7505255680234639</v>
       </c>
       <c r="AM4">
-        <v>-2.052773804081469</v>
+        <v>-0.2199329705516848</v>
       </c>
       <c r="AN4">
-        <v>-131.3310523584836</v>
+        <v>-99.63156784003763</v>
       </c>
       <c r="AO4">
-        <v>113.2704311761425</v>
+        <v>79.52352840033859</v>
       </c>
       <c r="AP4">
-        <v>-2.051814465745658</v>
+        <v>-0.204677045934177</v>
       </c>
       <c r="AQ4">
-        <v>-131.3331717081928</v>
+        <v>-99.64975598424857</v>
       </c>
       <c r="AR4">
-        <v>113.2716972026113</v>
+        <v>79.54241332959965</v>
       </c>
     </row>
   </sheetData>
@@ -11425,97 +11425,97 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.003294274620603694</v>
+        <v>0.007442804857634867</v>
       </c>
       <c r="C2">
-        <v>0.003294275452780021</v>
+        <v>0.007442805682687805</v>
       </c>
       <c r="D2">
-        <v>0.003294273802847425</v>
+        <v>0.007442804032738282</v>
       </c>
       <c r="E2">
-        <v>0.002196872711912493</v>
+        <v>0.004963428005498234</v>
       </c>
       <c r="F2">
-        <v>0.00219687354528898</v>
+        <v>0.004963428830540528</v>
       </c>
       <c r="G2">
-        <v>0.002196871895378576</v>
+        <v>0.004963427180606984</v>
       </c>
       <c r="H2">
-        <v>0.0380390067798019</v>
+        <v>0.08594210776162689</v>
       </c>
       <c r="I2">
-        <v>0.03803901638894643</v>
+        <v>0.08594211728851761</v>
       </c>
       <c r="J2">
-        <v>0.03803899733716586</v>
+        <v>0.0859420982365416</v>
       </c>
       <c r="K2">
-        <v>0.02536730103196042</v>
+        <v>0.05731272990155466</v>
       </c>
       <c r="L2">
-        <v>0.0253673106549632</v>
+        <v>0.05731273942832247</v>
       </c>
       <c r="M2">
-        <v>0.02536729160343888</v>
+        <v>0.05731272037653095</v>
       </c>
       <c r="N2">
-        <v>0.0001733282132020282</v>
+        <v>0.0008847755923178561</v>
       </c>
       <c r="O2">
-        <v>2.473295352166705E-15</v>
+        <v>-9.853496480577181E-14</v>
       </c>
       <c r="P2">
-        <v>3.659452053182838E-13</v>
+        <v>3.402187902843519E-14</v>
       </c>
       <c r="Q2">
-        <v>-9.843432862904448E-05</v>
+        <v>-0.0005024793645525058</v>
       </c>
       <c r="R2">
-        <v>4.279650837212664E-05</v>
+        <v>0.0002184549581617739</v>
       </c>
       <c r="S2">
-        <v>4.279647232546027E-05</v>
+        <v>0.000218454877192537</v>
       </c>
       <c r="T2">
-        <v>-0.02528040916582596</v>
+        <v>-0.1290439836883663</v>
       </c>
       <c r="U2">
-        <v>4.217013312907774E-13</v>
+        <v>1.896963837340458E-14</v>
       </c>
       <c r="V2">
-        <v>-2.135239546994328E-13</v>
+        <v>4.056815956476887E-14</v>
       </c>
       <c r="W2">
-        <v>0.0168675775181009</v>
+        <v>0.08610063964536108</v>
       </c>
       <c r="X2">
-        <v>8.874474863286325E-06</v>
+        <v>4.529977017450908E-05</v>
       </c>
       <c r="Y2">
-        <v>8.874466756955638E-06</v>
+        <v>4.529975081337209E-05</v>
       </c>
       <c r="Z2">
-        <v>89.53674256694846</v>
+        <v>89.60371022284146</v>
       </c>
       <c r="AA2">
-        <v>89.53672884218699</v>
+        <v>89.60371027813309</v>
       </c>
       <c r="AB2">
-        <v>89.53672861023526</v>
+        <v>89.60371019032013</v>
       </c>
       <c r="AC2">
-        <v>-90.55040483427594</v>
+        <v>-90.48344179117285</v>
       </c>
       <c r="AD2">
-        <v>-90.55042538191745</v>
+        <v>-90.48344169377918</v>
       </c>
       <c r="AE2">
-        <v>-90.55042579518083</v>
+        <v>-90.48344185442862</v>
       </c>
       <c r="AG2">
-        <v>0.6646073461891232</v>
+        <v>1.501557504185589</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -11524,16 +11524,16 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.6649451871766743</v>
+        <v>1.502320793373122</v>
       </c>
       <c r="AK2">
-        <v>0.001722963465682243</v>
+        <v>0.003892717499481675</v>
       </c>
       <c r="AL2">
-        <v>0.001722963303399943</v>
+        <v>0.003892717341566661</v>
       </c>
       <c r="AM2">
-        <v>-0.07043074203080907</v>
+        <v>-0.003453850557983939</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -11542,13 +11542,13 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.2160469478580632</v>
+        <v>-0.1490700587430819</v>
       </c>
       <c r="AQ2">
-        <v>-78.83534989663767</v>
+        <v>-78.76837232779678</v>
       </c>
       <c r="AR2">
-        <v>-78.83535112053819</v>
+        <v>-78.7683731349623</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11565,13 +11565,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.001098436356865189</v>
+        <v>0.002481714002697071</v>
       </c>
       <c r="F3">
-        <v>0.001098436634658277</v>
+        <v>0.002481714277711689</v>
       </c>
       <c r="G3">
-        <v>0.001098436084684331</v>
+        <v>0.002481713727732777</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -11583,49 +11583,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01268365052647578</v>
+        <v>0.02865636495017635</v>
       </c>
       <c r="L3">
-        <v>0.01268365373415405</v>
+        <v>0.02865636812577163</v>
       </c>
       <c r="M3">
-        <v>0.01268364738360194</v>
+        <v>0.02865636177516217</v>
       </c>
       <c r="N3">
-        <v>8.167989544561238E-10</v>
+        <v>-2.768166839213322E-09</v>
       </c>
       <c r="O3">
-        <v>5.692381120460546E-12</v>
+        <v>1.280311519378057E-11</v>
       </c>
       <c r="P3">
-        <v>-7.19063182341102E-12</v>
+        <v>-1.629692912458495E-11</v>
       </c>
       <c r="Q3">
-        <v>4.921757276314214E-05</v>
+        <v>0.0002512382987708857</v>
       </c>
       <c r="R3">
-        <v>-2.139825181357441E-05</v>
+        <v>-0.0001092274737416234</v>
       </c>
       <c r="S3">
-        <v>-2.139823915771293E-05</v>
+        <v>-0.0001092274453811578</v>
       </c>
       <c r="T3">
-        <v>-1.043168593229225E-11</v>
+        <v>-1.712687005408088E-11</v>
       </c>
       <c r="U3">
-        <v>4.989306766661448E-12</v>
+        <v>1.128746280315259E-11</v>
       </c>
       <c r="V3">
-        <v>2.448671424683434E-12</v>
+        <v>5.513506259078833E-12</v>
       </c>
       <c r="W3">
-        <v>-0.008433788763645951</v>
+        <v>-0.04305031982985172</v>
       </c>
       <c r="X3">
-        <v>-4.43723535241569E-06</v>
+        <v>-2.264988038332604E-05</v>
       </c>
       <c r="Y3">
-        <v>-4.437232358653616E-06</v>
+        <v>-2.264987311056237E-05</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11637,49 +11637,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>89.44959239115728</v>
+        <v>89.51656005012362</v>
       </c>
       <c r="AD3">
-        <v>89.44957869288598</v>
+        <v>89.51656011512524</v>
       </c>
       <c r="AE3">
-        <v>89.44957841727737</v>
+        <v>89.51656000794374</v>
       </c>
       <c r="AG3">
-        <v>0.6650129749856425</v>
+        <v>1.502473947368391</v>
       </c>
       <c r="AH3">
-        <v>0.00206762106312568</v>
+        <v>0.004671407621611294</v>
       </c>
       <c r="AI3">
-        <v>0.002067620848755248</v>
+        <v>0.004671407411589628</v>
       </c>
       <c r="AJ3">
-        <v>0.6649451871766743</v>
+        <v>1.502320793373122</v>
       </c>
       <c r="AK3">
-        <v>0.001722963465682243</v>
+        <v>0.003892717499481675</v>
       </c>
       <c r="AL3">
-        <v>0.001722963303399943</v>
+        <v>0.003892717341566661</v>
       </c>
       <c r="AM3">
-        <v>-0.2451632210145312</v>
+        <v>-0.1781863326876637</v>
       </c>
       <c r="AN3">
-        <v>-78.8440656096256</v>
+        <v>-78.77708806409602</v>
       </c>
       <c r="AO3">
-        <v>-78.84406713925763</v>
+        <v>-78.77708896158092</v>
       </c>
       <c r="AP3">
-        <v>-0.2160469478580632</v>
+        <v>-0.1490700587430819</v>
       </c>
       <c r="AQ3">
-        <v>-78.83534989663767</v>
+        <v>-78.76837232779678</v>
       </c>
       <c r="AR3">
-        <v>-78.83535112053819</v>
+        <v>-78.7683731349623</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11696,13 +11696,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.001098436356865592</v>
+        <v>0.002481714002696254</v>
       </c>
       <c r="F4">
-        <v>0.001098436634659113</v>
+        <v>0.002481714277711717</v>
       </c>
       <c r="G4">
-        <v>0.001098436084685976</v>
+        <v>0.002481713727734411</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -11714,49 +11714,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01268365052648043</v>
+        <v>0.02865636495016692</v>
       </c>
       <c r="L4">
-        <v>0.01268365373416371</v>
+        <v>0.02865636812577195</v>
       </c>
       <c r="M4">
-        <v>0.01268364738362094</v>
+        <v>0.02865636177518104</v>
       </c>
       <c r="N4">
-        <v>8.16798927497953E-10</v>
+        <v>-2.76816690561487E-09</v>
       </c>
       <c r="O4">
-        <v>5.692392758828521E-12</v>
+        <v>1.280318478714147E-11</v>
       </c>
       <c r="P4">
-        <v>-7.190597176777854E-12</v>
+        <v>-1.629681646380711E-11</v>
       </c>
       <c r="Q4">
-        <v>4.921757275683069E-05</v>
+        <v>0.0002512382987780391</v>
       </c>
       <c r="R4">
-        <v>-2.13982518135841E-05</v>
+        <v>-0.0001092274737415947</v>
       </c>
       <c r="S4">
-        <v>-2.139823915774338E-05</v>
+        <v>-0.0001092274453812373</v>
       </c>
       <c r="T4">
-        <v>-1.043798614313109E-11</v>
+        <v>-1.714822138980754E-11</v>
       </c>
       <c r="U4">
-        <v>4.989348993237286E-12</v>
+        <v>1.128756685045327E-11</v>
       </c>
       <c r="V4">
-        <v>2.448698222922239E-12</v>
+        <v>5.513393255558395E-12</v>
       </c>
       <c r="W4">
-        <v>-0.008433788763649079</v>
+        <v>-0.0430503198298375</v>
       </c>
       <c r="X4">
-        <v>-4.43723535245088E-06</v>
+        <v>-2.264988038347073E-05</v>
       </c>
       <c r="Y4">
-        <v>-4.437232358667943E-06</v>
+        <v>-2.264987311054056E-05</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11768,49 +11768,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>89.44959239120028</v>
+        <v>89.51656005011399</v>
       </c>
       <c r="AD4">
-        <v>89.4495786928008</v>
+        <v>89.51656011504949</v>
       </c>
       <c r="AE4">
-        <v>89.4495784172568</v>
+        <v>89.51656000796299</v>
       </c>
       <c r="AG4">
-        <v>0.6650129749856424</v>
+        <v>1.502473947368391</v>
       </c>
       <c r="AH4">
-        <v>0.002067621063126182</v>
+        <v>0.004671407621611687</v>
       </c>
       <c r="AI4">
-        <v>0.00206762084875588</v>
+        <v>0.004671407411589976</v>
       </c>
       <c r="AJ4">
-        <v>0.6649451871766743</v>
+        <v>1.502320793373122</v>
       </c>
       <c r="AK4">
-        <v>0.001722963465682243</v>
+        <v>0.003892717499481675</v>
       </c>
       <c r="AL4">
-        <v>0.001722963303399943</v>
+        <v>0.003892717341566661</v>
       </c>
       <c r="AM4">
-        <v>-0.2451632210145662</v>
+        <v>-0.1781863326876704</v>
       </c>
       <c r="AN4">
-        <v>-78.84406560963463</v>
+        <v>-78.77708806409976</v>
       </c>
       <c r="AO4">
-        <v>-78.84406713926421</v>
+        <v>-78.77708896158038</v>
       </c>
       <c r="AP4">
-        <v>-0.2160469478580632</v>
+        <v>-0.1490700587430819</v>
       </c>
       <c r="AQ4">
-        <v>-78.83534989663767</v>
+        <v>-78.76837232779678</v>
       </c>
       <c r="AR4">
-        <v>-78.83535112053819</v>
+        <v>-78.7683731349623</v>
       </c>
     </row>
   </sheetData>
@@ -12190,97 +12190,97 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.003294274620603694</v>
+        <v>0.007442804857634867</v>
       </c>
       <c r="C2">
-        <v>0.003294275452780021</v>
+        <v>0.007442805682687805</v>
       </c>
       <c r="D2">
-        <v>0.003294273802847425</v>
+        <v>0.007442804032738282</v>
       </c>
       <c r="E2">
-        <v>0.002196872711912493</v>
+        <v>0.004963428005498234</v>
       </c>
       <c r="F2">
-        <v>0.00219687354528898</v>
+        <v>0.004963428830540528</v>
       </c>
       <c r="G2">
-        <v>0.002196871895378576</v>
+        <v>0.004963427180606984</v>
       </c>
       <c r="H2">
-        <v>0.0380390067798019</v>
+        <v>0.08594210776162689</v>
       </c>
       <c r="I2">
-        <v>0.03803901638894643</v>
+        <v>0.08594211728851761</v>
       </c>
       <c r="J2">
-        <v>0.03803899733716586</v>
+        <v>0.0859420982365416</v>
       </c>
       <c r="K2">
-        <v>0.02536730103196042</v>
+        <v>0.05731272990155466</v>
       </c>
       <c r="L2">
-        <v>0.0253673106549632</v>
+        <v>0.05731273942832247</v>
       </c>
       <c r="M2">
-        <v>0.02536729160343888</v>
+        <v>0.05731272037653095</v>
       </c>
       <c r="N2">
-        <v>0.0001733282132020282</v>
+        <v>0.0008847755923178561</v>
       </c>
       <c r="O2">
-        <v>2.473295352166705E-15</v>
+        <v>-9.853496480577181E-14</v>
       </c>
       <c r="P2">
-        <v>3.659452053182838E-13</v>
+        <v>3.402187902843519E-14</v>
       </c>
       <c r="Q2">
-        <v>-9.843432862904448E-05</v>
+        <v>-0.0005024793645525058</v>
       </c>
       <c r="R2">
-        <v>4.279650837212664E-05</v>
+        <v>0.0002184549581617739</v>
       </c>
       <c r="S2">
-        <v>4.279647232546027E-05</v>
+        <v>0.000218454877192537</v>
       </c>
       <c r="T2">
-        <v>-0.02528040916582596</v>
+        <v>-0.1290439836883663</v>
       </c>
       <c r="U2">
-        <v>4.217013312907774E-13</v>
+        <v>1.896963837340458E-14</v>
       </c>
       <c r="V2">
-        <v>-2.135239546994328E-13</v>
+        <v>4.056815956476887E-14</v>
       </c>
       <c r="W2">
-        <v>0.0168675775181009</v>
+        <v>0.08610063964536108</v>
       </c>
       <c r="X2">
-        <v>8.874474863286325E-06</v>
+        <v>4.529977017450908E-05</v>
       </c>
       <c r="Y2">
-        <v>8.874466756955638E-06</v>
+        <v>4.529975081337209E-05</v>
       </c>
       <c r="Z2">
-        <v>89.53674256694846</v>
+        <v>89.60371022284146</v>
       </c>
       <c r="AA2">
-        <v>89.53672884218699</v>
+        <v>89.60371027813309</v>
       </c>
       <c r="AB2">
-        <v>89.53672861023526</v>
+        <v>89.60371019032013</v>
       </c>
       <c r="AC2">
-        <v>-90.55040483427594</v>
+        <v>-90.48344179117285</v>
       </c>
       <c r="AD2">
-        <v>-90.55042538191745</v>
+        <v>-90.48344169377918</v>
       </c>
       <c r="AE2">
-        <v>-90.55042579518083</v>
+        <v>-90.48344185442862</v>
       </c>
       <c r="AG2">
-        <v>0.6646073461891232</v>
+        <v>1.501557504185589</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -12289,16 +12289,16 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.6649451871766743</v>
+        <v>1.502320793373122</v>
       </c>
       <c r="AK2">
-        <v>0.001722963465682243</v>
+        <v>0.003892717499481675</v>
       </c>
       <c r="AL2">
-        <v>0.001722963303399943</v>
+        <v>0.003892717341566661</v>
       </c>
       <c r="AM2">
-        <v>-0.07043074203080907</v>
+        <v>-0.003453850557983939</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -12307,13 +12307,13 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.2160469478580632</v>
+        <v>-0.1490700587430819</v>
       </c>
       <c r="AQ2">
-        <v>-78.83534989663767</v>
+        <v>-78.76837232779678</v>
       </c>
       <c r="AR2">
-        <v>-78.83535112053819</v>
+        <v>-78.7683731349623</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12330,13 +12330,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.001098436356865189</v>
+        <v>0.002481714002697071</v>
       </c>
       <c r="F3">
-        <v>0.001098436634658277</v>
+        <v>0.002481714277711689</v>
       </c>
       <c r="G3">
-        <v>0.001098436084684331</v>
+        <v>0.002481713727732777</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -12348,49 +12348,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01268365052647578</v>
+        <v>0.02865636495017635</v>
       </c>
       <c r="L3">
-        <v>0.01268365373415405</v>
+        <v>0.02865636812577163</v>
       </c>
       <c r="M3">
-        <v>0.01268364738360194</v>
+        <v>0.02865636177516217</v>
       </c>
       <c r="N3">
-        <v>8.167989544561238E-10</v>
+        <v>-2.768166839213322E-09</v>
       </c>
       <c r="O3">
-        <v>5.692381120460546E-12</v>
+        <v>1.280311519378057E-11</v>
       </c>
       <c r="P3">
-        <v>-7.19063182341102E-12</v>
+        <v>-1.629692912458495E-11</v>
       </c>
       <c r="Q3">
-        <v>4.921757276314214E-05</v>
+        <v>0.0002512382987708857</v>
       </c>
       <c r="R3">
-        <v>-2.139825181357441E-05</v>
+        <v>-0.0001092274737416234</v>
       </c>
       <c r="S3">
-        <v>-2.139823915771293E-05</v>
+        <v>-0.0001092274453811578</v>
       </c>
       <c r="T3">
-        <v>-1.043168593229225E-11</v>
+        <v>-1.712687005408088E-11</v>
       </c>
       <c r="U3">
-        <v>4.989306766661448E-12</v>
+        <v>1.128746280315259E-11</v>
       </c>
       <c r="V3">
-        <v>2.448671424683434E-12</v>
+        <v>5.513506259078833E-12</v>
       </c>
       <c r="W3">
-        <v>-0.008433788763645951</v>
+        <v>-0.04305031982985172</v>
       </c>
       <c r="X3">
-        <v>-4.43723535241569E-06</v>
+        <v>-2.264988038332604E-05</v>
       </c>
       <c r="Y3">
-        <v>-4.437232358653616E-06</v>
+        <v>-2.264987311056237E-05</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12402,49 +12402,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>89.44959239115728</v>
+        <v>89.51656005012362</v>
       </c>
       <c r="AD3">
-        <v>89.44957869288598</v>
+        <v>89.51656011512524</v>
       </c>
       <c r="AE3">
-        <v>89.44957841727737</v>
+        <v>89.51656000794374</v>
       </c>
       <c r="AG3">
-        <v>0.6650129749856425</v>
+        <v>1.502473947368391</v>
       </c>
       <c r="AH3">
-        <v>0.00206762106312568</v>
+        <v>0.004671407621611294</v>
       </c>
       <c r="AI3">
-        <v>0.002067620848755248</v>
+        <v>0.004671407411589628</v>
       </c>
       <c r="AJ3">
-        <v>0.6649451871766743</v>
+        <v>1.502320793373122</v>
       </c>
       <c r="AK3">
-        <v>0.001722963465682243</v>
+        <v>0.003892717499481675</v>
       </c>
       <c r="AL3">
-        <v>0.001722963303399943</v>
+        <v>0.003892717341566661</v>
       </c>
       <c r="AM3">
-        <v>-0.2451632210145312</v>
+        <v>-0.1781863326876637</v>
       </c>
       <c r="AN3">
-        <v>-78.8440656096256</v>
+        <v>-78.77708806409602</v>
       </c>
       <c r="AO3">
-        <v>-78.84406713925763</v>
+        <v>-78.77708896158092</v>
       </c>
       <c r="AP3">
-        <v>-0.2160469478580632</v>
+        <v>-0.1490700587430819</v>
       </c>
       <c r="AQ3">
-        <v>-78.83534989663767</v>
+        <v>-78.76837232779678</v>
       </c>
       <c r="AR3">
-        <v>-78.83535112053819</v>
+        <v>-78.7683731349623</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12461,13 +12461,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.001098436356865592</v>
+        <v>0.002481714002696254</v>
       </c>
       <c r="F4">
-        <v>0.001098436634659113</v>
+        <v>0.002481714277711717</v>
       </c>
       <c r="G4">
-        <v>0.001098436084685976</v>
+        <v>0.002481713727734411</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -12479,49 +12479,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01268365052648043</v>
+        <v>0.02865636495016692</v>
       </c>
       <c r="L4">
-        <v>0.01268365373416371</v>
+        <v>0.02865636812577195</v>
       </c>
       <c r="M4">
-        <v>0.01268364738362094</v>
+        <v>0.02865636177518104</v>
       </c>
       <c r="N4">
-        <v>8.16798927497953E-10</v>
+        <v>-2.76816690561487E-09</v>
       </c>
       <c r="O4">
-        <v>5.692392758828521E-12</v>
+        <v>1.280318478714147E-11</v>
       </c>
       <c r="P4">
-        <v>-7.190597176777854E-12</v>
+        <v>-1.629681646380711E-11</v>
       </c>
       <c r="Q4">
-        <v>4.921757275683069E-05</v>
+        <v>0.0002512382987780391</v>
       </c>
       <c r="R4">
-        <v>-2.13982518135841E-05</v>
+        <v>-0.0001092274737415947</v>
       </c>
       <c r="S4">
-        <v>-2.139823915774338E-05</v>
+        <v>-0.0001092274453812373</v>
       </c>
       <c r="T4">
-        <v>-1.043798614313109E-11</v>
+        <v>-1.714822138980754E-11</v>
       </c>
       <c r="U4">
-        <v>4.989348993237286E-12</v>
+        <v>1.128756685045327E-11</v>
       </c>
       <c r="V4">
-        <v>2.448698222922239E-12</v>
+        <v>5.513393255558395E-12</v>
       </c>
       <c r="W4">
-        <v>-0.008433788763649079</v>
+        <v>-0.0430503198298375</v>
       </c>
       <c r="X4">
-        <v>-4.43723535245088E-06</v>
+        <v>-2.264988038347073E-05</v>
       </c>
       <c r="Y4">
-        <v>-4.437232358667943E-06</v>
+        <v>-2.264987311054056E-05</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12533,49 +12533,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>89.44959239120028</v>
+        <v>89.51656005011399</v>
       </c>
       <c r="AD4">
-        <v>89.4495786928008</v>
+        <v>89.51656011504949</v>
       </c>
       <c r="AE4">
-        <v>89.4495784172568</v>
+        <v>89.51656000796299</v>
       </c>
       <c r="AG4">
-        <v>0.6650129749856424</v>
+        <v>1.502473947368391</v>
       </c>
       <c r="AH4">
-        <v>0.002067621063126182</v>
+        <v>0.004671407621611687</v>
       </c>
       <c r="AI4">
-        <v>0.00206762084875588</v>
+        <v>0.004671407411589976</v>
       </c>
       <c r="AJ4">
-        <v>0.6649451871766743</v>
+        <v>1.502320793373122</v>
       </c>
       <c r="AK4">
-        <v>0.001722963465682243</v>
+        <v>0.003892717499481675</v>
       </c>
       <c r="AL4">
-        <v>0.001722963303399943</v>
+        <v>0.003892717341566661</v>
       </c>
       <c r="AM4">
-        <v>-0.2451632210145662</v>
+        <v>-0.1781863326876704</v>
       </c>
       <c r="AN4">
-        <v>-78.84406560963463</v>
+        <v>-78.77708806409976</v>
       </c>
       <c r="AO4">
-        <v>-78.84406713926421</v>
+        <v>-78.77708896158038</v>
       </c>
       <c r="AP4">
-        <v>-0.2160469478580632</v>
+        <v>-0.1490700587430819</v>
       </c>
       <c r="AQ4">
-        <v>-78.83534989663767</v>
+        <v>-78.76837232779678</v>
       </c>
       <c r="AR4">
-        <v>-78.83535112053819</v>
+        <v>-78.7683731349623</v>
       </c>
     </row>
   </sheetData>
@@ -12730,130 +12730,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0005815853128428081</v>
+        <v>0.007490448841433361</v>
       </c>
       <c r="C2">
-        <v>0.0005815855353190701</v>
+        <v>0.007490449028060777</v>
       </c>
       <c r="D2">
-        <v>0.0005815850929124618</v>
+        <v>0.007490448654961691</v>
       </c>
       <c r="E2">
-        <v>0.000387845292387866</v>
+        <v>0.004995200635307132</v>
       </c>
       <c r="F2">
-        <v>0.0003878455150954371</v>
+        <v>0.004995200821749747</v>
       </c>
       <c r="G2">
-        <v>0.0003878450726530659</v>
+        <v>0.004995200449014298</v>
       </c>
       <c r="H2">
-        <v>0.00671556873853056</v>
+        <v>0.08649225309905344</v>
       </c>
       <c r="I2">
-        <v>0.006715571307465156</v>
+        <v>0.08649225525404121</v>
       </c>
       <c r="J2">
-        <v>0.006715566198993667</v>
+        <v>0.08649225094586406</v>
       </c>
       <c r="K2">
-        <v>0.004478451679281271</v>
+        <v>0.05767960862901525</v>
       </c>
       <c r="L2">
-        <v>0.004478454250886794</v>
+        <v>0.05767961078186913</v>
       </c>
       <c r="M2">
-        <v>0.004478449142002351</v>
+        <v>0.05767960647789089</v>
       </c>
       <c r="N2">
-        <v>-0.003849887097182157</v>
+        <v>0.001459429616852799</v>
       </c>
       <c r="O2">
-        <v>-0.00128078649995158</v>
+        <v>-0.05824172478498251</v>
       </c>
       <c r="P2">
-        <v>0.005136072261756401</v>
+        <v>0.05767843195562534</v>
       </c>
       <c r="Q2">
-        <v>0.002563547304586634</v>
+        <v>-0.0008840098897407449</v>
       </c>
       <c r="R2">
-        <v>0.0008609434351072104</v>
+        <v>0.03907092006154847</v>
       </c>
       <c r="S2">
-        <v>-0.003424887368981484</v>
+        <v>-0.03825331928129569</v>
       </c>
       <c r="T2">
-        <v>-0.005107780216235785</v>
+        <v>-0.1301419465906642</v>
       </c>
       <c r="U2">
-        <v>0.005406677792911342</v>
+        <v>0.00955742647758152</v>
       </c>
       <c r="V2">
-        <v>-0.001086831050855083</v>
+        <v>-0.01011685999186199</v>
       </c>
       <c r="W2">
-        <v>0.003410433777092623</v>
+        <v>0.0868328428166046</v>
       </c>
       <c r="X2">
-        <v>-0.003604004386264548</v>
+        <v>-0.00626865077010243</v>
       </c>
       <c r="Y2">
-        <v>0.0007198471548240783</v>
+        <v>0.006734056889946904</v>
       </c>
       <c r="Z2">
-        <v>124.9355699172977</v>
+        <v>89.22800822667649</v>
       </c>
       <c r="AA2">
-        <v>124.9355549067037</v>
+        <v>89.22800915185431</v>
       </c>
       <c r="AB2">
-        <v>124.9355572465592</v>
+        <v>89.22800732429505</v>
       </c>
       <c r="AC2">
-        <v>-55.15157748391037</v>
+        <v>-90.85914378734704</v>
       </c>
       <c r="AD2">
-        <v>-55.15159994267501</v>
+        <v>-90.85914239676629</v>
       </c>
       <c r="AE2">
-        <v>-55.1515965334437</v>
+        <v>-90.85914514374157</v>
       </c>
       <c r="AG2">
-        <v>0.9524397471045806</v>
+        <v>1.504760539723494</v>
       </c>
       <c r="AH2">
-        <v>0.8273770861062341</v>
+        <v>0.6823813160585488</v>
       </c>
       <c r="AI2">
-        <v>0.7817365880036229</v>
+        <v>0.677042905570412</v>
       </c>
       <c r="AJ2">
-        <v>0.9526680570978565</v>
+        <v>1.505511993524068</v>
       </c>
       <c r="AK2">
-        <v>0.8273861615442069</v>
+        <v>0.6860414698369639</v>
       </c>
       <c r="AL2">
-        <v>0.7814578076600504</v>
+        <v>0.673401328582002</v>
       </c>
       <c r="AM2">
-        <v>-2.070858898527458</v>
+        <v>-0.1294959849195386</v>
       </c>
       <c r="AN2">
-        <v>-131.7373295207326</v>
+        <v>-100.0911303251586</v>
       </c>
       <c r="AO2">
-        <v>112.9875977716212</v>
+        <v>79.27946529433503</v>
       </c>
       <c r="AP2">
-        <v>-2.082948767994196</v>
+        <v>-0.2758588881094364</v>
       </c>
       <c r="AQ2">
-        <v>-131.7162746253098</v>
+        <v>-99.97415913098295</v>
       </c>
       <c r="AR2">
-        <v>112.9786777320012</v>
+        <v>79.15688605352746</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12870,13 +12870,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001939226463540813</v>
+        <v>0.002497600317601775</v>
       </c>
       <c r="F3">
-        <v>0.0001939227205905376</v>
+        <v>0.002497600379750236</v>
       </c>
       <c r="G3">
-        <v>0.0001939225731092648</v>
+        <v>0.002497600255502809</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -12888,49 +12888,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.002239225841489869</v>
+        <v>0.02883980431390959</v>
       </c>
       <c r="L3">
-        <v>0.00223922669869863</v>
+        <v>0.02883980503153821</v>
       </c>
       <c r="M3">
-        <v>0.002239224995731579</v>
+        <v>0.0288398035968525</v>
       </c>
       <c r="N3">
-        <v>1.628701117888387E-10</v>
+        <v>-2.791709529419488E-09</v>
       </c>
       <c r="O3">
-        <v>4.60499146990708E-10</v>
+        <v>6.361578612415318E-10</v>
       </c>
       <c r="P3">
-        <v>6.048143172302599E-10</v>
+        <v>2.060717139342073E-10</v>
       </c>
       <c r="Q3">
-        <v>-0.001281773570777989</v>
+        <v>0.0004420035496011283</v>
       </c>
       <c r="R3">
-        <v>-0.0004304714873302482</v>
+        <v>-0.01953545971195405</v>
       </c>
       <c r="S3">
-        <v>0.001712443986842614</v>
+        <v>0.01912665974323937</v>
       </c>
       <c r="T3">
-        <v>-1.271182920072428E-10</v>
+        <v>-2.939618782100425E-11</v>
       </c>
       <c r="U3">
-        <v>-6.158309493065141E-10</v>
+        <v>8.632815753221162E-10</v>
       </c>
       <c r="V3">
-        <v>-3.503194338941831E-10</v>
+        <v>-1.613857983852688E-09</v>
       </c>
       <c r="W3">
-        <v>-0.001705216952023476</v>
+        <v>-0.04341642142160654</v>
       </c>
       <c r="X3">
-        <v>0.001802001885111745</v>
+        <v>0.003134325815771871</v>
       </c>
       <c r="Y3">
-        <v>-0.0003599237525419153</v>
+        <v>-0.003367029252350922</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12942,49 +12942,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>124.8484197415768</v>
+        <v>89.14085805394238</v>
       </c>
       <c r="AD3">
-        <v>124.8484047689664</v>
+        <v>89.14085898104982</v>
       </c>
       <c r="AE3">
-        <v>124.848407041939</v>
+        <v>89.14085714965698</v>
       </c>
       <c r="AG3">
-        <v>0.9527136960968853</v>
+        <v>1.505662789408378</v>
       </c>
       <c r="AH3">
-        <v>0.8273880458860809</v>
+        <v>0.686774233432535</v>
       </c>
       <c r="AI3">
-        <v>0.7814020211531901</v>
+        <v>0.6726729837297687</v>
       </c>
       <c r="AJ3">
-        <v>0.9526680570978565</v>
+        <v>1.505511993524068</v>
       </c>
       <c r="AK3">
-        <v>0.8273861615442069</v>
+        <v>0.6860414698369639</v>
       </c>
       <c r="AL3">
-        <v>0.7814578076600504</v>
+        <v>0.673401328582002</v>
       </c>
       <c r="AM3">
-        <v>-2.085369008275628</v>
+        <v>-0.3051246582918687</v>
       </c>
       <c r="AN3">
-        <v>-131.7120630246241</v>
+        <v>-99.95096593598389</v>
       </c>
       <c r="AO3">
-        <v>112.9768963558544</v>
+        <v>79.13226291315985</v>
       </c>
       <c r="AP3">
-        <v>-2.082948767994196</v>
+        <v>-0.2758588881094364</v>
       </c>
       <c r="AQ3">
-        <v>-131.7162746253098</v>
+        <v>-99.97415913098295</v>
       </c>
       <c r="AR3">
-        <v>112.9786777320012</v>
+        <v>79.15688605352746</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13001,13 +13001,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001939226463541324</v>
+        <v>0.002497600317600544</v>
       </c>
       <c r="F4">
-        <v>0.0001939227205904204</v>
+        <v>0.002497600379750249</v>
       </c>
       <c r="G4">
-        <v>0.0001939225731097187</v>
+        <v>0.002497600255504002</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -13019,49 +13019,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.002239225841490459</v>
+        <v>0.02883980431389538</v>
       </c>
       <c r="L4">
-        <v>0.002239226698697277</v>
+        <v>0.02883980503153835</v>
       </c>
       <c r="M4">
-        <v>0.00223922499573682</v>
+        <v>0.02883980359686628</v>
       </c>
       <c r="N4">
-        <v>1.628668114214384E-10</v>
+        <v>-2.791723945649159E-09</v>
       </c>
       <c r="O4">
-        <v>4.604997989535696E-10</v>
+        <v>6.361552191396762E-10</v>
       </c>
       <c r="P4">
-        <v>6.048105482064518E-10</v>
+        <v>2.060678584937447E-10</v>
       </c>
       <c r="Q4">
-        <v>-0.001281773570775816</v>
+        <v>0.0004420035496012314</v>
       </c>
       <c r="R4">
-        <v>-0.0004304714873315521</v>
+        <v>-0.01953545971195518</v>
       </c>
       <c r="S4">
-        <v>0.001712443986846745</v>
+        <v>0.01912665974324517</v>
       </c>
       <c r="T4">
-        <v>-1.271159138574329E-10</v>
+        <v>-2.942464045907423E-11</v>
       </c>
       <c r="U4">
-        <v>-6.158302178695453E-10</v>
+        <v>8.632853417700679E-10</v>
       </c>
       <c r="V4">
-        <v>-3.503200268476668E-10</v>
+        <v>-1.61384426521777E-09</v>
       </c>
       <c r="W4">
-        <v>-0.001705216952025813</v>
+        <v>-0.04341642142158515</v>
       </c>
       <c r="X4">
-        <v>0.001802001885110283</v>
+        <v>0.00313432581576547</v>
       </c>
       <c r="Y4">
-        <v>-0.0003599237525421741</v>
+        <v>-0.00336702925237152</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13073,49 +13073,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>124.8484197414924</v>
+        <v>89.14085805394195</v>
       </c>
       <c r="AD4">
-        <v>124.8484047689166</v>
+        <v>89.140858981031</v>
       </c>
       <c r="AE4">
-        <v>124.8484070419195</v>
+        <v>89.14085714971387</v>
       </c>
       <c r="AG4">
-        <v>0.9527136960968853</v>
+        <v>1.505662789408378</v>
       </c>
       <c r="AH4">
-        <v>0.8273880458860809</v>
+        <v>0.686774233432535</v>
       </c>
       <c r="AI4">
-        <v>0.7814020211531899</v>
+        <v>0.6726729837297689</v>
       </c>
       <c r="AJ4">
-        <v>0.9526680570978565</v>
+        <v>1.505511993524068</v>
       </c>
       <c r="AK4">
-        <v>0.8273861615442069</v>
+        <v>0.6860414698369639</v>
       </c>
       <c r="AL4">
-        <v>0.7814578076600504</v>
+        <v>0.673401328582002</v>
       </c>
       <c r="AM4">
-        <v>-2.085369008275635</v>
+        <v>-0.3051246582918612</v>
       </c>
       <c r="AN4">
-        <v>-131.7120630246241</v>
+        <v>-99.95096593598389</v>
       </c>
       <c r="AO4">
-        <v>112.9768963558544</v>
+        <v>79.13226291315983</v>
       </c>
       <c r="AP4">
-        <v>-2.082948767994196</v>
+        <v>-0.2758588881094364</v>
       </c>
       <c r="AQ4">
-        <v>-131.7162746253098</v>
+        <v>-99.97415913098295</v>
       </c>
       <c r="AR4">
-        <v>112.9786777320012</v>
+        <v>79.15688605352746</v>
       </c>
     </row>
   </sheetData>
@@ -13270,130 +13270,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0005815853128428081</v>
+        <v>0.007490448841433361</v>
       </c>
       <c r="C2">
-        <v>0.0005815855353190701</v>
+        <v>0.007490449028060777</v>
       </c>
       <c r="D2">
-        <v>0.0005815850929124618</v>
+        <v>0.007490448654961691</v>
       </c>
       <c r="E2">
-        <v>0.000387845292387866</v>
+        <v>0.004995200635307132</v>
       </c>
       <c r="F2">
-        <v>0.0003878455150954371</v>
+        <v>0.004995200821749747</v>
       </c>
       <c r="G2">
-        <v>0.0003878450726530659</v>
+        <v>0.004995200449014298</v>
       </c>
       <c r="H2">
-        <v>0.00671556873853056</v>
+        <v>0.08649225309905344</v>
       </c>
       <c r="I2">
-        <v>0.006715571307465156</v>
+        <v>0.08649225525404121</v>
       </c>
       <c r="J2">
-        <v>0.006715566198993667</v>
+        <v>0.08649225094586406</v>
       </c>
       <c r="K2">
-        <v>0.004478451679281271</v>
+        <v>0.05767960862901525</v>
       </c>
       <c r="L2">
-        <v>0.004478454250886794</v>
+        <v>0.05767961078186913</v>
       </c>
       <c r="M2">
-        <v>0.004478449142002351</v>
+        <v>0.05767960647789089</v>
       </c>
       <c r="N2">
-        <v>-0.003849887097182157</v>
+        <v>0.001459429616852799</v>
       </c>
       <c r="O2">
-        <v>-0.00128078649995158</v>
+        <v>-0.05824172478498251</v>
       </c>
       <c r="P2">
-        <v>0.005136072261756401</v>
+        <v>0.05767843195562534</v>
       </c>
       <c r="Q2">
-        <v>0.002563547304586634</v>
+        <v>-0.0008840098897407449</v>
       </c>
       <c r="R2">
-        <v>0.0008609434351072104</v>
+        <v>0.03907092006154847</v>
       </c>
       <c r="S2">
-        <v>-0.003424887368981484</v>
+        <v>-0.03825331928129569</v>
       </c>
       <c r="T2">
-        <v>-0.005107780216235785</v>
+        <v>-0.1301419465906642</v>
       </c>
       <c r="U2">
-        <v>0.005406677792911342</v>
+        <v>0.00955742647758152</v>
       </c>
       <c r="V2">
-        <v>-0.001086831050855083</v>
+        <v>-0.01011685999186199</v>
       </c>
       <c r="W2">
-        <v>0.003410433777092623</v>
+        <v>0.0868328428166046</v>
       </c>
       <c r="X2">
-        <v>-0.003604004386264548</v>
+        <v>-0.00626865077010243</v>
       </c>
       <c r="Y2">
-        <v>0.0007198471548240783</v>
+        <v>0.006734056889946904</v>
       </c>
       <c r="Z2">
-        <v>124.9355699172977</v>
+        <v>89.22800822667649</v>
       </c>
       <c r="AA2">
-        <v>124.9355549067037</v>
+        <v>89.22800915185431</v>
       </c>
       <c r="AB2">
-        <v>124.9355572465592</v>
+        <v>89.22800732429505</v>
       </c>
       <c r="AC2">
-        <v>-55.15157748391037</v>
+        <v>-90.85914378734704</v>
       </c>
       <c r="AD2">
-        <v>-55.15159994267501</v>
+        <v>-90.85914239676629</v>
       </c>
       <c r="AE2">
-        <v>-55.1515965334437</v>
+        <v>-90.85914514374157</v>
       </c>
       <c r="AG2">
-        <v>0.9524397471045806</v>
+        <v>1.504760539723494</v>
       </c>
       <c r="AH2">
-        <v>0.8273770861062341</v>
+        <v>0.6823813160585488</v>
       </c>
       <c r="AI2">
-        <v>0.7817365880036229</v>
+        <v>0.677042905570412</v>
       </c>
       <c r="AJ2">
-        <v>0.9526680570978565</v>
+        <v>1.505511993524068</v>
       </c>
       <c r="AK2">
-        <v>0.8273861615442069</v>
+        <v>0.6860414698369639</v>
       </c>
       <c r="AL2">
-        <v>0.7814578076600504</v>
+        <v>0.673401328582002</v>
       </c>
       <c r="AM2">
-        <v>-2.070858898527458</v>
+        <v>-0.1294959849195386</v>
       </c>
       <c r="AN2">
-        <v>-131.7373295207326</v>
+        <v>-100.0911303251586</v>
       </c>
       <c r="AO2">
-        <v>112.9875977716212</v>
+        <v>79.27946529433503</v>
       </c>
       <c r="AP2">
-        <v>-2.082948767994196</v>
+        <v>-0.2758588881094364</v>
       </c>
       <c r="AQ2">
-        <v>-131.7162746253098</v>
+        <v>-99.97415913098295</v>
       </c>
       <c r="AR2">
-        <v>112.9786777320012</v>
+        <v>79.15688605352746</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -13410,13 +13410,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001939226463540813</v>
+        <v>0.002497600317601775</v>
       </c>
       <c r="F3">
-        <v>0.0001939227205905376</v>
+        <v>0.002497600379750236</v>
       </c>
       <c r="G3">
-        <v>0.0001939225731092648</v>
+        <v>0.002497600255502809</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -13428,49 +13428,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.002239225841489869</v>
+        <v>0.02883980431390959</v>
       </c>
       <c r="L3">
-        <v>0.00223922669869863</v>
+        <v>0.02883980503153821</v>
       </c>
       <c r="M3">
-        <v>0.002239224995731579</v>
+        <v>0.0288398035968525</v>
       </c>
       <c r="N3">
-        <v>1.628701117888387E-10</v>
+        <v>-2.791709529419488E-09</v>
       </c>
       <c r="O3">
-        <v>4.60499146990708E-10</v>
+        <v>6.361578612415318E-10</v>
       </c>
       <c r="P3">
-        <v>6.048143172302599E-10</v>
+        <v>2.060717139342073E-10</v>
       </c>
       <c r="Q3">
-        <v>-0.001281773570777989</v>
+        <v>0.0004420035496011283</v>
       </c>
       <c r="R3">
-        <v>-0.0004304714873302482</v>
+        <v>-0.01953545971195405</v>
       </c>
       <c r="S3">
-        <v>0.001712443986842614</v>
+        <v>0.01912665974323937</v>
       </c>
       <c r="T3">
-        <v>-1.271182920072428E-10</v>
+        <v>-2.939618782100425E-11</v>
       </c>
       <c r="U3">
-        <v>-6.158309493065141E-10</v>
+        <v>8.632815753221162E-10</v>
       </c>
       <c r="V3">
-        <v>-3.503194338941831E-10</v>
+        <v>-1.613857983852688E-09</v>
       </c>
       <c r="W3">
-        <v>-0.001705216952023476</v>
+        <v>-0.04341642142160654</v>
       </c>
       <c r="X3">
-        <v>0.001802001885111745</v>
+        <v>0.003134325815771871</v>
       </c>
       <c r="Y3">
-        <v>-0.0003599237525419153</v>
+        <v>-0.003367029252350922</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13482,49 +13482,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>124.8484197415768</v>
+        <v>89.14085805394238</v>
       </c>
       <c r="AD3">
-        <v>124.8484047689664</v>
+        <v>89.14085898104982</v>
       </c>
       <c r="AE3">
-        <v>124.848407041939</v>
+        <v>89.14085714965698</v>
       </c>
       <c r="AG3">
-        <v>0.9527136960968853</v>
+        <v>1.505662789408378</v>
       </c>
       <c r="AH3">
-        <v>0.8273880458860809</v>
+        <v>0.686774233432535</v>
       </c>
       <c r="AI3">
-        <v>0.7814020211531901</v>
+        <v>0.6726729837297687</v>
       </c>
       <c r="AJ3">
-        <v>0.9526680570978565</v>
+        <v>1.505511993524068</v>
       </c>
       <c r="AK3">
-        <v>0.8273861615442069</v>
+        <v>0.6860414698369639</v>
       </c>
       <c r="AL3">
-        <v>0.7814578076600504</v>
+        <v>0.673401328582002</v>
       </c>
       <c r="AM3">
-        <v>-2.085369008275628</v>
+        <v>-0.3051246582918687</v>
       </c>
       <c r="AN3">
-        <v>-131.7120630246241</v>
+        <v>-99.95096593598389</v>
       </c>
       <c r="AO3">
-        <v>112.9768963558544</v>
+        <v>79.13226291315985</v>
       </c>
       <c r="AP3">
-        <v>-2.082948767994196</v>
+        <v>-0.2758588881094364</v>
       </c>
       <c r="AQ3">
-        <v>-131.7162746253098</v>
+        <v>-99.97415913098295</v>
       </c>
       <c r="AR3">
-        <v>112.9786777320012</v>
+        <v>79.15688605352746</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13541,13 +13541,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001939226463541324</v>
+        <v>0.002497600317600544</v>
       </c>
       <c r="F4">
-        <v>0.0001939227205904204</v>
+        <v>0.002497600379750249</v>
       </c>
       <c r="G4">
-        <v>0.0001939225731097187</v>
+        <v>0.002497600255504002</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -13559,49 +13559,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.002239225841490459</v>
+        <v>0.02883980431389538</v>
       </c>
       <c r="L4">
-        <v>0.002239226698697277</v>
+        <v>0.02883980503153835</v>
       </c>
       <c r="M4">
-        <v>0.00223922499573682</v>
+        <v>0.02883980359686628</v>
       </c>
       <c r="N4">
-        <v>1.628668114214384E-10</v>
+        <v>-2.791723945649159E-09</v>
       </c>
       <c r="O4">
-        <v>4.604997989535696E-10</v>
+        <v>6.361552191396762E-10</v>
       </c>
       <c r="P4">
-        <v>6.048105482064518E-10</v>
+        <v>2.060678584937447E-10</v>
       </c>
       <c r="Q4">
-        <v>-0.001281773570775816</v>
+        <v>0.0004420035496012314</v>
       </c>
       <c r="R4">
-        <v>-0.0004304714873315521</v>
+        <v>-0.01953545971195518</v>
       </c>
       <c r="S4">
-        <v>0.001712443986846745</v>
+        <v>0.01912665974324517</v>
       </c>
       <c r="T4">
-        <v>-1.271159138574329E-10</v>
+        <v>-2.942464045907423E-11</v>
       </c>
       <c r="U4">
-        <v>-6.158302178695453E-10</v>
+        <v>8.632853417700679E-10</v>
       </c>
       <c r="V4">
-        <v>-3.503200268476668E-10</v>
+        <v>-1.61384426521777E-09</v>
       </c>
       <c r="W4">
-        <v>-0.001705216952025813</v>
+        <v>-0.04341642142158515</v>
       </c>
       <c r="X4">
-        <v>0.001802001885110283</v>
+        <v>0.00313432581576547</v>
       </c>
       <c r="Y4">
-        <v>-0.0003599237525421741</v>
+        <v>-0.00336702925237152</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13613,49 +13613,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>124.8484197414924</v>
+        <v>89.14085805394195</v>
       </c>
       <c r="AD4">
-        <v>124.8484047689166</v>
+        <v>89.140858981031</v>
       </c>
       <c r="AE4">
-        <v>124.8484070419195</v>
+        <v>89.14085714971387</v>
       </c>
       <c r="AG4">
-        <v>0.9527136960968853</v>
+        <v>1.505662789408378</v>
       </c>
       <c r="AH4">
-        <v>0.8273880458860809</v>
+        <v>0.686774233432535</v>
       </c>
       <c r="AI4">
-        <v>0.7814020211531899</v>
+        <v>0.6726729837297689</v>
       </c>
       <c r="AJ4">
-        <v>0.9526680570978565</v>
+        <v>1.505511993524068</v>
       </c>
       <c r="AK4">
-        <v>0.8273861615442069</v>
+        <v>0.6860414698369639</v>
       </c>
       <c r="AL4">
-        <v>0.7814578076600504</v>
+        <v>0.673401328582002</v>
       </c>
       <c r="AM4">
-        <v>-2.085369008275635</v>
+        <v>-0.3051246582918612</v>
       </c>
       <c r="AN4">
-        <v>-131.7120630246241</v>
+        <v>-99.95096593598389</v>
       </c>
       <c r="AO4">
-        <v>112.9768963558544</v>
+        <v>79.13226291315983</v>
       </c>
       <c r="AP4">
-        <v>-2.082948767994196</v>
+        <v>-0.2758588881094364</v>
       </c>
       <c r="AQ4">
-        <v>-131.7162746253098</v>
+        <v>-99.97415913098295</v>
       </c>
       <c r="AR4">
-        <v>112.9786777320012</v>
+        <v>79.15688605352746</v>
       </c>
     </row>
   </sheetData>
@@ -14968,40 +14968,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052540003E-14</v>
+        <v>1.042129368360492E-14</v>
       </c>
       <c r="O2">
-        <v>2.605324771594614E-15</v>
+        <v>2.605321921290577E-15</v>
       </c>
       <c r="P2">
-        <v>6.991986392047532E-22</v>
+        <v>-5.210646479757795E-14</v>
       </c>
       <c r="Q2">
-        <v>5.210646841799822E-15</v>
+        <v>-3.858215750945292E-27</v>
       </c>
       <c r="R2">
-        <v>1.302704400274988E-14</v>
+        <v>7.816400010929863E-15</v>
       </c>
       <c r="S2">
-        <v>-5.210219294100392E-15</v>
+        <v>2.605365883770323E-14</v>
       </c>
       <c r="T2">
-        <v>-1.563194052540042E-14</v>
+        <v>2.605323420899364E-14</v>
       </c>
       <c r="U2">
-        <v>5.763389653450836E-09</v>
+        <v>5.763384442806944E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763397469429034E-09</v>
+        <v>-5.763413101372581E-09</v>
       </c>
       <c r="W2">
-        <v>2.084258736720036E-14</v>
+        <v>-1.563194052539772E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763392258288356E-09</v>
+        <v>-5.763397468938157E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763387048621244E-09</v>
+        <v>5.763397469917961E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15022,40 +15022,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023832347</v>
+        <v>1.100000023832171</v>
       </c>
       <c r="AG2">
-        <v>0.5500000119157946</v>
+        <v>0.5500000119160762</v>
       </c>
       <c r="AH2">
-        <v>0.5500000119165519</v>
+        <v>0.5500000119168402</v>
       </c>
       <c r="AI2">
-        <v>1.100000023832347</v>
+        <v>1.100000023832171</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000118694253</v>
+        <v>0.5500000118697077</v>
       </c>
       <c r="AK2">
-        <v>0.5500000119629207</v>
+        <v>0.5500000119632104</v>
       </c>
       <c r="AL2">
-        <v>7.06490605679029E-13</v>
+        <v>-1.414637378542286E-11</v>
       </c>
       <c r="AM2">
-        <v>179.9999999999793</v>
+        <v>-179.9999999999778</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999999858</v>
+        <v>-179.9999999999567</v>
       </c>
       <c r="AO2">
-        <v>6.979212866785999E-13</v>
+        <v>-1.414152507942897E-11</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999957488</v>
+        <v>-179.9999999957204</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999957423</v>
+        <v>179.9999999957714</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15099,40 +15099,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.563194052540035E-14</v>
+        <v>1.042129368360105E-14</v>
       </c>
       <c r="O3">
-        <v>-7.815780377961056E-15</v>
+        <v>2.605514254309466E-15</v>
       </c>
       <c r="P3">
-        <v>1.042148378270068E-14</v>
+        <v>1.891244271248741E-19</v>
       </c>
       <c r="Q3">
-        <v>5.210646841800075E-15</v>
+        <v>2.572143833963528E-27</v>
       </c>
       <c r="R3">
-        <v>2.344776848683631E-14</v>
+        <v>-2.605466670050932E-15</v>
       </c>
       <c r="S3">
-        <v>-1.563208304277638E-14</v>
+        <v>-1.563208206863941E-14</v>
       </c>
       <c r="T3">
-        <v>1.042129368359996E-14</v>
+        <v>1.042129368359591E-14</v>
       </c>
       <c r="U3">
-        <v>-1.92113683179678E-09</v>
+        <v>-1.921142042444606E-09</v>
       </c>
       <c r="V3">
-        <v>1.921129016261069E-09</v>
+        <v>1.921123805615239E-09</v>
       </c>
       <c r="W3">
-        <v>6.347101617540068E-29</v>
+        <v>1.042129368359848E-14</v>
       </c>
       <c r="X3">
-        <v>1.921123805233666E-09</v>
+        <v>1.921129015881491E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.92112901620708E-09</v>
+        <v>-1.921129016208092E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15153,40 +15153,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023832347</v>
+        <v>1.100000023832171</v>
       </c>
       <c r="AG3">
-        <v>0.5500000118539691</v>
+        <v>0.5500000118542514</v>
       </c>
       <c r="AH3">
-        <v>0.5500000119783773</v>
+        <v>0.5500000119786668</v>
       </c>
       <c r="AI3">
-        <v>1.100000023832347</v>
+        <v>1.100000023832171</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000118694253</v>
+        <v>0.5500000118697077</v>
       </c>
       <c r="AK3">
-        <v>0.5500000119629207</v>
+        <v>0.5500000119632104</v>
       </c>
       <c r="AL3">
-        <v>6.865039458429775E-13</v>
+        <v>-1.413935290675018E-11</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999943296</v>
+        <v>-179.9999999943013</v>
       </c>
       <c r="AN3">
-        <v>179.9999999943232</v>
+        <v>179.9999999943523</v>
       </c>
       <c r="AO3">
-        <v>6.979212866785999E-13</v>
+        <v>-1.414152507942897E-11</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999957488</v>
+        <v>-179.9999999957204</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999957423</v>
+        <v>179.9999999957714</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15230,40 +15230,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.605323420900057E-14</v>
+        <v>5.210646841799237E-15</v>
       </c>
       <c r="O4">
-        <v>-1.823707406399381E-14</v>
+        <v>-7.815779430315976E-15</v>
       </c>
       <c r="P4">
-        <v>1.900990852910209E-19</v>
+        <v>1.891244271248741E-19</v>
       </c>
       <c r="Q4">
-        <v>1.563194052540029E-14</v>
+        <v>1.042129368360105E-14</v>
       </c>
       <c r="R4">
-        <v>2.344776848760823E-14</v>
+        <v>1.823712069616558E-14</v>
       </c>
       <c r="S4">
-        <v>-5.210789358290473E-15</v>
+        <v>-2.60533757531308E-14</v>
       </c>
       <c r="T4">
-        <v>1.563194052539991E-14</v>
+        <v>-1.285430982228046E-27</v>
       </c>
       <c r="U4">
-        <v>-1.921115989209416E-09</v>
+        <v>-1.921131621150926E-09</v>
       </c>
       <c r="V4">
-        <v>1.92112901626107E-09</v>
+        <v>1.92112380561524E-09</v>
       </c>
       <c r="W4">
-        <v>-5.210646841799885E-15</v>
+        <v>1.042129368359591E-14</v>
       </c>
       <c r="X4">
-        <v>1.921113383939983E-09</v>
+        <v>1.921118594587811E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921129016207081E-09</v>
+        <v>-1.921129016208091E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15284,40 +15284,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023832347</v>
+        <v>1.10000002383217</v>
       </c>
       <c r="AG4">
-        <v>0.550000011853969</v>
+        <v>0.5500000118542517</v>
       </c>
       <c r="AH4">
-        <v>0.5500000119783771</v>
+        <v>0.550000011978667</v>
       </c>
       <c r="AI4">
-        <v>1.100000023832347</v>
+        <v>1.100000023832171</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000118694253</v>
+        <v>0.5500000118697077</v>
       </c>
       <c r="AK4">
-        <v>0.5500000119629207</v>
+        <v>0.5500000119632104</v>
       </c>
       <c r="AL4">
-        <v>6.992332288419499E-13</v>
+        <v>-1.413447742153807E-11</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999943297</v>
+        <v>-179.9999999943014</v>
       </c>
       <c r="AN4">
-        <v>179.9999999943232</v>
+        <v>179.9999999943523</v>
       </c>
       <c r="AO4">
-        <v>6.979212866785999E-13</v>
+        <v>-1.414152507942897E-11</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999957488</v>
+        <v>-179.9999999957204</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999957423</v>
+        <v>179.9999999957714</v>
       </c>
     </row>
   </sheetData>
